--- a/data/Classification.xlsx
+++ b/data/Classification.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="To_compare" sheetId="1" r:id="rId1"/>
     <sheet name="Final_Names" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Final_Names!$A$1:$C$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Final_Names!$A$1:$C$163</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">To_compare!$A$1:$B$318</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="327">
   <si>
     <t>Bank</t>
   </si>
@@ -1363,9 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B318"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1391,2006 +1389,2064 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>110</v>
+      <c r="A5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
+      <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="A8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
+      <c r="A9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>308</v>
+      <c r="A11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
+      <c r="A12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>280</v>
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>276</v>
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>315</v>
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>218</v>
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>214</v>
+      <c r="A20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
+      <c r="A23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
+      <c r="A24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>113</v>
+      <c r="A26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
+      <c r="A27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>11</v>
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>12</v>
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>13</v>
+      <c r="A30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>14</v>
+      <c r="A31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>15</v>
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>244</v>
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>114</v>
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>18</v>
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>19</v>
+      <c r="A39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>118</v>
+      <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>20</v>
+      <c r="A43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B44" t="s">
-        <v>309</v>
+        <v>206</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>309</v>
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B46" t="s">
-        <v>21</v>
+        <v>176</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>21</v>
+      <c r="A48" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>22</v>
+      <c r="A49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>23</v>
+      <c r="A50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>24</v>
+      <c r="A51" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>25</v>
+      <c r="A56" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B56" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>231</v>
+      <c r="A59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>232</v>
+      <c r="A61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>27</v>
+      <c r="A62" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>123</v>
+      <c r="A64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>124</v>
+      <c r="A67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>192</v>
+      <c r="A69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>125</v>
+      <c r="A70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>30</v>
+      <c r="A71" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>126</v>
+      <c r="A72" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B72" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>127</v>
+      <c r="A74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>233</v>
+      <c r="A75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>32</v>
+      <c r="A77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>200</v>
+      <c r="A79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>34</v>
+        <v>311</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>248</v>
+      <c r="A81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>35</v>
+      <c r="A84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>36</v>
+      <c r="A87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>130</v>
+      <c r="A89" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>38</v>
+      <c r="A90" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>185</v>
+      <c r="A92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>191</v>
+      <c r="A93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>203</v>
+      <c r="A95" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>203</v>
+        <v>302</v>
+      </c>
+      <c r="B96" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>249</v>
+      <c r="A98" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>281</v>
+      <c r="A99" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>132</v>
+      <c r="A101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>250</v>
+      <c r="A104" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>41</v>
+      <c r="A105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>42</v>
+      <c r="A106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>134</v>
+      <c r="A107" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B107" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>43</v>
+      <c r="A108" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>135</v>
+      <c r="A109" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>136</v>
+      <c r="A110" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>44</v>
+      <c r="A111" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>137</v>
+      <c r="A112" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>45</v>
+      <c r="A113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B113" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B115" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>138</v>
+      <c r="A116" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B116" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>139</v>
+      <c r="A118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>251</v>
+      <c r="A121" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="B122" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>224</v>
+      <c r="A123" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B125" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>235</v>
+      <c r="A126" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>49</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>141</v>
+      <c r="A128" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>225</v>
+      <c r="A129" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="B130" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>142</v>
+      <c r="A131" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B131" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>50</v>
+      <c r="A134" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B134" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="B135" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B137" t="s">
-        <v>291</v>
+        <v>240</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>291</v>
+      <c r="A139" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B139" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>145</v>
+      <c r="A141" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B141" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>146</v>
+      <c r="A142" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>282</v>
+      <c r="A144" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B144" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="B145" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>252</v>
+      <c r="A146" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B146" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="B147" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="B148" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>253</v>
+        <v>181</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>253</v>
+      <c r="A150" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B151" t="s">
-        <v>254</v>
+        <v>241</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>254</v>
+      <c r="A152" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B153" t="s">
-        <v>55</v>
+        <v>242</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>55</v>
+      <c r="A154" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>311</v>
+        <v>182</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>277</v>
+      <c r="A156" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B157" t="s">
-        <v>256</v>
+      <c r="A157" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B158" t="s">
-        <v>256</v>
+      <c r="A158" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B159" t="s">
-        <v>256</v>
+      <c r="A159" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B161" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B165" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B167" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B168" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B170" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B171" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B174" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B176" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B178" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B180" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B182" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B183" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B185" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B186" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B188" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B191" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B197" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B200" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B203" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B206" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B207" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B211" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B212" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B214" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B215" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B220" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B221" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B223" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B225" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B226" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B228" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B230" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B232" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B233" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B235" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B239" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B240" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B244" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B247" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B248" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B258" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B261" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B262" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B265" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B267" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B268" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B270" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B271" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B273" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B275" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B276" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B277" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B278" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B282" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B285" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B289" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B290" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B291" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B298" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B301" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B302" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B304" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B313" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B314" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B316" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B317" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>275</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B318">
+    <sortState ref="A2:B318">
+      <sortCondition ref="B153"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A141" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D141" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5082,51 +5138,51 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="B154" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C154" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>314</v>
+        <v>97</v>
       </c>
       <c r="B155" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C155" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="B156" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C156" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="B157" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C157" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="B158" t="s">
         <v>319</v>
@@ -5137,18 +5193,18 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="B160" t="s">
         <v>319</v>
@@ -5158,8 +5214,8 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>178</v>
+      <c r="A161" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B161" t="s">
         <v>319</v>
@@ -5170,210 +5226,23 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C162" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="B163" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C163" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>299</v>
-      </c>
-      <c r="B164" t="s">
-        <v>319</v>
-      </c>
-      <c r="C164" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>95</v>
-      </c>
-      <c r="B165" t="s">
-        <v>322</v>
-      </c>
-      <c r="C165" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>227</v>
-      </c>
-      <c r="B166" t="s">
-        <v>319</v>
-      </c>
-      <c r="C166" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>240</v>
-      </c>
-      <c r="B167" t="s">
-        <v>319</v>
-      </c>
-      <c r="C167" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>241</v>
-      </c>
-      <c r="B168" t="s">
-        <v>319</v>
-      </c>
-      <c r="C168" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>307</v>
-      </c>
-      <c r="B169" t="s">
-        <v>319</v>
-      </c>
-      <c r="C169" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>242</v>
-      </c>
-      <c r="B170" t="s">
-        <v>319</v>
-      </c>
-      <c r="C170" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>272</v>
-      </c>
-      <c r="B171" t="s">
-        <v>319</v>
-      </c>
-      <c r="C171" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>106</v>
-      </c>
-      <c r="B172" t="s">
-        <v>322</v>
-      </c>
-      <c r="C172" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>97</v>
-      </c>
-      <c r="B173" t="s">
-        <v>320</v>
-      </c>
-      <c r="C173" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>98</v>
-      </c>
-      <c r="B174" t="s">
-        <v>320</v>
-      </c>
-      <c r="C174" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>99</v>
-      </c>
-      <c r="B175" t="s">
-        <v>320</v>
-      </c>
-      <c r="C175" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>273</v>
-      </c>
-      <c r="B176" t="s">
-        <v>319</v>
-      </c>
-      <c r="C176" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>100</v>
-      </c>
-      <c r="B177" t="s">
-        <v>320</v>
-      </c>
-      <c r="C177" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>228</v>
-      </c>
-      <c r="B178" t="s">
-        <v>319</v>
-      </c>
-      <c r="C178" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>229</v>
-      </c>
-      <c r="B179" t="s">
-        <v>322</v>
-      </c>
-      <c r="C179" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>275</v>
-      </c>
-      <c r="B180" t="s">
-        <v>321</v>
-      </c>
-      <c r="C180" t="s">
         <v>321</v>
       </c>
     </row>

--- a/data/Classification.xlsx
+++ b/data/Classification.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26221"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="18020" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="To_compare" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Final_Names!$A$1:$C$163</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">To_compare!$A$1:$B$318</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="328">
   <si>
     <t>Bank</t>
   </si>
@@ -1000,13 +1005,16 @@
   </si>
   <si>
     <t>Revised</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1033,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1050,9 +1074,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1060,7 +1094,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="12">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1361,2073 +1405,3994 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:C318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B9" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B10" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f>VLOOKUP(B10,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B11" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B12" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f>VLOOKUP(B13,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f>VLOOKUP(B14,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f>VLOOKUP(B15,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f>VLOOKUP(B16,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f>VLOOKUP(B17,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="str">
+        <f>VLOOKUP(B18,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="str">
+        <f>VLOOKUP(B19,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B20" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f>VLOOKUP(B20,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f>VLOOKUP(B21,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="str">
+        <f>VLOOKUP(B22,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f>VLOOKUP(B23,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
+        <f>VLOOKUP(B24,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f>VLOOKUP(B25,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="str">
+        <f>VLOOKUP(B26,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B27" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <f>VLOOKUP(B27,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="str">
+        <f>VLOOKUP(B28,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f>VLOOKUP(B29,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B30" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <f>VLOOKUP(B30,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B31" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f>VLOOKUP(B31,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <f>VLOOKUP(B32,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B33" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="str">
+        <f>VLOOKUP(B33,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="str">
+        <f>VLOOKUP(B34,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B35" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="str">
+        <f>VLOOKUP(B35,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="str">
+        <f>VLOOKUP(B36,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="str">
+        <f>VLOOKUP(B37,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B38" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="str">
+        <f>VLOOKUP(B38,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B39" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="str">
+        <f>VLOOKUP(B39,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="str">
+        <f>VLOOKUP(B40,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="str">
+        <f>VLOOKUP(B41,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="str">
+        <f>VLOOKUP(B42,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B43" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="str">
+        <f>VLOOKUP(B43,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="str">
+        <f>VLOOKUP(B44,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="str">
+        <f>VLOOKUP(B45,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="str">
+        <f>VLOOKUP(B46,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B47" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="str">
+        <f>VLOOKUP(B47,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B48" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="str">
+        <f>VLOOKUP(B48,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B49" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="str">
+        <f>VLOOKUP(B49,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B50" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="str">
+        <f>VLOOKUP(B50,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B51" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="str">
+        <f>VLOOKUP(B51,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B52" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="str">
+        <f>VLOOKUP(B52,Final_Names!$A$2:$C$163,3)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="str">
+        <f>VLOOKUP(B53,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B54" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="str">
+        <f>VLOOKUP(B54,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B55" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="str">
+        <f>VLOOKUP(B55,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B56" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="str">
+        <f>VLOOKUP(B56,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B57" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="str">
+        <f>VLOOKUP(B57,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B58" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="str">
+        <f>VLOOKUP(B58,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B59" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="str">
+        <f>VLOOKUP(B59,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B60" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="str">
+        <f>VLOOKUP(B60,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B61" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="str">
+        <f>VLOOKUP(B61,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B62" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="str">
+        <f>VLOOKUP(B62,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B63" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="str">
+        <f>VLOOKUP(B63,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B64" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="str">
+        <f>VLOOKUP(B64,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B65" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="str">
+        <f>VLOOKUP(B65,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B66" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="str">
+        <f>VLOOKUP(B66,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B67" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="str">
+        <f>VLOOKUP(B67,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B68" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="str">
+        <f>VLOOKUP(B68,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B69" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="str">
+        <f>VLOOKUP(B69,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B70" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="str">
+        <f>VLOOKUP(B70,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B71" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="str">
+        <f>VLOOKUP(B71,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B72" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="str">
+        <f>VLOOKUP(B72,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B73" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="str">
+        <f>VLOOKUP(B73,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B74" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="str">
+        <f>VLOOKUP(B74,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B75" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="str">
+        <f>VLOOKUP(B75,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B76" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="str">
+        <f>VLOOKUP(B76,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B77" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="str">
+        <f>VLOOKUP(B77,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B78" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" t="str">
+        <f>VLOOKUP(B78,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="str">
+        <f>VLOOKUP(B79,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B80" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" t="str">
+        <f>VLOOKUP(B80,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B81" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="str">
+        <f>VLOOKUP(B81,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B82" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" t="str">
+        <f>VLOOKUP(B82,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B83" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" t="str">
+        <f>VLOOKUP(B83,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B84" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="str">
+        <f>VLOOKUP(B84,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B85" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" t="str">
+        <f>VLOOKUP(B85,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B86" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" t="str">
+        <f>VLOOKUP(B86,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B87" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" t="str">
+        <f>VLOOKUP(B87,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B88" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" t="str">
+        <f>VLOOKUP(B88,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B89" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" t="str">
+        <f>VLOOKUP(B89,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B90" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" t="str">
+        <f>VLOOKUP(B90,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B91" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" t="str">
+        <f>VLOOKUP(B91,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B92" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" t="str">
+        <f>VLOOKUP(B92,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B93" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" t="str">
+        <f>VLOOKUP(B93,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B94" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" t="str">
+        <f>VLOOKUP(B94,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B95" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" t="str">
+        <f>VLOOKUP(B95,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B96" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" t="str">
+        <f>VLOOKUP(B96,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B97" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" t="str">
+        <f>VLOOKUP(B97,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B98" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" t="str">
+        <f>VLOOKUP(B98,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B99" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" t="str">
+        <f>VLOOKUP(B99,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B100" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" t="str">
+        <f>VLOOKUP(B100,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B101" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" t="str">
+        <f>VLOOKUP(B101,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B102" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="str">
+        <f>VLOOKUP(B102,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B103" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="str">
+        <f>VLOOKUP(B103,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B104" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" t="str">
+        <f>VLOOKUP(B104,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B105" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" t="str">
+        <f>VLOOKUP(B105,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B106" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" t="str">
+        <f>VLOOKUP(B106,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B107" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" t="str">
+        <f>VLOOKUP(B107,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B108" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" t="str">
+        <f>VLOOKUP(B108,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B109" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" t="str">
+        <f>VLOOKUP(B109,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B110" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" t="str">
+        <f>VLOOKUP(B110,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B111" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" t="str">
+        <f>VLOOKUP(B111,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B112" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" t="str">
+        <f>VLOOKUP(B112,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B113" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" t="str">
+        <f>VLOOKUP(B113,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B114" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" t="str">
+        <f>VLOOKUP(B114,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B115" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" t="str">
+        <f>VLOOKUP(B115,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B116" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" t="str">
+        <f>VLOOKUP(B116,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B117" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" t="str">
+        <f>VLOOKUP(B117,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B118" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" t="str">
+        <f>VLOOKUP(B118,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B119" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" t="str">
+        <f>VLOOKUP(B119,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B120" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" t="str">
+        <f>VLOOKUP(B120,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B121" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" t="str">
+        <f>VLOOKUP(B121,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B122" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" t="str">
+        <f>VLOOKUP(B122,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B123" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" t="str">
+        <f>VLOOKUP(B123,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B124" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" t="str">
+        <f>VLOOKUP(B124,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B125" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" t="str">
+        <f>VLOOKUP(B125,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B126" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" t="str">
+        <f>VLOOKUP(B126,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B127" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" t="str">
+        <f>VLOOKUP(B127,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B128" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" t="str">
+        <f>VLOOKUP(B128,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B129" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" t="str">
+        <f>VLOOKUP(B129,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B130" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" t="str">
+        <f>VLOOKUP(B130,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B131" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" t="str">
+        <f>VLOOKUP(B131,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B132" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" t="str">
+        <f>VLOOKUP(B132,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B133" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" t="str">
+        <f>VLOOKUP(B133,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B134" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" t="str">
+        <f>VLOOKUP(B134,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B135" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" t="str">
+        <f>VLOOKUP(B135,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B136" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" t="str">
+        <f>VLOOKUP(B136,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" t="str">
+        <f>VLOOKUP(B137,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B138" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" t="str">
+        <f>VLOOKUP(B138,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B139" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" t="str">
+        <f>VLOOKUP(B139,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B140" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" t="str">
+        <f>VLOOKUP(B140,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B141" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" t="str">
+        <f>VLOOKUP(B141,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B142" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" t="str">
+        <f>VLOOKUP(B142,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B143" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" t="str">
+        <f>VLOOKUP(B143,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B144" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" t="str">
+        <f>VLOOKUP(B144,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B145" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" t="str">
+        <f>VLOOKUP(B145,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B146" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" t="str">
+        <f>VLOOKUP(B146,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B147" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" t="str">
+        <f>VLOOKUP(B147,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B148" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" t="str">
+        <f>VLOOKUP(B148,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" t="str">
+        <f>VLOOKUP(B149,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" t="str">
+        <f>VLOOKUP(B150,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" t="str">
+        <f>VLOOKUP(B151,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" t="str">
+        <f>VLOOKUP(B152,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" t="str">
+        <f>VLOOKUP(B153,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B154" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" t="str">
+        <f>VLOOKUP(B154,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B155" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" t="str">
+        <f>VLOOKUP(B155,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" t="str">
+        <f>VLOOKUP(B156,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="str">
+        <f>A157</f>
+        <v>VARACHHA COOPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C157" t="str">
+        <f>VLOOKUP(B157,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="str">
+        <f>A158</f>
+        <v>VISHESHWAR SAHAKARI BANK LTD.</v>
+      </c>
+      <c r="C158" t="str">
+        <f>VLOOKUP(B158,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="str">
+        <f t="shared" ref="B159:B222" si="0">A159</f>
+        <v>WEST BENGAL STATE COOPERATIVE BANK</v>
+      </c>
+      <c r="C159" t="str">
+        <f>VLOOKUP(B159,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" t="str">
+        <f t="shared" si="0"/>
+        <v>A P MAHESH CO-OP URBAN BANK LTD.</v>
+      </c>
+      <c r="C160" t="str">
+        <f>VLOOKUP(B160,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ABHYUDAYA CO-OP BANK LTD</v>
+      </c>
+      <c r="C161" t="str">
+        <f>VLOOKUP(B161,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" t="str">
+        <f t="shared" si="0"/>
+        <v>ABN AMRO BANK N.V.</v>
+      </c>
+      <c r="C162" t="str">
+        <f>VLOOKUP(B162,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ABU DHABI COMMERCIAL BANK</v>
+      </c>
+      <c r="C163" t="str">
+        <f>VLOOKUP(B163,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" t="str">
+        <f t="shared" si="0"/>
+        <v>AHMEDABAD MERCANTILE COOP BANK</v>
+      </c>
+      <c r="C164" t="str">
+        <f>VLOOKUP(B164,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ALLAHABAD BANK</v>
+      </c>
+      <c r="C165" t="str">
+        <f>VLOOKUP(B165,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" t="str">
+        <f t="shared" si="0"/>
+        <v>ALMORA URBAN CO-OPERATIVE BANK LTD</v>
+      </c>
+      <c r="C166" t="str">
+        <f>VLOOKUP(B166,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ANDHRA BANK</v>
+      </c>
+      <c r="C167" t="str">
+        <f>VLOOKUP(B167,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" t="str">
+        <f t="shared" si="0"/>
+        <v>ANDHRA PRADESH GRAMEENA BANK</v>
+      </c>
+      <c r="C168" t="str">
+        <f>VLOOKUP(B168,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ANDHRA PRADESH STATE CO-OPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C169" t="str">
+        <f>VLOOKUP(B169,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" t="str">
+        <f t="shared" si="0"/>
+        <v>ANDHRA PRAGATHI GRAMEENA BANK</v>
+      </c>
+      <c r="C170" t="str">
+        <f>VLOOKUP(B170,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>APNA SAHAKARI BANK LTD.</v>
+      </c>
+      <c r="C171" t="str">
+        <f>VLOOKUP(B171,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" t="str">
+        <f t="shared" si="0"/>
+        <v>AUSTRALIA &amp; NEW ZEALAND BANKING GROUP LTD.</v>
+      </c>
+      <c r="C172" t="str">
+        <f>VLOOKUP(B172,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AXIS BANK LTD</v>
+      </c>
+      <c r="C173" t="str">
+        <f>VLOOKUP(B173,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" t="str">
+        <f t="shared" si="0"/>
+        <v>B N PARIBAS</v>
+      </c>
+      <c r="C174" t="str">
+        <f>VLOOKUP(B174,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BANK OF AMERICA</v>
+      </c>
+      <c r="C175" t="str">
+        <f>VLOOKUP(B175,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" t="str">
+        <f t="shared" si="0"/>
+        <v>BANK OF BAHRAIN AND KUWAIT</v>
+      </c>
+      <c r="C176" t="str">
+        <f>VLOOKUP(B176,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BANK OF BARODA</v>
+      </c>
+      <c r="C177" t="str">
+        <f>VLOOKUP(B177,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" t="str">
+        <f t="shared" si="0"/>
+        <v>BANK OF CEYLON</v>
+      </c>
+      <c r="C178" t="str">
+        <f>VLOOKUP(B178,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BANK OF INDIA</v>
+      </c>
+      <c r="C179" t="str">
+        <f>VLOOKUP(B179,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" t="str">
+        <f t="shared" si="0"/>
+        <v>BANK OF MAHARASHTRA</v>
+      </c>
+      <c r="C180" t="str">
+        <f>VLOOKUP(B180,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BANK OF NOVA SCOTIA</v>
+      </c>
+      <c r="C181" t="str">
+        <f>VLOOKUP(B181,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" t="str">
+        <f t="shared" si="0"/>
+        <v>BANK OF RAJASTHAN</v>
+      </c>
+      <c r="C182" t="str">
+        <f>VLOOKUP(B182,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BANK OF TOKYO MITSUBISHI UFJ LTD.</v>
+      </c>
+      <c r="C183" t="str">
+        <f>VLOOKUP(B183,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" t="str">
+        <f t="shared" si="0"/>
+        <v>BARCLAYS BANK PLC</v>
+      </c>
+      <c r="C184" t="str">
+        <f>VLOOKUP(B184,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BASSEIN CATHOLIC CO-OP BANK LTD</v>
+      </c>
+      <c r="C185" t="str">
+        <f>VLOOKUP(B185,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" t="str">
+        <f t="shared" si="0"/>
+        <v>BHARAT CO-OP BANK LTD</v>
+      </c>
+      <c r="C186" t="str">
+        <f>VLOOKUP(B186,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BNP PARIBAS</v>
+      </c>
+      <c r="C187" t="str">
+        <f>VLOOKUP(B187,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" t="str">
+        <f t="shared" si="0"/>
+        <v>CANARA BANK</v>
+      </c>
+      <c r="C188" t="str">
+        <f>VLOOKUP(B188,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CAPITAL LOCAL AREA BANK LTD</v>
+      </c>
+      <c r="C189" t="str">
+        <f>VLOOKUP(B189,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" t="str">
+        <f t="shared" si="0"/>
+        <v>CATHOLIC SYRIAN BANK LTD.</v>
+      </c>
+      <c r="C190" t="str">
+        <f>VLOOKUP(B190,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CENTRAL BANK OF INDIA</v>
+      </c>
+      <c r="C191" t="str">
+        <f>VLOOKUP(B191,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" t="str">
+        <f t="shared" si="0"/>
+        <v>CHINATRUST COMMERCIAL BANK</v>
+      </c>
+      <c r="C192" t="str">
+        <f>VLOOKUP(B192,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CITI BANK</v>
+      </c>
+      <c r="C193" t="str">
+        <f>VLOOKUP(B193,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" t="str">
+        <f t="shared" si="0"/>
+        <v>CITIZEN CREDIT COOPERATIVE BANK LTD</v>
+      </c>
+      <c r="C194" t="str">
+        <f>VLOOKUP(B194,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CITY UNION BANK LTD.</v>
+      </c>
+      <c r="C195" t="str">
+        <f>VLOOKUP(B195,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMONWEALTH BANK OF AUSTRALIA</v>
+      </c>
+      <c r="C196" t="str">
+        <f>VLOOKUP(B196,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CORPORATION BANK</v>
+      </c>
+      <c r="C197" t="str">
+        <f>VLOOKUP(B197,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" t="str">
+        <f t="shared" si="0"/>
+        <v>COSMOS CO-OPERATIVE BANK</v>
+      </c>
+      <c r="C198" t="str">
+        <f>VLOOKUP(B198,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CREDIT AGRICOLE CORPORATE AND INVESTMENT BANK</v>
+      </c>
+      <c r="C199" t="str">
+        <f>VLOOKUP(B199,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" t="str">
+        <f t="shared" si="0"/>
+        <v>CREDIT SUISSE AG</v>
+      </c>
+      <c r="C200" t="str">
+        <f>VLOOKUP(B200,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DBS BANK</v>
+      </c>
+      <c r="C201" t="str">
+        <f>VLOOKUP(B201,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" t="str">
+        <f t="shared" si="0"/>
+        <v>DENA BANK</v>
+      </c>
+      <c r="C202" t="str">
+        <f>VLOOKUP(B202,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DEPOSIT INS AND CR GUAR CORPN</v>
+      </c>
+      <c r="C203" t="str">
+        <f>VLOOKUP(B203,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" t="str">
+        <f t="shared" si="0"/>
+        <v>DEUTSCHE BANK LTD</v>
+      </c>
+      <c r="C204" t="str">
+        <f>VLOOKUP(B204,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DEUTSCHE SECURITIES (I) PVT. LTD.</v>
+      </c>
+      <c r="C205" t="str">
+        <f>VLOOKUP(B205,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" t="str">
+        <f t="shared" si="0"/>
+        <v>DEVELOPMENT BANK OF SINGAPORE</v>
+      </c>
+      <c r="C206" t="str">
+        <f>VLOOKUP(B206,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DEVELOPMENT CREDIT BANK LTD</v>
+      </c>
+      <c r="C207" t="str">
+        <f>VLOOKUP(B207,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" t="str">
+        <f t="shared" si="0"/>
+        <v>DHANALAKSHMI BANK LTD.</v>
+      </c>
+      <c r="C208" t="str">
+        <f>VLOOKUP(B208,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>DICGC</v>
+      </c>
+      <c r="C209" t="str">
+        <f>VLOOKUP(B209,Final_Names!$A$2:$C$163,3)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" t="str">
+        <f t="shared" si="0"/>
+        <v>DOMBIVLI NAGRIK SAHAKARI BANK</v>
+      </c>
+      <c r="C210" t="str">
+        <f>VLOOKUP(B210,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FEDERAL BANK LTD.</v>
+      </c>
+      <c r="C211" t="str">
+        <f>VLOOKUP(B211,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" t="str">
+        <f t="shared" si="0"/>
+        <v>FIRSTRAND BANK</v>
+      </c>
+      <c r="C212" t="str">
+        <f>VLOOKUP(B212,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GOLDMAN SACH (INDIA)</v>
+      </c>
+      <c r="C213" t="str">
+        <f>VLOOKUP(B213,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" t="str">
+        <f t="shared" si="0"/>
+        <v>GOLDMAN SACH (INDIA) CAPITAL MARKETS P LTD.</v>
+      </c>
+      <c r="C214" t="str">
+        <f>VLOOKUP(B214,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GREATER BOMBAY CO.OP BANK LTD</v>
+      </c>
+      <c r="C215" t="str">
+        <f>VLOOKUP(B215,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" t="str">
+        <f t="shared" si="0"/>
+        <v>GUJARAT STATE COOPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C216" t="str">
+        <f>VLOOKUP(B216,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GURGAON GRAMIN BANK</v>
+      </c>
+      <c r="C217" t="str">
+        <f>VLOOKUP(B217,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" t="str">
+        <f t="shared" si="0"/>
+        <v>HDFC BANK LTD.</v>
+      </c>
+      <c r="C218" t="str">
+        <f>VLOOKUP(B218,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HONGKONG &amp; SHANGHAI BKG CORPORATION</v>
+      </c>
+      <c r="C219" t="str">
+        <f>VLOOKUP(B219,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" t="str">
+        <f t="shared" si="0"/>
+        <v>HSBC BANK</v>
+      </c>
+      <c r="C220" t="str">
+        <f>VLOOKUP(B220,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ICICI BANK LTD</v>
+      </c>
+      <c r="C221" t="str">
+        <f>VLOOKUP(B221,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" t="str">
+        <f t="shared" si="0"/>
+        <v>ICICI SECURITIES LIMITED</v>
+      </c>
+      <c r="C222" t="str">
+        <f>VLOOKUP(B222,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="str">
+        <f t="shared" ref="B223:B286" si="1">A223</f>
+        <v>IDBI BANK</v>
+      </c>
+      <c r="C223" t="str">
+        <f>VLOOKUP(B223,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" t="str">
+        <f t="shared" si="1"/>
+        <v>IDBI CAP MARKET SERVICES LTD</v>
+      </c>
+      <c r="C224" t="str">
+        <f>VLOOKUP(B224,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>IDBI LTD.</v>
+      </c>
+      <c r="C225" t="str">
+        <f>VLOOKUP(B225,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" t="str">
+        <f t="shared" si="1"/>
+        <v>INDIAN BANK</v>
+      </c>
+      <c r="C226" t="str">
+        <f>VLOOKUP(B226,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INDIAN CLEARING CORPORATION LIMITED</v>
+      </c>
+      <c r="C227" t="str">
+        <f>VLOOKUP(B227,Final_Names!$A$2:$C$163,3)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" t="str">
+        <f t="shared" si="1"/>
+        <v>INDIAN OVERSEAS BANK</v>
+      </c>
+      <c r="C228" t="str">
+        <f>VLOOKUP(B228,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INDUSIND BANK LTD.</v>
+      </c>
+      <c r="C229" t="str">
+        <f>VLOOKUP(B229,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" t="str">
+        <f t="shared" si="1"/>
+        <v>ING VYSYA BANK LTD.</v>
+      </c>
+      <c r="C230" t="str">
+        <f>VLOOKUP(B230,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>JALGAON JANTA SAHAKARI BANK LTD.</v>
+      </c>
+      <c r="C231" t="str">
+        <f>VLOOKUP(B231,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" t="str">
+        <f t="shared" si="1"/>
+        <v>JALGAON PEOPLES' COOPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C232" t="str">
+        <f>VLOOKUP(B232,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>JAMMU AND KASHMIR BANK LTD.</v>
+      </c>
+      <c r="C233" t="str">
+        <f>VLOOKUP(B233,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" t="str">
+        <f t="shared" si="1"/>
+        <v>JANAKALYAN SAHAKARI BANK LTD.</v>
+      </c>
+      <c r="C234" t="str">
+        <f>VLOOKUP(B234,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>JANASEVA SAHAKARI BANK LTD., PUNE</v>
+      </c>
+      <c r="C235" t="str">
+        <f>VLOOKUP(B235,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" t="str">
+        <f t="shared" si="1"/>
+        <v>JANATA SAHAKARI BANK LTD., PUNE</v>
+      </c>
+      <c r="C236" t="str">
+        <f>VLOOKUP(B236,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>JP MORGAN BANK</v>
+      </c>
+      <c r="C237" t="str">
+        <f>VLOOKUP(B237,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" t="str">
+        <f t="shared" si="1"/>
+        <v>KALLAPPANNA AWADE IJSB LTD</v>
+      </c>
+      <c r="C238" t="str">
+        <f>VLOOKUP(B238,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>KALUPUR COMMERCIAL CO-OP BANK</v>
+      </c>
+      <c r="C239" t="str">
+        <f>VLOOKUP(B239,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" t="str">
+        <f t="shared" si="1"/>
+        <v>KALYAN JANATA SAH BANK LTD</v>
+      </c>
+      <c r="C240" t="str">
+        <f>VLOOKUP(B240,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>KANGRA CENTRAL CO-OP. BANK LTD.</v>
+      </c>
+      <c r="C241" t="str">
+        <f>VLOOKUP(B241,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" t="str">
+        <f t="shared" si="1"/>
+        <v>KAPOL CO-OP BANK LTD</v>
+      </c>
+      <c r="C242" t="str">
+        <f>VLOOKUP(B242,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>KARAD URBAN CO-OP. BANK LTD.</v>
+      </c>
+      <c r="C243" t="str">
+        <f>VLOOKUP(B243,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" t="str">
+        <f t="shared" si="1"/>
+        <v>KARNATAKA BANK LTD.</v>
+      </c>
+      <c r="C244" t="str">
+        <f>VLOOKUP(B244,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>KARNATAKA STATE COOP APEX BANK</v>
+      </c>
+      <c r="C245" t="str">
+        <f>VLOOKUP(B245,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" t="str">
+        <f t="shared" si="1"/>
+        <v>KARNATAKA VIKAS GRAMEENA BANK</v>
+      </c>
+      <c r="C246" t="str">
+        <f>VLOOKUP(B246,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>KARUR VYSYA BANK LTD.</v>
+      </c>
+      <c r="C247" t="str">
+        <f>VLOOKUP(B247,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" t="str">
+        <f t="shared" si="1"/>
+        <v>KOTAK MAHINDRA BANK LTD.</v>
+      </c>
+      <c r="C248" t="str">
+        <f>VLOOKUP(B248,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>KRUNG THAI BANK PCL</v>
+      </c>
+      <c r="C249" t="str">
+        <f>VLOOKUP(B249,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" t="str">
+        <f t="shared" si="1"/>
+        <v>LAKSHMI VILAS BANK LTD</v>
+      </c>
+      <c r="C250" t="str">
+        <f>VLOOKUP(B250,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MAHANAGAR CO-OP.BANK LTD.</v>
+      </c>
+      <c r="C251" t="str">
+        <f>VLOOKUP(B251,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" t="str">
+        <f t="shared" si="1"/>
+        <v>MAHARASHTRA STATE CO-OP BANK LTD.</v>
+      </c>
+      <c r="C252" t="str">
+        <f>VLOOKUP(B252,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MASHREQ BANK</v>
+      </c>
+      <c r="C253" t="str">
+        <f>VLOOKUP(B253,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" t="str">
+        <f t="shared" si="1"/>
+        <v>MEHSANA URBAN COOPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C254" t="str">
+        <f>VLOOKUP(B254,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MIZUHO CORPORATE BANK LTD.</v>
+      </c>
+      <c r="C255" t="str">
+        <f>VLOOKUP(B255,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" t="str">
+        <f t="shared" si="1"/>
+        <v>MORGAN STANLEY INDIA</v>
+      </c>
+      <c r="C256" t="str">
+        <f>VLOOKUP(B256,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MUMBAI DISTRICT CENTRAL COOP BANK LTD.</v>
+      </c>
+      <c r="C257" t="str">
+        <f>VLOOKUP(B257,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" t="str">
+        <f t="shared" si="1"/>
+        <v>MUNICIPAL COOPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C258" t="str">
+        <f>VLOOKUP(B258,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>NAGPUR NAGRIK SAHAKARI BANK LTD</v>
+      </c>
+      <c r="C259" t="str">
+        <f>VLOOKUP(B259,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" t="str">
+        <f t="shared" si="1"/>
+        <v>NAINITAL BANK LTD.</v>
+      </c>
+      <c r="C260" t="str">
+        <f>VLOOKUP(B260,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>NASIK MARCHANT'S CO-OP BANK LTD.</v>
+      </c>
+      <c r="C261" t="str">
+        <f>VLOOKUP(B261,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" t="str">
+        <f t="shared" si="1"/>
+        <v>NATIONAL AUSTRALIA BANK LTD.</v>
+      </c>
+      <c r="C262" t="str">
+        <f>VLOOKUP(B262,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>NATIONAL STOCK EXCHANGE OF INDIA LTD.</v>
+      </c>
+      <c r="C263" t="str">
+        <f>VLOOKUP(B263,Final_Names!$A$2:$C$163,3)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" t="str">
+        <f t="shared" si="1"/>
+        <v>NEW INDIA CO-OP BANK</v>
+      </c>
+      <c r="C264" t="str">
+        <f>VLOOKUP(B264,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>NKGSB BANK</v>
+      </c>
+      <c r="C265" t="str">
+        <f>VLOOKUP(B265,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" t="str">
+        <f t="shared" si="1"/>
+        <v>NOMURA FIXED INCOME SECURITIES</v>
+      </c>
+      <c r="C266" t="str">
+        <f>VLOOKUP(B266,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>NORTH KANARA GSB COOP BANK LTD.</v>
+      </c>
+      <c r="C267" t="str">
+        <f>VLOOKUP(B267,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" t="str">
+        <f t="shared" si="1"/>
+        <v>NORTH MALABAR GRAMIN BANK</v>
+      </c>
+      <c r="C268" t="str">
+        <f>VLOOKUP(B268,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>NUTAN NAGARIK SAHAKARI BANK LTD.</v>
+      </c>
+      <c r="C269" t="str">
+        <f>VLOOKUP(B269,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" t="str">
+        <f t="shared" si="1"/>
+        <v>OMAN INTERNATIONAL BANK</v>
+      </c>
+      <c r="C270" t="str">
+        <f>VLOOKUP(B270,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ORIENTAL BANK OF COMMERCE</v>
+      </c>
+      <c r="C271" t="str">
+        <f>VLOOKUP(B271,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" t="str">
+        <f t="shared" si="1"/>
+        <v>ORISSA STATE COOPERATIVE BANK BANK LTD.</v>
+      </c>
+      <c r="C272" t="str">
+        <f>VLOOKUP(B272,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PARSIK JANATA SAHAKARI BK LTD.</v>
+      </c>
+      <c r="C273" t="str">
+        <f>VLOOKUP(B273,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" t="str">
+        <f t="shared" si="1"/>
+        <v>PNB GILTS LIMITED</v>
+      </c>
+      <c r="C274" t="str">
+        <f>VLOOKUP(B274,Final_Names!$A$2:$C$163,3)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PRATHAMA BANK</v>
+      </c>
+      <c r="C275" t="str">
+        <f>VLOOKUP(B275,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" t="str">
+        <f t="shared" si="1"/>
+        <v>PRIME CO-OPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C276" t="str">
+        <f>VLOOKUP(B276,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PUNJAB AND MAHARASHTRA CO-OP BANK</v>
+      </c>
+      <c r="C277" t="str">
+        <f>VLOOKUP(B277,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" t="str">
+        <f t="shared" si="1"/>
+        <v>PUNJAB AND SIND BANK</v>
+      </c>
+      <c r="C278" t="str">
+        <f>VLOOKUP(B278,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PUNJAB NATIONAL BANK</v>
+      </c>
+      <c r="C279" t="str">
+        <f>VLOOKUP(B279,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" t="str">
+        <f t="shared" si="1"/>
+        <v>RABO BANK INTERNATIONAL</v>
+      </c>
+      <c r="C280" t="str">
+        <f>VLOOKUP(B280,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>RAJASTHAN STATE COOPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C281" t="str">
+        <f>VLOOKUP(B281,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" t="str">
+        <f t="shared" si="1"/>
+        <v>RAJKOT NAGARIK SAHAKARI BANK LTD.</v>
+      </c>
+      <c r="C282" t="str">
+        <f>VLOOKUP(B282,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>RATNAKAR BANK LTD</v>
+      </c>
+      <c r="C283" t="str">
+        <f>VLOOKUP(B283,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" t="str">
+        <f t="shared" si="1"/>
+        <v>RESERVE BANK OF INDIA</v>
+      </c>
+      <c r="C284" t="str">
+        <f>VLOOKUP(B284,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ROYAL BANK OF SCOTLAND N.V.</v>
+      </c>
+      <c r="C285" t="str">
+        <f>VLOOKUP(B285,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" t="str">
+        <f t="shared" si="1"/>
+        <v>SARASWAT CO-OPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C286" t="str">
+        <f>VLOOKUP(B286,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" s="2" t="str">
+        <f t="shared" ref="B287:B318" si="2">A287</f>
+        <v>SBER BANK</v>
+      </c>
+      <c r="C287" t="str">
+        <f>VLOOKUP(B287,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" t="str">
+        <f t="shared" si="2"/>
+        <v>SBI DFHI LTD</v>
+      </c>
+      <c r="C288" t="str">
+        <f>VLOOKUP(B288,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>SEC TRADING CORP OF INDIA LTD.</v>
+      </c>
+      <c r="C289" t="str">
+        <f>VLOOKUP(B289,Final_Names!$A$2:$C$163,3)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" t="str">
+        <f t="shared" si="2"/>
+        <v>SHAMRAO VITHHAL CO-OP BANK LTD.</v>
+      </c>
+      <c r="C290" t="str">
+        <f>VLOOKUP(B290,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>SHINHAN BANK</v>
+      </c>
+      <c r="C291" t="str">
+        <f>VLOOKUP(B291,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" t="str">
+        <f t="shared" si="2"/>
+        <v>SHRI CHHATRAPATI RAJARSHI SHAHU URBAN CO-OP. BANK LTD.</v>
+      </c>
+      <c r="C292" t="str">
+        <f>VLOOKUP(B292,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>SOCIETE GENERALE</v>
+      </c>
+      <c r="C293" t="str">
+        <f>VLOOKUP(B293,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" t="str">
+        <f t="shared" si="2"/>
+        <v>SOUTH INDIAN BANK</v>
+      </c>
+      <c r="C294" t="str">
+        <f>VLOOKUP(B294,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>STANDARD CHARTERED BANK LTD.</v>
+      </c>
+      <c r="C295" t="str">
+        <f>VLOOKUP(B295,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" t="str">
+        <f t="shared" si="2"/>
+        <v>STATE BANK OF BIKANER AND JAIPUR</v>
+      </c>
+      <c r="C296" t="str">
+        <f>VLOOKUP(B296,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>STATE BANK OF HYDERABAD</v>
+      </c>
+      <c r="C297" t="str">
+        <f>VLOOKUP(B297,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" t="str">
+        <f t="shared" si="2"/>
+        <v>STATE BANK OF INDIA</v>
+      </c>
+      <c r="C298" t="str">
+        <f>VLOOKUP(B298,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>STATE BANK OF INDORE</v>
+      </c>
+      <c r="C299" t="str">
+        <f>VLOOKUP(B299,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300" t="str">
+        <f t="shared" si="2"/>
+        <v>STATE BANK OF MAURITIUS</v>
+      </c>
+      <c r="C300" t="str">
+        <f>VLOOKUP(B300,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B301" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>STATE BANK OF MYSORE</v>
+      </c>
+      <c r="C301" t="str">
+        <f>VLOOKUP(B301,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B302" t="str">
+        <f t="shared" si="2"/>
+        <v>STATE BANK OF PATIALA</v>
+      </c>
+      <c r="C302" t="str">
+        <f>VLOOKUP(B302,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B303" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>STATE BANK OF TRAVANCORE</v>
+      </c>
+      <c r="C303" t="str">
+        <f>VLOOKUP(B303,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304" t="str">
+        <f t="shared" si="2"/>
+        <v>SURAT DISTRICT COOPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C304" t="str">
+        <f>VLOOKUP(B304,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>SURAT PEOPLES COOP BANK LTD.</v>
+      </c>
+      <c r="C305" t="str">
+        <f>VLOOKUP(B305,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306" t="str">
+        <f t="shared" si="2"/>
+        <v>SUTEX CO-OPERATIVE BANK LTD.</v>
+      </c>
+      <c r="C306" t="str">
+        <f>VLOOKUP(B306,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>SYNDICATE BANK</v>
+      </c>
+      <c r="C307" t="str">
+        <f>VLOOKUP(B307,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308" t="str">
+        <f t="shared" si="2"/>
+        <v>TAMIL NADU STATE APEX COOP BANK LTD.</v>
+      </c>
+      <c r="C308" t="str">
+        <f>VLOOKUP(B308,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TAMILNADU MERCANTILE BANK LTD</v>
+      </c>
+      <c r="C309" t="str">
+        <f>VLOOKUP(B309,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310" t="str">
+        <f t="shared" si="2"/>
+        <v>THANE BHARAT SAHAKARI BANK LTD.</v>
+      </c>
+      <c r="C310" t="str">
+        <f>VLOOKUP(B310,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>THANE JANTA SAHAKARI BANK LTD</v>
+      </c>
+      <c r="C311" t="str">
+        <f>VLOOKUP(B311,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312" t="str">
+        <f t="shared" si="2"/>
+        <v>UBS AG</v>
+      </c>
+      <c r="C312" t="str">
+        <f>VLOOKUP(B312,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>UCO BANK</v>
+      </c>
+      <c r="C313" t="str">
+        <f>VLOOKUP(B313,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314" t="str">
+        <f t="shared" si="2"/>
+        <v>UNION BANK OF INDIA</v>
+      </c>
+      <c r="C314" t="str">
+        <f>VLOOKUP(B314,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>UNITED BANK OF INDIA</v>
+      </c>
+      <c r="C315" t="str">
+        <f>VLOOKUP(B315,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316" t="str">
+        <f t="shared" si="2"/>
+        <v>VIJAYA BANK</v>
+      </c>
+      <c r="C316" t="str">
+        <f>VLOOKUP(B316,Final_Names!$A$2:$C$163,3)</f>
+        <v>PSB</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>WOORI BANK</v>
+      </c>
+      <c r="C317" t="str">
+        <f>VLOOKUP(B317,Final_Names!$A$2:$C$163,3)</f>
+        <v>FOR</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>275</v>
+      </c>
+      <c r="B318" t="str">
+        <f t="shared" si="2"/>
+        <v>YES BANK LTD.</v>
+      </c>
+      <c r="C318" t="str">
+        <f>VLOOKUP(B318,Final_Names!$A$2:$C$163,3)</f>
+        <v>PVT</v>
       </c>
     </row>
   </sheetData>
@@ -3437,6 +5402,12 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3444,16 +5415,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D141" sqref="D1:D1048576"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3464,7 +5435,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -3475,7 +5446,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3486,7 +5457,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -3497,7 +5468,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3508,7 +5479,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3519,7 +5490,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3530,7 +5501,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -3541,7 +5512,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3552,7 +5523,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -3563,7 +5534,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>276</v>
       </c>
@@ -3574,7 +5545,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>315</v>
       </c>
@@ -3585,7 +5556,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>218</v>
       </c>
@@ -3596,7 +5567,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>214</v>
       </c>
@@ -3607,7 +5578,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -3618,7 +5589,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3629,7 +5600,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -3640,7 +5611,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -3651,7 +5622,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -3662,7 +5633,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -3673,7 +5644,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3684,7 +5655,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3695,7 +5666,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -3706,7 +5677,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -3717,7 +5688,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>244</v>
       </c>
@@ -3728,7 +5699,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -3739,7 +5710,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3750,7 +5721,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3761,7 +5732,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -3772,7 +5743,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -3783,7 +5754,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>309</v>
       </c>
@@ -3794,7 +5765,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -3805,7 +5776,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -3816,7 +5787,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3827,7 +5798,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -3838,7 +5809,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -3849,7 +5820,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>231</v>
       </c>
@@ -3860,7 +5831,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>232</v>
       </c>
@@ -3871,7 +5842,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -3882,7 +5853,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3893,7 +5864,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -3904,7 +5875,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -3915,7 +5886,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -3926,7 +5897,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -3937,7 +5908,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -3948,7 +5919,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -3959,7 +5930,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>233</v>
       </c>
@@ -3970,7 +5941,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -3981,7 +5952,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>200</v>
       </c>
@@ -3992,7 +5963,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -4003,7 +5974,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
@@ -4014,7 +5985,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -4025,7 +5996,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -4036,7 +6007,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -4047,7 +6018,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>185</v>
       </c>
@@ -4058,7 +6029,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>191</v>
       </c>
@@ -4069,7 +6040,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>203</v>
       </c>
@@ -4080,7 +6051,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>249</v>
       </c>
@@ -4091,7 +6062,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>281</v>
       </c>
@@ -4102,7 +6073,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -4113,7 +6084,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>250</v>
       </c>
@@ -4124,7 +6095,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -4135,7 +6106,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -4146,7 +6117,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -4157,7 +6128,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -4168,7 +6139,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -4179,7 +6150,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
@@ -4190,7 +6161,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>44</v>
       </c>
@@ -4201,7 +6172,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -4212,7 +6183,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -4223,7 +6194,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -4234,7 +6205,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -4245,7 +6216,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>251</v>
       </c>
@@ -4256,7 +6227,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>224</v>
       </c>
@@ -4267,7 +6238,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>235</v>
       </c>
@@ -4278,7 +6249,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>141</v>
       </c>
@@ -4289,7 +6260,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -4300,7 +6271,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -4311,7 +6282,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -4322,7 +6293,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>291</v>
       </c>
@@ -4333,7 +6304,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -4344,7 +6315,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -4355,7 +6326,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>282</v>
       </c>
@@ -4366,7 +6337,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>252</v>
       </c>
@@ -4377,7 +6348,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>253</v>
       </c>
@@ -4388,7 +6359,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -4399,7 +6370,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -4410,7 +6381,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>277</v>
       </c>
@@ -4421,7 +6392,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>256</v>
       </c>
@@ -4432,7 +6403,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -4443,7 +6414,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>149</v>
       </c>
@@ -4454,7 +6425,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -4465,7 +6436,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>259</v>
       </c>
@@ -4476,7 +6447,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>238</v>
       </c>
@@ -4487,7 +6458,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -4498,7 +6469,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>152</v>
       </c>
@@ -4509,7 +6480,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>260</v>
       </c>
@@ -4520,7 +6491,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -4531,7 +6502,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>154</v>
       </c>
@@ -4542,7 +6513,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>278</v>
       </c>
@@ -4553,7 +6524,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>287</v>
       </c>
@@ -4564,7 +6535,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>261</v>
       </c>
@@ -4575,7 +6546,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>216</v>
       </c>
@@ -4586,7 +6557,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>262</v>
       </c>
@@ -4597,7 +6568,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>155</v>
       </c>
@@ -4608,7 +6579,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>65</v>
       </c>
@@ -4619,7 +6590,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>66</v>
       </c>
@@ -4630,7 +6601,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -4641,7 +6612,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>263</v>
       </c>
@@ -4652,7 +6623,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>283</v>
       </c>
@@ -4663,7 +6634,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>264</v>
       </c>
@@ -4674,7 +6645,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>68</v>
       </c>
@@ -4685,7 +6656,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -4696,7 +6667,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>265</v>
       </c>
@@ -4707,7 +6678,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>266</v>
       </c>
@@ -4718,7 +6689,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>160</v>
       </c>
@@ -4729,7 +6700,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>284</v>
       </c>
@@ -4740,7 +6711,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>267</v>
       </c>
@@ -4751,7 +6722,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>211</v>
       </c>
@@ -4762,7 +6733,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -4773,7 +6744,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>73</v>
       </c>
@@ -4784,7 +6755,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>215</v>
       </c>
@@ -4795,7 +6766,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>268</v>
       </c>
@@ -4806,7 +6777,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>76</v>
       </c>
@@ -4817,7 +6788,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>74</v>
       </c>
@@ -4828,7 +6799,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>164</v>
       </c>
@@ -4839,7 +6810,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>197</v>
       </c>
@@ -4850,7 +6821,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>269</v>
       </c>
@@ -4861,7 +6832,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>285</v>
       </c>
@@ -4872,7 +6843,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>166</v>
       </c>
@@ -4883,7 +6854,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>167</v>
       </c>
@@ -4894,7 +6865,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>219</v>
       </c>
@@ -4905,7 +6876,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -4916,7 +6887,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>286</v>
       </c>
@@ -4927,7 +6898,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -4938,7 +6909,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -4949,7 +6920,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>170</v>
       </c>
@@ -4960,7 +6931,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>105</v>
       </c>
@@ -4971,7 +6942,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -4982,7 +6953,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -4993,7 +6964,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>199</v>
       </c>
@@ -5004,7 +6975,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>86</v>
       </c>
@@ -5015,7 +6986,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>87</v>
       </c>
@@ -5026,7 +6997,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -5037,7 +7008,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>89</v>
       </c>
@@ -5048,7 +7019,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>270</v>
       </c>
@@ -5059,7 +7030,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -5070,7 +7041,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>279</v>
       </c>
@@ -5081,7 +7052,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>91</v>
       </c>
@@ -5092,7 +7063,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
         <v>271</v>
       </c>
@@ -5103,7 +7074,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -5114,7 +7085,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>220</v>
       </c>
@@ -5125,7 +7096,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>212</v>
       </c>
@@ -5136,7 +7107,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>106</v>
       </c>
@@ -5147,7 +7118,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>97</v>
       </c>
@@ -5158,7 +7129,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>98</v>
       </c>
@@ -5169,7 +7140,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -5180,7 +7151,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>273</v>
       </c>
@@ -5191,7 +7162,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>100</v>
       </c>
@@ -5202,7 +7173,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>228</v>
       </c>
@@ -5213,7 +7184,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
         <v>102</v>
       </c>
@@ -5224,7 +7195,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>229</v>
       </c>
@@ -5235,7 +7206,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>275</v>
       </c>
@@ -5248,6 +7219,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/Classification.xlsx
+++ b/data/Classification.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26221"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="18020" windowHeight="12220"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18015" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="To_compare" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Final_Names!$A$1:$C$163</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">To_compare!$A$1:$B$318</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="328">
   <si>
     <t>Bank</t>
   </si>
@@ -1407,18 +1407,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1427,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>210</v>
       </c>
@@ -1437,11 +1435,11 @@
         <v>109</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <f>VLOOKUP(B2,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>239</v>
       </c>
@@ -1449,11 +1447,11 @@
         <v>109</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <f>VLOOKUP(B3,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>296</v>
       </c>
@@ -1461,11 +1459,11 @@
         <v>109</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <f>VLOOKUP(B4,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>288</v>
       </c>
@@ -1473,11 +1471,11 @@
         <v>109</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <f>VLOOKUP(B5,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -1485,11 +1483,11 @@
         <v>3</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <f>VLOOKUP(B6,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
@@ -1497,11 +1495,11 @@
         <v>3</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <f>VLOOKUP(B7,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>243</v>
       </c>
@@ -1509,11 +1507,11 @@
         <v>308</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <f>VLOOKUP(B8,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>314</v>
       </c>
@@ -1521,11 +1519,11 @@
         <v>276</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <f>VLOOKUP(B9,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>292</v>
       </c>
@@ -1533,11 +1531,11 @@
         <v>218</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <f>VLOOKUP(B10,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>293</v>
       </c>
@@ -1545,11 +1543,11 @@
         <v>218</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <f>VLOOKUP(B11,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>290</v>
       </c>
@@ -1557,11 +1555,11 @@
         <v>214</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B12,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1569,11 +1567,11 @@
         <v>112</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B13,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1581,11 +1579,11 @@
         <v>113</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B14,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1593,11 +1591,11 @@
         <v>244</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B15,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
@@ -1605,11 +1603,11 @@
         <v>244</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(B16,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B16,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1617,11 +1615,11 @@
         <v>114</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(B17,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B17,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -1629,11 +1627,11 @@
         <v>18</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(B18,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <f>VLOOKUP(B18,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -1641,11 +1639,11 @@
         <v>19</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(B19,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <f>VLOOKUP(B19,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>245</v>
       </c>
@@ -1653,11 +1651,11 @@
         <v>309</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(B20,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B20,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>207</v>
       </c>
@@ -1665,11 +1663,11 @@
         <v>21</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(B21,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B21,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>119</v>
       </c>
@@ -1677,11 +1675,11 @@
         <v>21</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(B22,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B22,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>246</v>
       </c>
@@ -1689,11 +1687,11 @@
         <v>24</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(B23,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B23,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>230</v>
       </c>
@@ -1701,11 +1699,11 @@
         <v>24</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(B24,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B24,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -1713,11 +1711,11 @@
         <v>25</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(B25,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <f>VLOOKUP(B25,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>247</v>
       </c>
@@ -1725,11 +1723,11 @@
         <v>25</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(B26,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <f>VLOOKUP(B26,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -1737,11 +1735,11 @@
         <v>231</v>
       </c>
       <c r="C27" t="str">
-        <f>VLOOKUP(B27,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B27,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1749,11 +1747,11 @@
         <v>231</v>
       </c>
       <c r="C28" t="str">
-        <f>VLOOKUP(B28,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B28,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1761,11 +1759,11 @@
         <v>123</v>
       </c>
       <c r="C29" t="str">
-        <f>VLOOKUP(B29,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <f>VLOOKUP(B29,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>204</v>
       </c>
@@ -1773,11 +1771,11 @@
         <v>123</v>
       </c>
       <c r="C30" t="str">
-        <f>VLOOKUP(B30,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <f>VLOOKUP(B30,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>184</v>
       </c>
@@ -1785,11 +1783,11 @@
         <v>124</v>
       </c>
       <c r="C31" t="str">
-        <f>VLOOKUP(B31,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B31,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1797,11 +1795,11 @@
         <v>124</v>
       </c>
       <c r="C32" t="str">
-        <f>VLOOKUP(B32,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B32,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>294</v>
       </c>
@@ -1809,11 +1807,11 @@
         <v>192</v>
       </c>
       <c r="C33" t="str">
-        <f>VLOOKUP(B33,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B33,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1821,11 +1819,11 @@
         <v>127</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP(B34,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B34,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>128</v>
       </c>
@@ -1833,11 +1831,11 @@
         <v>233</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(B35,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B35,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -1845,11 +1843,11 @@
         <v>200</v>
       </c>
       <c r="C36" t="str">
-        <f>VLOOKUP(B36,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B36,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -1857,11 +1855,11 @@
         <v>248</v>
       </c>
       <c r="C37" t="str">
-        <f>VLOOKUP(B37,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B37,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>202</v>
       </c>
@@ -1869,11 +1867,11 @@
         <v>248</v>
       </c>
       <c r="C38" t="str">
-        <f>VLOOKUP(B38,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B38,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
@@ -1881,11 +1879,11 @@
         <v>248</v>
       </c>
       <c r="C39" t="str">
-        <f>VLOOKUP(B39,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B39,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>201</v>
       </c>
@@ -1893,11 +1891,11 @@
         <v>36</v>
       </c>
       <c r="C40" t="str">
-        <f>VLOOKUP(B40,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <f>VLOOKUP(B40,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>129</v>
       </c>
@@ -1905,11 +1903,11 @@
         <v>36</v>
       </c>
       <c r="C41" t="str">
-        <f>VLOOKUP(B41,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <f>VLOOKUP(B41,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1917,11 +1915,11 @@
         <v>130</v>
       </c>
       <c r="C42" t="str">
-        <f>VLOOKUP(B42,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B42,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>190</v>
       </c>
@@ -1929,11 +1927,11 @@
         <v>185</v>
       </c>
       <c r="C43" t="str">
-        <f>VLOOKUP(B43,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B43,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>206</v>
       </c>
@@ -1941,11 +1939,11 @@
         <v>203</v>
       </c>
       <c r="C44" t="str">
-        <f>VLOOKUP(B44,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <f>VLOOKUP(B44,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -1953,11 +1951,11 @@
         <v>203</v>
       </c>
       <c r="C45" t="str">
-        <f>VLOOKUP(B45,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <f>VLOOKUP(B45,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>176</v>
       </c>
@@ -1965,11 +1963,11 @@
         <v>203</v>
       </c>
       <c r="C46" t="str">
-        <f>VLOOKUP(B46,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <f>VLOOKUP(B46,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>131</v>
       </c>
@@ -1977,11 +1975,11 @@
         <v>249</v>
       </c>
       <c r="C47" t="str">
-        <f>VLOOKUP(B47,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <f>VLOOKUP(B47,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>298</v>
       </c>
@@ -1989,11 +1987,11 @@
         <v>249</v>
       </c>
       <c r="C48" t="str">
-        <f>VLOOKUP(B48,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <f>VLOOKUP(B48,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -2001,11 +1999,11 @@
         <v>132</v>
       </c>
       <c r="C49" t="str">
-        <f>VLOOKUP(B49,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B49,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>133</v>
       </c>
@@ -2013,11 +2011,11 @@
         <v>250</v>
       </c>
       <c r="C50" t="str">
-        <f>VLOOKUP(B50,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B50,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>234</v>
       </c>
@@ -2025,11 +2023,11 @@
         <v>250</v>
       </c>
       <c r="C51" t="str">
-        <f>VLOOKUP(B51,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B51,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>122</v>
       </c>
@@ -2037,11 +2035,11 @@
         <v>137</v>
       </c>
       <c r="C52" t="str">
-        <f>VLOOKUP(B52,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B52,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2049,11 +2047,11 @@
         <v>138</v>
       </c>
       <c r="C53" t="str">
-        <f>VLOOKUP(B53,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B53,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>208</v>
       </c>
@@ -2061,11 +2059,11 @@
         <v>138</v>
       </c>
       <c r="C54" t="str">
-        <f>VLOOKUP(B54,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B54,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2073,11 +2071,11 @@
         <v>139</v>
       </c>
       <c r="C55" t="str">
-        <f>VLOOKUP(B55,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B55,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>300</v>
       </c>
@@ -2085,11 +2083,11 @@
         <v>251</v>
       </c>
       <c r="C56" t="str">
-        <f>VLOOKUP(B56,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <f>VLOOKUP(B56,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>222</v>
       </c>
@@ -2097,11 +2095,11 @@
         <v>251</v>
       </c>
       <c r="C57" t="str">
-        <f>VLOOKUP(B57,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <f>VLOOKUP(B57,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>310</v>
       </c>
@@ -2109,11 +2107,11 @@
         <v>224</v>
       </c>
       <c r="C58" t="str">
-        <f>VLOOKUP(B58,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <f>VLOOKUP(B58,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
@@ -2121,11 +2119,11 @@
         <v>235</v>
       </c>
       <c r="C59" t="str">
-        <f>VLOOKUP(B59,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B59,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -2133,11 +2131,11 @@
         <v>235</v>
       </c>
       <c r="C60" t="str">
-        <f>VLOOKUP(B60,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B60,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -2145,11 +2143,11 @@
         <v>141</v>
       </c>
       <c r="C61" t="str">
-        <f>VLOOKUP(B61,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <f>VLOOKUP(B61,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>301</v>
       </c>
@@ -2157,11 +2155,11 @@
         <v>225</v>
       </c>
       <c r="C62" t="str">
-        <f>VLOOKUP(B62,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <f>VLOOKUP(B62,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
@@ -2169,11 +2167,11 @@
         <v>142</v>
       </c>
       <c r="C63" t="str">
-        <f>VLOOKUP(B63,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <f>VLOOKUP(B63,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
@@ -2181,11 +2179,11 @@
         <v>142</v>
       </c>
       <c r="C64" t="str">
-        <f>VLOOKUP(B64,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <f>VLOOKUP(B64,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>236</v>
       </c>
@@ -2193,11 +2191,11 @@
         <v>50</v>
       </c>
       <c r="C65" t="str">
-        <f>VLOOKUP(B65,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B65,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>143</v>
       </c>
@@ -2205,11 +2203,11 @@
         <v>50</v>
       </c>
       <c r="C66" t="str">
-        <f>VLOOKUP(B66,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B66,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
@@ -2217,11 +2215,11 @@
         <v>291</v>
       </c>
       <c r="C67" t="str">
-        <f>VLOOKUP(B67,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <f>VLOOKUP(B67,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>144</v>
       </c>
@@ -2229,11 +2227,11 @@
         <v>291</v>
       </c>
       <c r="C68" t="str">
-        <f>VLOOKUP(B68,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <f>VLOOKUP(B68,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>51</v>
       </c>
@@ -2241,11 +2239,11 @@
         <v>145</v>
       </c>
       <c r="C69" t="str">
-        <f>VLOOKUP(B69,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <f>VLOOKUP(B69,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>52</v>
       </c>
@@ -2253,11 +2251,11 @@
         <v>146</v>
       </c>
       <c r="C70" t="str">
-        <f>VLOOKUP(B70,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <f>VLOOKUP(B70,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>237</v>
       </c>
@@ -2265,11 +2263,11 @@
         <v>282</v>
       </c>
       <c r="C71" t="str">
-        <f>VLOOKUP(B71,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <f>VLOOKUP(B71,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>305</v>
       </c>
@@ -2277,11 +2275,11 @@
         <v>282</v>
       </c>
       <c r="C72" t="str">
-        <f>VLOOKUP(B72,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <f>VLOOKUP(B72,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>53</v>
       </c>
@@ -2289,11 +2287,11 @@
         <v>252</v>
       </c>
       <c r="C73" t="str">
-        <f>VLOOKUP(B73,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <f>VLOOKUP(B73,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>177</v>
       </c>
@@ -2301,11 +2299,11 @@
         <v>252</v>
       </c>
       <c r="C74" t="str">
-        <f>VLOOKUP(B74,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <f>VLOOKUP(B74,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>107</v>
       </c>
@@ -2313,11 +2311,11 @@
         <v>253</v>
       </c>
       <c r="C75" t="str">
-        <f>VLOOKUP(B75,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <f>VLOOKUP(B75,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
@@ -2325,11 +2323,11 @@
         <v>253</v>
       </c>
       <c r="C76" t="str">
-        <f>VLOOKUP(B76,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <f>VLOOKUP(B76,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>54</v>
       </c>
@@ -2337,11 +2335,11 @@
         <v>254</v>
       </c>
       <c r="C77" t="str">
-        <f>VLOOKUP(B77,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B77,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>255</v>
       </c>
@@ -2349,11 +2347,11 @@
         <v>55</v>
       </c>
       <c r="C78" t="str">
-        <f>VLOOKUP(B78,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <f>VLOOKUP(B78,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>178</v>
       </c>
@@ -2361,11 +2359,11 @@
         <v>55</v>
       </c>
       <c r="C79" t="str">
-        <f>VLOOKUP(B79,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <f>VLOOKUP(B79,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>311</v>
       </c>
@@ -2373,11 +2371,11 @@
         <v>277</v>
       </c>
       <c r="C80" t="str">
-        <f>VLOOKUP(B80,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B80,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -2385,11 +2383,11 @@
         <v>256</v>
       </c>
       <c r="C81" t="str">
-        <f>VLOOKUP(B81,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B81,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>148</v>
       </c>
@@ -2397,11 +2395,11 @@
         <v>256</v>
       </c>
       <c r="C82" t="str">
-        <f>VLOOKUP(B82,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B82,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>205</v>
       </c>
@@ -2409,11 +2407,11 @@
         <v>256</v>
       </c>
       <c r="C83" t="str">
-        <f>VLOOKUP(B83,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B83,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,11 +2419,11 @@
         <v>257</v>
       </c>
       <c r="C84" t="str">
-        <f>VLOOKUP(B84,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B84,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>198</v>
       </c>
@@ -2433,11 +2431,11 @@
         <v>58</v>
       </c>
       <c r="C85" t="str">
-        <f>VLOOKUP(B85,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B85,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
@@ -2445,11 +2443,11 @@
         <v>58</v>
       </c>
       <c r="C86" t="str">
-        <f>VLOOKUP(B86,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B86,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>179</v>
       </c>
@@ -2457,11 +2455,11 @@
         <v>58</v>
       </c>
       <c r="C87" t="str">
-        <f>VLOOKUP(B87,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B87,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>59</v>
       </c>
@@ -2469,11 +2467,11 @@
         <v>259</v>
       </c>
       <c r="C88" t="str">
-        <f>VLOOKUP(B88,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <f>VLOOKUP(B88,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>150</v>
       </c>
@@ -2481,11 +2479,11 @@
         <v>259</v>
       </c>
       <c r="C89" t="str">
-        <f>VLOOKUP(B89,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <f>VLOOKUP(B89,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2493,11 +2491,11 @@
         <v>238</v>
       </c>
       <c r="C90" t="str">
-        <f>VLOOKUP(B90,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <f>VLOOKUP(B90,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>60</v>
       </c>
@@ -2505,11 +2503,11 @@
         <v>238</v>
       </c>
       <c r="C91" t="str">
-        <f>VLOOKUP(B91,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <f>VLOOKUP(B91,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>62</v>
       </c>
@@ -2517,11 +2515,11 @@
         <v>152</v>
       </c>
       <c r="C92" t="str">
-        <f>VLOOKUP(B92,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <f>VLOOKUP(B92,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>63</v>
       </c>
@@ -2529,11 +2527,11 @@
         <v>260</v>
       </c>
       <c r="C93" t="str">
-        <f>VLOOKUP(B93,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <f>VLOOKUP(B93,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>189</v>
       </c>
@@ -2541,11 +2539,11 @@
         <v>187</v>
       </c>
       <c r="C94" t="str">
-        <f>VLOOKUP(B94,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B94,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>153</v>
       </c>
@@ -2553,11 +2551,11 @@
         <v>187</v>
       </c>
       <c r="C95" t="str">
-        <f>VLOOKUP(B95,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B95,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>302</v>
       </c>
@@ -2565,11 +2563,11 @@
         <v>154</v>
       </c>
       <c r="C96" t="str">
-        <f>VLOOKUP(B96,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <f>VLOOKUP(B96,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>312</v>
       </c>
@@ -2577,11 +2575,11 @@
         <v>278</v>
       </c>
       <c r="C97" t="str">
-        <f>VLOOKUP(B97,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <f>VLOOKUP(B97,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>193</v>
       </c>
@@ -2589,11 +2587,11 @@
         <v>287</v>
       </c>
       <c r="C98" t="str">
-        <f>VLOOKUP(B98,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <f>VLOOKUP(B98,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>295</v>
       </c>
@@ -2601,11 +2599,11 @@
         <v>287</v>
       </c>
       <c r="C99" t="str">
-        <f>VLOOKUP(B99,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <f>VLOOKUP(B99,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>64</v>
       </c>
@@ -2613,11 +2611,11 @@
         <v>261</v>
       </c>
       <c r="C100" t="str">
-        <f>VLOOKUP(B100,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B100,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>180</v>
       </c>
@@ -2625,11 +2623,11 @@
         <v>261</v>
       </c>
       <c r="C101" t="str">
-        <f>VLOOKUP(B101,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B101,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>194</v>
       </c>
@@ -2637,11 +2635,11 @@
         <v>216</v>
       </c>
       <c r="C102" t="str">
-        <f>VLOOKUP(B102,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <f>VLOOKUP(B102,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>289</v>
       </c>
@@ -2649,11 +2647,11 @@
         <v>216</v>
       </c>
       <c r="C103" t="str">
-        <f>VLOOKUP(B103,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <f>VLOOKUP(B103,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>157</v>
       </c>
@@ -2661,11 +2659,11 @@
         <v>263</v>
       </c>
       <c r="C104" t="str">
-        <f>VLOOKUP(B104,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <f>VLOOKUP(B104,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>67</v>
       </c>
@@ -2673,11 +2671,11 @@
         <v>264</v>
       </c>
       <c r="C105" t="str">
-        <f>VLOOKUP(B105,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <f>VLOOKUP(B105,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>158</v>
       </c>
@@ -2685,11 +2683,11 @@
         <v>68</v>
       </c>
       <c r="C106" t="str">
-        <f>VLOOKUP(B106,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B106,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>195</v>
       </c>
@@ -2697,11 +2695,11 @@
         <v>265</v>
       </c>
       <c r="C107" t="str">
-        <f>VLOOKUP(B107,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <f>VLOOKUP(B107,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>70</v>
       </c>
@@ -2709,11 +2707,11 @@
         <v>266</v>
       </c>
       <c r="C108" t="str">
-        <f>VLOOKUP(B108,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <f>VLOOKUP(B108,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>159</v>
       </c>
@@ -2721,11 +2719,11 @@
         <v>266</v>
       </c>
       <c r="C109" t="str">
-        <f>VLOOKUP(B109,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <f>VLOOKUP(B109,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>303</v>
       </c>
@@ -2733,11 +2731,11 @@
         <v>267</v>
       </c>
       <c r="C110" t="str">
-        <f>VLOOKUP(B110,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <f>VLOOKUP(B110,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>226</v>
       </c>
@@ -2745,11 +2743,11 @@
         <v>267</v>
       </c>
       <c r="C111" t="str">
-        <f>VLOOKUP(B111,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <f>VLOOKUP(B111,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>161</v>
       </c>
@@ -2757,11 +2755,11 @@
         <v>211</v>
       </c>
       <c r="C112" t="str">
-        <f>VLOOKUP(B112,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <f>VLOOKUP(B112,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>71</v>
       </c>
@@ -2769,11 +2767,11 @@
         <v>211</v>
       </c>
       <c r="C113" t="str">
-        <f>VLOOKUP(B113,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <f>VLOOKUP(B113,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>217</v>
       </c>
@@ -2781,11 +2779,11 @@
         <v>215</v>
       </c>
       <c r="C114" t="str">
-        <f>VLOOKUP(B114,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B114,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>221</v>
       </c>
@@ -2793,11 +2791,11 @@
         <v>268</v>
       </c>
       <c r="C115" t="str">
-        <f>VLOOKUP(B115,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <f>VLOOKUP(B115,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>299</v>
       </c>
@@ -2805,11 +2803,11 @@
         <v>268</v>
       </c>
       <c r="C116" t="str">
-        <f>VLOOKUP(B116,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <f>VLOOKUP(B116,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>104</v>
       </c>
@@ -2817,11 +2815,11 @@
         <v>76</v>
       </c>
       <c r="C117" t="str">
-        <f>VLOOKUP(B117,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <f>VLOOKUP(B117,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>162</v>
       </c>
@@ -2829,11 +2827,11 @@
         <v>76</v>
       </c>
       <c r="C118" t="str">
-        <f>VLOOKUP(B118,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <f>VLOOKUP(B118,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>163</v>
       </c>
@@ -2841,11 +2839,11 @@
         <v>74</v>
       </c>
       <c r="C119" t="str">
-        <f>VLOOKUP(B119,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B119,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>75</v>
       </c>
@@ -2853,11 +2851,11 @@
         <v>164</v>
       </c>
       <c r="C120" t="str">
-        <f>VLOOKUP(B120,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B120,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>188</v>
       </c>
@@ -2865,11 +2863,11 @@
         <v>197</v>
       </c>
       <c r="C121" t="str">
-        <f>VLOOKUP(B121,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B121,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>95</v>
       </c>
@@ -2877,11 +2875,11 @@
         <v>197</v>
       </c>
       <c r="C122" t="str">
-        <f>VLOOKUP(B122,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B122,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>77</v>
       </c>
@@ -2889,11 +2887,11 @@
         <v>269</v>
       </c>
       <c r="C123" t="str">
-        <f>VLOOKUP(B123,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <f>VLOOKUP(B123,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>165</v>
       </c>
@@ -2901,11 +2899,11 @@
         <v>269</v>
       </c>
       <c r="C124" t="str">
-        <f>VLOOKUP(B124,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <f>VLOOKUP(B124,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>79</v>
       </c>
@@ -2913,11 +2911,11 @@
         <v>219</v>
       </c>
       <c r="C125" t="str">
-        <f>VLOOKUP(B125,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <f>VLOOKUP(B125,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>168</v>
       </c>
@@ -2925,11 +2923,11 @@
         <v>219</v>
       </c>
       <c r="C126" t="str">
-        <f>VLOOKUP(B126,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <f>VLOOKUP(B126,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>316</v>
       </c>
@@ -2937,11 +2935,11 @@
         <v>286</v>
       </c>
       <c r="C127" t="str">
-        <f>VLOOKUP(B127,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <f>VLOOKUP(B127,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>83</v>
       </c>
@@ -2949,11 +2947,11 @@
         <v>170</v>
       </c>
       <c r="C128" t="str">
-        <f>VLOOKUP(B128,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B128,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>78</v>
       </c>
@@ -2961,11 +2959,11 @@
         <v>105</v>
       </c>
       <c r="C129" t="str">
-        <f>VLOOKUP(B129,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B129,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>169</v>
       </c>
@@ -2973,11 +2971,11 @@
         <v>105</v>
       </c>
       <c r="C130" t="str">
-        <f>VLOOKUP(B130,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B130,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>304</v>
       </c>
@@ -2985,11 +2983,11 @@
         <v>270</v>
       </c>
       <c r="C131" t="str">
-        <f>VLOOKUP(B131,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <f>VLOOKUP(B131,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>227</v>
       </c>
@@ -2997,11 +2995,11 @@
         <v>270</v>
       </c>
       <c r="C132" t="str">
-        <f>VLOOKUP(B132,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <f>VLOOKUP(B132,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>90</v>
       </c>
@@ -3009,11 +3007,11 @@
         <v>171</v>
       </c>
       <c r="C133" t="str">
-        <f>VLOOKUP(B133,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <f>VLOOKUP(B133,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>313</v>
       </c>
@@ -3021,11 +3019,11 @@
         <v>279</v>
       </c>
       <c r="C134" t="str">
-        <f>VLOOKUP(B134,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <f>VLOOKUP(B134,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>92</v>
       </c>
@@ -3033,11 +3031,11 @@
         <v>271</v>
       </c>
       <c r="C135" t="str">
-        <f>VLOOKUP(B135,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <f>VLOOKUP(B135,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>173</v>
       </c>
@@ -3045,11 +3043,11 @@
         <v>271</v>
       </c>
       <c r="C136" t="str">
-        <f>VLOOKUP(B136,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <f>VLOOKUP(B136,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>240</v>
       </c>
@@ -3057,11 +3055,11 @@
         <v>271</v>
       </c>
       <c r="C137" t="str">
-        <f>VLOOKUP(B137,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <f>VLOOKUP(B137,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>172</v>
       </c>
@@ -3069,11 +3067,11 @@
         <v>209</v>
       </c>
       <c r="C138" t="str">
-        <f>VLOOKUP(B138,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B138,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>93</v>
       </c>
@@ -3081,11 +3079,11 @@
         <v>209</v>
       </c>
       <c r="C139" t="str">
-        <f>VLOOKUP(B139,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B139,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>174</v>
       </c>
@@ -3093,11 +3091,11 @@
         <v>220</v>
       </c>
       <c r="C140" t="str">
-        <f>VLOOKUP(B140,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <f>VLOOKUP(B140,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>94</v>
       </c>
@@ -3105,11 +3103,11 @@
         <v>212</v>
       </c>
       <c r="C141" t="str">
-        <f>VLOOKUP(B141,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <f>VLOOKUP(B141,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>175</v>
       </c>
@@ -3117,11 +3115,11 @@
         <v>212</v>
       </c>
       <c r="C142" t="str">
-        <f>VLOOKUP(B142,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <f>VLOOKUP(B142,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>272</v>
       </c>
@@ -3129,11 +3127,11 @@
         <v>212</v>
       </c>
       <c r="C143" t="str">
-        <f>VLOOKUP(B143,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <f>VLOOKUP(B143,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>223</v>
       </c>
@@ -3141,59 +3139,59 @@
         <v>212</v>
       </c>
       <c r="C144" t="str">
-        <f>VLOOKUP(B144,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <f>VLOOKUP(B144,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B145" t="s">
         <v>204</v>
       </c>
-      <c r="C145" t="str">
-        <f>VLOOKUP(B145,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="C145" t="e">
+        <f>VLOOKUP(B145,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B146" t="s">
         <v>305</v>
       </c>
-      <c r="C146" t="str">
-        <f>VLOOKUP(B146,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="C146" t="e">
+        <f>VLOOKUP(B146,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B147" t="s">
         <v>289</v>
       </c>
-      <c r="C147" t="str">
-        <f>VLOOKUP(B147,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="C147" t="e">
+        <f>VLOOKUP(B147,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B148" t="s">
         <v>241</v>
       </c>
-      <c r="C148" t="str">
-        <f>VLOOKUP(B148,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="C148" t="e">
+        <f>VLOOKUP(B148,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>181</v>
       </c>
@@ -3201,11 +3199,11 @@
         <v>102</v>
       </c>
       <c r="C149" t="str">
-        <f>VLOOKUP(B149,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <f>VLOOKUP(B149,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>96</v>
       </c>
@@ -3213,11 +3211,11 @@
         <v>102</v>
       </c>
       <c r="C150" t="str">
-        <f>VLOOKUP(B150,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <f>VLOOKUP(B150,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>241</v>
       </c>
@@ -3225,11 +3223,11 @@
         <v>273</v>
       </c>
       <c r="C151" t="str">
-        <f>VLOOKUP(B151,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <f>VLOOKUP(B151,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>307</v>
       </c>
@@ -3237,11 +3235,11 @@
         <v>228</v>
       </c>
       <c r="C152" t="str">
-        <f>VLOOKUP(B152,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <f>VLOOKUP(B152,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>242</v>
       </c>
@@ -3249,11 +3247,11 @@
         <v>102</v>
       </c>
       <c r="C153" t="str">
-        <f>VLOOKUP(B153,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <f>VLOOKUP(B153,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>101</v>
       </c>
@@ -3261,11 +3259,11 @@
         <v>275</v>
       </c>
       <c r="C154" t="str">
-        <f>VLOOKUP(B154,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B154,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>182</v>
       </c>
@@ -3273,11 +3271,11 @@
         <v>275</v>
       </c>
       <c r="C155" t="str">
-        <f>VLOOKUP(B155,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B155,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>274</v>
       </c>
@@ -3285,11 +3283,11 @@
         <v>102</v>
       </c>
       <c r="C156" t="str">
-        <f>VLOOKUP(B156,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <f>VLOOKUP(B156,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>273</v>
       </c>
@@ -3298,11 +3296,11 @@
         <v>VARACHHA COOPERATIVE BANK LTD.</v>
       </c>
       <c r="C157" t="str">
-        <f>VLOOKUP(B157,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <f>VLOOKUP(B157,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>228</v>
       </c>
@@ -3311,11 +3309,11 @@
         <v>VISHESHWAR SAHAKARI BANK LTD.</v>
       </c>
       <c r="C158" t="str">
-        <f>VLOOKUP(B158,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <f>VLOOKUP(B158,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>102</v>
       </c>
@@ -3324,11 +3322,11 @@
         <v>WEST BENGAL STATE COOPERATIVE BANK</v>
       </c>
       <c r="C159" t="str">
-        <f>VLOOKUP(B159,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <f>VLOOKUP(B159,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>109</v>
       </c>
@@ -3337,11 +3335,11 @@
         <v>A P MAHESH CO-OP URBAN BANK LTD.</v>
       </c>
       <c r="C160" t="str">
-        <f>VLOOKUP(B160,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <f>VLOOKUP(B160,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -3350,11 +3348,11 @@
         <v>ABHYUDAYA CO-OP BANK LTD</v>
       </c>
       <c r="C161" t="str">
-        <f>VLOOKUP(B161,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <f>VLOOKUP(B161,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>110</v>
       </c>
@@ -3363,11 +3361,11 @@
         <v>ABN AMRO BANK N.V.</v>
       </c>
       <c r="C162" t="str">
-        <f>VLOOKUP(B162,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B162,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -3376,11 +3374,11 @@
         <v>ABU DHABI COMMERCIAL BANK</v>
       </c>
       <c r="C163" t="str">
-        <f>VLOOKUP(B163,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B163,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>3</v>
       </c>
@@ -3389,11 +3387,11 @@
         <v>AHMEDABAD MERCANTILE COOP BANK</v>
       </c>
       <c r="C164" t="str">
-        <f>VLOOKUP(B164,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <f>VLOOKUP(B164,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -3402,11 +3400,11 @@
         <v>ALLAHABAD BANK</v>
       </c>
       <c r="C165" t="str">
-        <f>VLOOKUP(B165,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B165,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>308</v>
       </c>
@@ -3415,11 +3413,11 @@
         <v>ALMORA URBAN CO-OPERATIVE BANK LTD</v>
       </c>
       <c r="C166" t="str">
-        <f>VLOOKUP(B166,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <f>VLOOKUP(B166,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -3428,11 +3426,11 @@
         <v>ANDHRA BANK</v>
       </c>
       <c r="C167" t="str">
-        <f>VLOOKUP(B167,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B167,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>280</v>
       </c>
@@ -3441,11 +3439,11 @@
         <v>ANDHRA PRADESH GRAMEENA BANK</v>
       </c>
       <c r="C168" t="str">
-        <f>VLOOKUP(B168,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B168,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>276</v>
       </c>
@@ -3454,11 +3452,11 @@
         <v>ANDHRA PRADESH STATE CO-OPERATIVE BANK LTD.</v>
       </c>
       <c r="C169" t="str">
-        <f>VLOOKUP(B169,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <f>VLOOKUP(B169,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>315</v>
       </c>
@@ -3467,11 +3465,11 @@
         <v>ANDHRA PRAGATHI GRAMEENA BANK</v>
       </c>
       <c r="C170" t="str">
-        <f>VLOOKUP(B170,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B170,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>218</v>
       </c>
@@ -3480,11 +3478,11 @@
         <v>APNA SAHAKARI BANK LTD.</v>
       </c>
       <c r="C171" t="str">
-        <f>VLOOKUP(B171,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <f>VLOOKUP(B171,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>214</v>
       </c>
@@ -3493,11 +3491,11 @@
         <v>AUSTRALIA &amp; NEW ZEALAND BANKING GROUP LTD.</v>
       </c>
       <c r="C172" t="str">
-        <f>VLOOKUP(B172,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B172,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>112</v>
       </c>
@@ -3506,11 +3504,11 @@
         <v>AXIS BANK LTD</v>
       </c>
       <c r="C173" t="str">
-        <f>VLOOKUP(B173,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B173,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -3519,11 +3517,11 @@
         <v>B N PARIBAS</v>
       </c>
       <c r="C174" t="str">
-        <f>VLOOKUP(B174,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B174,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -3532,11 +3530,11 @@
         <v>BANK OF AMERICA</v>
       </c>
       <c r="C175" t="str">
-        <f>VLOOKUP(B175,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B175,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>113</v>
       </c>
@@ -3545,11 +3543,11 @@
         <v>BANK OF BAHRAIN AND KUWAIT</v>
       </c>
       <c r="C176" t="str">
-        <f>VLOOKUP(B176,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B176,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -3558,11 +3556,11 @@
         <v>BANK OF BARODA</v>
       </c>
       <c r="C177" t="str">
-        <f>VLOOKUP(B177,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B177,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -3571,11 +3569,11 @@
         <v>BANK OF CEYLON</v>
       </c>
       <c r="C178" t="str">
-        <f>VLOOKUP(B178,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B178,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -3584,11 +3582,11 @@
         <v>BANK OF INDIA</v>
       </c>
       <c r="C179" t="str">
-        <f>VLOOKUP(B179,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B179,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -3597,11 +3595,11 @@
         <v>BANK OF MAHARASHTRA</v>
       </c>
       <c r="C180" t="str">
-        <f>VLOOKUP(B180,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B180,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -3610,11 +3608,11 @@
         <v>BANK OF NOVA SCOTIA</v>
       </c>
       <c r="C181" t="str">
-        <f>VLOOKUP(B181,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B181,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -3623,11 +3621,11 @@
         <v>BANK OF RAJASTHAN</v>
       </c>
       <c r="C182" t="str">
-        <f>VLOOKUP(B182,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B182,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>244</v>
       </c>
@@ -3636,11 +3634,11 @@
         <v>BANK OF TOKYO MITSUBISHI UFJ LTD.</v>
       </c>
       <c r="C183" t="str">
-        <f>VLOOKUP(B183,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B183,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>114</v>
       </c>
@@ -3649,11 +3647,11 @@
         <v>BARCLAYS BANK PLC</v>
       </c>
       <c r="C184" t="str">
-        <f>VLOOKUP(B184,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B184,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>18</v>
       </c>
@@ -3662,11 +3660,11 @@
         <v>BASSEIN CATHOLIC CO-OP BANK LTD</v>
       </c>
       <c r="C185" t="str">
-        <f>VLOOKUP(B185,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <f>VLOOKUP(B185,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -3675,11 +3673,11 @@
         <v>BHARAT CO-OP BANK LTD</v>
       </c>
       <c r="C186" t="str">
-        <f>VLOOKUP(B186,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <f>VLOOKUP(B186,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>118</v>
       </c>
@@ -3688,11 +3686,11 @@
         <v>BNP PARIBAS</v>
       </c>
       <c r="C187" t="str">
-        <f>VLOOKUP(B187,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B187,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -3701,11 +3699,11 @@
         <v>CANARA BANK</v>
       </c>
       <c r="C188" t="str">
-        <f>VLOOKUP(B188,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B188,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>309</v>
       </c>
@@ -3714,11 +3712,11 @@
         <v>CAPITAL LOCAL AREA BANK LTD</v>
       </c>
       <c r="C189" t="str">
-        <f>VLOOKUP(B189,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B189,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -3727,11 +3725,11 @@
         <v>CATHOLIC SYRIAN BANK LTD.</v>
       </c>
       <c r="C190" t="str">
-        <f>VLOOKUP(B190,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B190,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>22</v>
       </c>
@@ -3740,11 +3738,11 @@
         <v>CENTRAL BANK OF INDIA</v>
       </c>
       <c r="C191" t="str">
-        <f>VLOOKUP(B191,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B191,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -3753,11 +3751,11 @@
         <v>CHINATRUST COMMERCIAL BANK</v>
       </c>
       <c r="C192" t="str">
-        <f>VLOOKUP(B192,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B192,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>24</v>
       </c>
@@ -3766,11 +3764,11 @@
         <v>CITI BANK</v>
       </c>
       <c r="C193" t="str">
-        <f>VLOOKUP(B193,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B193,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>25</v>
       </c>
@@ -3779,11 +3777,11 @@
         <v>CITIZEN CREDIT COOPERATIVE BANK LTD</v>
       </c>
       <c r="C194" t="str">
-        <f>VLOOKUP(B194,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <f>VLOOKUP(B194,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>231</v>
       </c>
@@ -3792,11 +3790,11 @@
         <v>CITY UNION BANK LTD.</v>
       </c>
       <c r="C195" t="str">
-        <f>VLOOKUP(B195,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B195,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>232</v>
       </c>
@@ -3805,11 +3803,11 @@
         <v>COMMONWEALTH BANK OF AUSTRALIA</v>
       </c>
       <c r="C196" t="str">
-        <f>VLOOKUP(B196,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B196,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>27</v>
       </c>
@@ -3818,11 +3816,11 @@
         <v>CORPORATION BANK</v>
       </c>
       <c r="C197" t="str">
-        <f>VLOOKUP(B197,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B197,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>123</v>
       </c>
@@ -3831,11 +3829,11 @@
         <v>COSMOS CO-OPERATIVE BANK</v>
       </c>
       <c r="C198" t="str">
-        <f>VLOOKUP(B198,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <f>VLOOKUP(B198,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>124</v>
       </c>
@@ -3844,11 +3842,11 @@
         <v>CREDIT AGRICOLE CORPORATE AND INVESTMENT BANK</v>
       </c>
       <c r="C199" t="str">
-        <f>VLOOKUP(B199,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B199,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>192</v>
       </c>
@@ -3857,11 +3855,11 @@
         <v>CREDIT SUISSE AG</v>
       </c>
       <c r="C200" t="str">
-        <f>VLOOKUP(B200,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B200,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>125</v>
       </c>
@@ -3870,11 +3868,11 @@
         <v>DBS BANK</v>
       </c>
       <c r="C201" t="str">
-        <f>VLOOKUP(B201,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B201,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>30</v>
       </c>
@@ -3883,11 +3881,11 @@
         <v>DENA BANK</v>
       </c>
       <c r="C202" t="str">
-        <f>VLOOKUP(B202,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B202,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>126</v>
       </c>
@@ -3896,11 +3894,11 @@
         <v>DEPOSIT INS AND CR GUAR CORPN</v>
       </c>
       <c r="C203" t="str">
-        <f>VLOOKUP(B203,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B203,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>127</v>
       </c>
@@ -3909,11 +3907,11 @@
         <v>DEUTSCHE BANK LTD</v>
       </c>
       <c r="C204" t="str">
-        <f>VLOOKUP(B204,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B204,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>233</v>
       </c>
@@ -3922,11 +3920,11 @@
         <v>DEUTSCHE SECURITIES (I) PVT. LTD.</v>
       </c>
       <c r="C205" t="str">
-        <f>VLOOKUP(B205,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B205,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>32</v>
       </c>
@@ -3935,11 +3933,11 @@
         <v>DEVELOPMENT BANK OF SINGAPORE</v>
       </c>
       <c r="C206" t="str">
-        <f>VLOOKUP(B206,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B206,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>200</v>
       </c>
@@ -3948,11 +3946,11 @@
         <v>DEVELOPMENT CREDIT BANK LTD</v>
       </c>
       <c r="C207" t="str">
-        <f>VLOOKUP(B207,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B207,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>248</v>
       </c>
@@ -3961,11 +3959,11 @@
         <v>DHANALAKSHMI BANK LTD.</v>
       </c>
       <c r="C208" t="str">
-        <f>VLOOKUP(B208,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B208,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>35</v>
       </c>
@@ -3974,11 +3972,11 @@
         <v>DICGC</v>
       </c>
       <c r="C209" t="str">
-        <f>VLOOKUP(B209,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B209,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>36</v>
       </c>
@@ -3987,11 +3985,11 @@
         <v>DOMBIVLI NAGRIK SAHAKARI BANK</v>
       </c>
       <c r="C210" t="str">
-        <f>VLOOKUP(B210,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <f>VLOOKUP(B210,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>130</v>
       </c>
@@ -4000,11 +3998,11 @@
         <v>FEDERAL BANK LTD.</v>
       </c>
       <c r="C211" t="str">
-        <f>VLOOKUP(B211,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B211,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>38</v>
       </c>
@@ -4013,11 +4011,11 @@
         <v>FIRSTRAND BANK</v>
       </c>
       <c r="C212" t="str">
-        <f>VLOOKUP(B212,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B212,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>185</v>
       </c>
@@ -4026,11 +4024,11 @@
         <v>GOLDMAN SACH (INDIA)</v>
       </c>
       <c r="C213" t="str">
-        <f>VLOOKUP(B213,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B213,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>191</v>
       </c>
@@ -4039,11 +4037,11 @@
         <v>GOLDMAN SACH (INDIA) CAPITAL MARKETS P LTD.</v>
       </c>
       <c r="C214" t="str">
-        <f>VLOOKUP(B214,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B214,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>203</v>
       </c>
@@ -4052,11 +4050,11 @@
         <v>GREATER BOMBAY CO.OP BANK LTD</v>
       </c>
       <c r="C215" t="str">
-        <f>VLOOKUP(B215,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <f>VLOOKUP(B215,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>249</v>
       </c>
@@ -4065,11 +4063,11 @@
         <v>GUJARAT STATE COOPERATIVE BANK LTD.</v>
       </c>
       <c r="C216" t="str">
-        <f>VLOOKUP(B216,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <f>VLOOKUP(B216,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>281</v>
       </c>
@@ -4078,11 +4076,11 @@
         <v>GURGAON GRAMIN BANK</v>
       </c>
       <c r="C217" t="str">
-        <f>VLOOKUP(B217,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B217,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>132</v>
       </c>
@@ -4091,11 +4089,11 @@
         <v>HDFC BANK LTD.</v>
       </c>
       <c r="C218" t="str">
-        <f>VLOOKUP(B218,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B218,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>250</v>
       </c>
@@ -4104,11 +4102,11 @@
         <v>HONGKONG &amp; SHANGHAI BKG CORPORATION</v>
       </c>
       <c r="C219" t="str">
-        <f>VLOOKUP(B219,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B219,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>41</v>
       </c>
@@ -4117,11 +4115,11 @@
         <v>HSBC BANK</v>
       </c>
       <c r="C220" t="str">
-        <f>VLOOKUP(B220,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B220,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -4130,11 +4128,11 @@
         <v>ICICI BANK LTD</v>
       </c>
       <c r="C221" t="str">
-        <f>VLOOKUP(B221,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B221,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>134</v>
       </c>
@@ -4143,11 +4141,11 @@
         <v>ICICI SECURITIES LIMITED</v>
       </c>
       <c r="C222" t="str">
-        <f>VLOOKUP(B222,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B222,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>43</v>
       </c>
@@ -4156,11 +4154,11 @@
         <v>IDBI BANK</v>
       </c>
       <c r="C223" t="str">
-        <f>VLOOKUP(B223,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B223,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>135</v>
       </c>
@@ -4169,11 +4167,11 @@
         <v>IDBI CAP MARKET SERVICES LTD</v>
       </c>
       <c r="C224" t="str">
-        <f>VLOOKUP(B224,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B224,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>136</v>
       </c>
@@ -4182,11 +4180,11 @@
         <v>IDBI LTD.</v>
       </c>
       <c r="C225" t="str">
-        <f>VLOOKUP(B225,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B225,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>44</v>
       </c>
@@ -4195,11 +4193,11 @@
         <v>INDIAN BANK</v>
       </c>
       <c r="C226" t="str">
-        <f>VLOOKUP(B226,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B226,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>137</v>
       </c>
@@ -4208,11 +4206,11 @@
         <v>INDIAN CLEARING CORPORATION LIMITED</v>
       </c>
       <c r="C227" t="str">
-        <f>VLOOKUP(B227,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B227,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>45</v>
       </c>
@@ -4221,11 +4219,11 @@
         <v>INDIAN OVERSEAS BANK</v>
       </c>
       <c r="C228" t="str">
-        <f>VLOOKUP(B228,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B228,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>138</v>
       </c>
@@ -4234,11 +4232,11 @@
         <v>INDUSIND BANK LTD.</v>
       </c>
       <c r="C229" t="str">
-        <f>VLOOKUP(B229,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B229,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>139</v>
       </c>
@@ -4247,11 +4245,11 @@
         <v>ING VYSYA BANK LTD.</v>
       </c>
       <c r="C230" t="str">
-        <f>VLOOKUP(B230,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B230,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>251</v>
       </c>
@@ -4260,11 +4258,11 @@
         <v>JALGAON JANTA SAHAKARI BANK LTD.</v>
       </c>
       <c r="C231" t="str">
-        <f>VLOOKUP(B231,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <f>VLOOKUP(B231,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>224</v>
       </c>
@@ -4273,11 +4271,11 @@
         <v>JALGAON PEOPLES' COOPERATIVE BANK LTD.</v>
       </c>
       <c r="C232" t="str">
-        <f>VLOOKUP(B232,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <f>VLOOKUP(B232,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -4286,11 +4284,11 @@
         <v>JAMMU AND KASHMIR BANK LTD.</v>
       </c>
       <c r="C233" t="str">
-        <f>VLOOKUP(B233,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B233,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>141</v>
       </c>
@@ -4299,11 +4297,11 @@
         <v>JANAKALYAN SAHAKARI BANK LTD.</v>
       </c>
       <c r="C234" t="str">
-        <f>VLOOKUP(B234,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <f>VLOOKUP(B234,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>225</v>
       </c>
@@ -4312,11 +4310,11 @@
         <v>JANASEVA SAHAKARI BANK LTD., PUNE</v>
       </c>
       <c r="C235" t="str">
-        <f>VLOOKUP(B235,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <f>VLOOKUP(B235,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>142</v>
       </c>
@@ -4325,11 +4323,11 @@
         <v>JANATA SAHAKARI BANK LTD., PUNE</v>
       </c>
       <c r="C236" t="str">
-        <f>VLOOKUP(B236,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <f>VLOOKUP(B236,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>50</v>
       </c>
@@ -4338,11 +4336,11 @@
         <v>JP MORGAN BANK</v>
       </c>
       <c r="C237" t="str">
-        <f>VLOOKUP(B237,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B237,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>291</v>
       </c>
@@ -4351,11 +4349,11 @@
         <v>KALLAPPANNA AWADE IJSB LTD</v>
       </c>
       <c r="C238" t="str">
-        <f>VLOOKUP(B238,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <f>VLOOKUP(B238,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>145</v>
       </c>
@@ -4364,11 +4362,11 @@
         <v>KALUPUR COMMERCIAL CO-OP BANK</v>
       </c>
       <c r="C239" t="str">
-        <f>VLOOKUP(B239,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <f>VLOOKUP(B239,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>146</v>
       </c>
@@ -4377,11 +4375,11 @@
         <v>KALYAN JANATA SAH BANK LTD</v>
       </c>
       <c r="C240" t="str">
-        <f>VLOOKUP(B240,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <f>VLOOKUP(B240,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>282</v>
       </c>
@@ -4390,11 +4388,11 @@
         <v>KANGRA CENTRAL CO-OP. BANK LTD.</v>
       </c>
       <c r="C241" t="str">
-        <f>VLOOKUP(B241,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <f>VLOOKUP(B241,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>252</v>
       </c>
@@ -4403,11 +4401,11 @@
         <v>KAPOL CO-OP BANK LTD</v>
       </c>
       <c r="C242" t="str">
-        <f>VLOOKUP(B242,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <f>VLOOKUP(B242,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>253</v>
       </c>
@@ -4416,11 +4414,11 @@
         <v>KARAD URBAN CO-OP. BANK LTD.</v>
       </c>
       <c r="C243" t="str">
-        <f>VLOOKUP(B243,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <f>VLOOKUP(B243,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>254</v>
       </c>
@@ -4429,11 +4427,11 @@
         <v>KARNATAKA BANK LTD.</v>
       </c>
       <c r="C244" t="str">
-        <f>VLOOKUP(B244,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B244,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>55</v>
       </c>
@@ -4442,11 +4440,11 @@
         <v>KARNATAKA STATE COOP APEX BANK</v>
       </c>
       <c r="C245" t="str">
-        <f>VLOOKUP(B245,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <f>VLOOKUP(B245,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>277</v>
       </c>
@@ -4455,11 +4453,11 @@
         <v>KARNATAKA VIKAS GRAMEENA BANK</v>
       </c>
       <c r="C246" t="str">
-        <f>VLOOKUP(B246,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B246,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>256</v>
       </c>
@@ -4468,11 +4466,11 @@
         <v>KARUR VYSYA BANK LTD.</v>
       </c>
       <c r="C247" t="str">
-        <f>VLOOKUP(B247,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B247,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>257</v>
       </c>
@@ -4481,11 +4479,11 @@
         <v>KOTAK MAHINDRA BANK LTD.</v>
       </c>
       <c r="C248" t="str">
-        <f>VLOOKUP(B248,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B248,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>149</v>
       </c>
@@ -4494,11 +4492,11 @@
         <v>KRUNG THAI BANK PCL</v>
       </c>
       <c r="C249" t="str">
-        <f>VLOOKUP(B249,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B249,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>58</v>
       </c>
@@ -4507,11 +4505,11 @@
         <v>LAKSHMI VILAS BANK LTD</v>
       </c>
       <c r="C250" t="str">
-        <f>VLOOKUP(B250,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B250,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>259</v>
       </c>
@@ -4520,11 +4518,11 @@
         <v>MAHANAGAR CO-OP.BANK LTD.</v>
       </c>
       <c r="C251" t="str">
-        <f>VLOOKUP(B251,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <f>VLOOKUP(B251,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>238</v>
       </c>
@@ -4533,11 +4531,11 @@
         <v>MAHARASHTRA STATE CO-OP BANK LTD.</v>
       </c>
       <c r="C252" t="str">
-        <f>VLOOKUP(B252,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <f>VLOOKUP(B252,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>61</v>
       </c>
@@ -4546,11 +4544,11 @@
         <v>MASHREQ BANK</v>
       </c>
       <c r="C253" t="str">
-        <f>VLOOKUP(B253,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B253,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>152</v>
       </c>
@@ -4559,11 +4557,11 @@
         <v>MEHSANA URBAN COOPERATIVE BANK LTD.</v>
       </c>
       <c r="C254" t="str">
-        <f>VLOOKUP(B254,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <f>VLOOKUP(B254,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>260</v>
       </c>
@@ -4572,11 +4570,11 @@
         <v>MIZUHO CORPORATE BANK LTD.</v>
       </c>
       <c r="C255" t="str">
-        <f>VLOOKUP(B255,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <f>VLOOKUP(B255,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>187</v>
       </c>
@@ -4585,11 +4583,11 @@
         <v>MORGAN STANLEY INDIA</v>
       </c>
       <c r="C256" t="str">
-        <f>VLOOKUP(B256,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B256,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>154</v>
       </c>
@@ -4598,11 +4596,11 @@
         <v>MUMBAI DISTRICT CENTRAL COOP BANK LTD.</v>
       </c>
       <c r="C257" t="str">
-        <f>VLOOKUP(B257,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <f>VLOOKUP(B257,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>278</v>
       </c>
@@ -4611,11 +4609,11 @@
         <v>MUNICIPAL COOPERATIVE BANK LTD.</v>
       </c>
       <c r="C258" t="str">
-        <f>VLOOKUP(B258,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <f>VLOOKUP(B258,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>287</v>
       </c>
@@ -4624,11 +4622,11 @@
         <v>NAGPUR NAGRIK SAHAKARI BANK LTD</v>
       </c>
       <c r="C259" t="str">
-        <f>VLOOKUP(B259,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <f>VLOOKUP(B259,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -4637,11 +4635,11 @@
         <v>NAINITAL BANK LTD.</v>
       </c>
       <c r="C260" t="str">
-        <f>VLOOKUP(B260,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B260,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>216</v>
       </c>
@@ -4650,11 +4648,11 @@
         <v>NASIK MARCHANT'S CO-OP BANK LTD.</v>
       </c>
       <c r="C261" t="str">
-        <f>VLOOKUP(B261,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <f>VLOOKUP(B261,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4663,11 +4661,11 @@
         <v>NATIONAL AUSTRALIA BANK LTD.</v>
       </c>
       <c r="C262" t="str">
-        <f>VLOOKUP(B262,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B262,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>155</v>
       </c>
@@ -4676,11 +4674,11 @@
         <v>NATIONAL STOCK EXCHANGE OF INDIA LTD.</v>
       </c>
       <c r="C263" t="str">
-        <f>VLOOKUP(B263,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B263,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>65</v>
       </c>
@@ -4689,11 +4687,11 @@
         <v>NEW INDIA CO-OP BANK</v>
       </c>
       <c r="C264" t="str">
-        <f>VLOOKUP(B264,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <f>VLOOKUP(B264,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>66</v>
       </c>
@@ -4702,11 +4700,11 @@
         <v>NKGSB BANK</v>
       </c>
       <c r="C265" t="str">
-        <f>VLOOKUP(B265,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <f>VLOOKUP(B265,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>156</v>
       </c>
@@ -4715,11 +4713,11 @@
         <v>NOMURA FIXED INCOME SECURITIES</v>
       </c>
       <c r="C266" t="str">
-        <f>VLOOKUP(B266,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B266,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>263</v>
       </c>
@@ -4728,11 +4726,11 @@
         <v>NORTH KANARA GSB COOP BANK LTD.</v>
       </c>
       <c r="C267" t="str">
-        <f>VLOOKUP(B267,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <f>VLOOKUP(B267,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>283</v>
       </c>
@@ -4741,11 +4739,11 @@
         <v>NORTH MALABAR GRAMIN BANK</v>
       </c>
       <c r="C268" t="str">
-        <f>VLOOKUP(B268,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B268,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>264</v>
       </c>
@@ -4754,11 +4752,11 @@
         <v>NUTAN NAGARIK SAHAKARI BANK LTD.</v>
       </c>
       <c r="C269" t="str">
-        <f>VLOOKUP(B269,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <f>VLOOKUP(B269,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>68</v>
       </c>
@@ -4767,11 +4765,11 @@
         <v>OMAN INTERNATIONAL BANK</v>
       </c>
       <c r="C270" t="str">
-        <f>VLOOKUP(B270,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B270,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>69</v>
       </c>
@@ -4780,11 +4778,11 @@
         <v>ORIENTAL BANK OF COMMERCE</v>
       </c>
       <c r="C271" t="str">
-        <f>VLOOKUP(B271,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B271,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>265</v>
       </c>
@@ -4793,11 +4791,11 @@
         <v>ORISSA STATE COOPERATIVE BANK BANK LTD.</v>
       </c>
       <c r="C272" t="str">
-        <f>VLOOKUP(B272,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <f>VLOOKUP(B272,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>266</v>
       </c>
@@ -4806,11 +4804,11 @@
         <v>PARSIK JANATA SAHAKARI BK LTD.</v>
       </c>
       <c r="C273" t="str">
-        <f>VLOOKUP(B273,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <f>VLOOKUP(B273,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>160</v>
       </c>
@@ -4819,11 +4817,11 @@
         <v>PNB GILTS LIMITED</v>
       </c>
       <c r="C274" t="str">
-        <f>VLOOKUP(B274,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B274,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>284</v>
       </c>
@@ -4832,11 +4830,11 @@
         <v>PRATHAMA BANK</v>
       </c>
       <c r="C275" t="str">
-        <f>VLOOKUP(B275,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B275,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>267</v>
       </c>
@@ -4845,11 +4843,11 @@
         <v>PRIME CO-OPERATIVE BANK LTD.</v>
       </c>
       <c r="C276" t="str">
-        <f>VLOOKUP(B276,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <f>VLOOKUP(B276,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>211</v>
       </c>
@@ -4858,11 +4856,11 @@
         <v>PUNJAB AND MAHARASHTRA CO-OP BANK</v>
       </c>
       <c r="C277" t="str">
-        <f>VLOOKUP(B277,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <f>VLOOKUP(B277,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>72</v>
       </c>
@@ -4871,11 +4869,11 @@
         <v>PUNJAB AND SIND BANK</v>
       </c>
       <c r="C278" t="str">
-        <f>VLOOKUP(B278,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B278,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>73</v>
       </c>
@@ -4884,11 +4882,11 @@
         <v>PUNJAB NATIONAL BANK</v>
       </c>
       <c r="C279" t="str">
-        <f>VLOOKUP(B279,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B279,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>215</v>
       </c>
@@ -4897,11 +4895,11 @@
         <v>RABO BANK INTERNATIONAL</v>
       </c>
       <c r="C280" t="str">
-        <f>VLOOKUP(B280,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B280,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>268</v>
       </c>
@@ -4910,11 +4908,11 @@
         <v>RAJASTHAN STATE COOPERATIVE BANK LTD.</v>
       </c>
       <c r="C281" t="str">
-        <f>VLOOKUP(B281,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <f>VLOOKUP(B281,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>76</v>
       </c>
@@ -4923,11 +4921,11 @@
         <v>RAJKOT NAGARIK SAHAKARI BANK LTD.</v>
       </c>
       <c r="C282" t="str">
-        <f>VLOOKUP(B282,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <f>VLOOKUP(B282,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>74</v>
       </c>
@@ -4936,11 +4934,11 @@
         <v>RATNAKAR BANK LTD</v>
       </c>
       <c r="C283" t="str">
-        <f>VLOOKUP(B283,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B283,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>164</v>
       </c>
@@ -4949,11 +4947,11 @@
         <v>RESERVE BANK OF INDIA</v>
       </c>
       <c r="C284" t="str">
-        <f>VLOOKUP(B284,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B284,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>197</v>
       </c>
@@ -4962,11 +4960,11 @@
         <v>ROYAL BANK OF SCOTLAND N.V.</v>
       </c>
       <c r="C285" t="str">
-        <f>VLOOKUP(B285,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B285,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>269</v>
       </c>
@@ -4975,11 +4973,11 @@
         <v>SARASWAT CO-OPERATIVE BANK LTD.</v>
       </c>
       <c r="C286" t="str">
-        <f>VLOOKUP(B286,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <f>VLOOKUP(B286,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -4988,11 +4986,11 @@
         <v>SBER BANK</v>
       </c>
       <c r="C287" t="str">
-        <f>VLOOKUP(B287,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B287,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>166</v>
       </c>
@@ -5001,11 +4999,11 @@
         <v>SBI DFHI LTD</v>
       </c>
       <c r="C288" t="str">
-        <f>VLOOKUP(B288,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B288,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>167</v>
       </c>
@@ -5014,11 +5012,11 @@
         <v>SEC TRADING CORP OF INDIA LTD.</v>
       </c>
       <c r="C289" t="str">
-        <f>VLOOKUP(B289,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B289,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>219</v>
       </c>
@@ -5027,11 +5025,11 @@
         <v>SHAMRAO VITHHAL CO-OP BANK LTD.</v>
       </c>
       <c r="C290" t="str">
-        <f>VLOOKUP(B290,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <f>VLOOKUP(B290,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>80</v>
       </c>
@@ -5040,11 +5038,11 @@
         <v>SHINHAN BANK</v>
       </c>
       <c r="C291" t="str">
-        <f>VLOOKUP(B291,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B291,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>286</v>
       </c>
@@ -5053,11 +5051,11 @@
         <v>SHRI CHHATRAPATI RAJARSHI SHAHU URBAN CO-OP. BANK LTD.</v>
       </c>
       <c r="C292" t="str">
-        <f>VLOOKUP(B292,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <f>VLOOKUP(B292,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>81</v>
       </c>
@@ -5066,11 +5064,11 @@
         <v>SOCIETE GENERALE</v>
       </c>
       <c r="C293" t="str">
-        <f>VLOOKUP(B293,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B293,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>82</v>
       </c>
@@ -5079,11 +5077,11 @@
         <v>SOUTH INDIAN BANK</v>
       </c>
       <c r="C294" t="str">
-        <f>VLOOKUP(B294,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B294,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>170</v>
       </c>
@@ -5092,11 +5090,11 @@
         <v>STANDARD CHARTERED BANK LTD.</v>
       </c>
       <c r="C295" t="str">
-        <f>VLOOKUP(B295,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B295,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>105</v>
       </c>
@@ -5105,11 +5103,11 @@
         <v>STATE BANK OF BIKANER AND JAIPUR</v>
       </c>
       <c r="C296" t="str">
-        <f>VLOOKUP(B296,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B296,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>84</v>
       </c>
@@ -5118,11 +5116,11 @@
         <v>STATE BANK OF HYDERABAD</v>
       </c>
       <c r="C297" t="str">
-        <f>VLOOKUP(B297,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B297,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>85</v>
       </c>
@@ -5131,11 +5129,11 @@
         <v>STATE BANK OF INDIA</v>
       </c>
       <c r="C298" t="str">
-        <f>VLOOKUP(B298,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B298,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>199</v>
       </c>
@@ -5144,11 +5142,11 @@
         <v>STATE BANK OF INDORE</v>
       </c>
       <c r="C299" t="str">
-        <f>VLOOKUP(B299,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B299,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>86</v>
       </c>
@@ -5157,11 +5155,11 @@
         <v>STATE BANK OF MAURITIUS</v>
       </c>
       <c r="C300" t="str">
-        <f>VLOOKUP(B300,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B300,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>87</v>
       </c>
@@ -5170,11 +5168,11 @@
         <v>STATE BANK OF MYSORE</v>
       </c>
       <c r="C301" t="str">
-        <f>VLOOKUP(B301,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B301,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>88</v>
       </c>
@@ -5183,11 +5181,11 @@
         <v>STATE BANK OF PATIALA</v>
       </c>
       <c r="C302" t="str">
-        <f>VLOOKUP(B302,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B302,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>89</v>
       </c>
@@ -5196,11 +5194,11 @@
         <v>STATE BANK OF TRAVANCORE</v>
       </c>
       <c r="C303" t="str">
-        <f>VLOOKUP(B303,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B303,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>270</v>
       </c>
@@ -5209,11 +5207,11 @@
         <v>SURAT DISTRICT COOPERATIVE BANK LTD.</v>
       </c>
       <c r="C304" t="str">
-        <f>VLOOKUP(B304,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <f>VLOOKUP(B304,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>171</v>
       </c>
@@ -5222,11 +5220,11 @@
         <v>SURAT PEOPLES COOP BANK LTD.</v>
       </c>
       <c r="C305" t="str">
-        <f>VLOOKUP(B305,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <f>VLOOKUP(B305,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>279</v>
       </c>
@@ -5235,11 +5233,11 @@
         <v>SUTEX CO-OPERATIVE BANK LTD.</v>
       </c>
       <c r="C306" t="str">
-        <f>VLOOKUP(B306,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <f>VLOOKUP(B306,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>91</v>
       </c>
@@ -5248,11 +5246,11 @@
         <v>SYNDICATE BANK</v>
       </c>
       <c r="C307" t="str">
-        <f>VLOOKUP(B307,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B307,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>271</v>
       </c>
@@ -5261,11 +5259,11 @@
         <v>TAMIL NADU STATE APEX COOP BANK LTD.</v>
       </c>
       <c r="C308" t="str">
-        <f>VLOOKUP(B308,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <f>VLOOKUP(B308,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>209</v>
       </c>
@@ -5274,11 +5272,11 @@
         <v>TAMILNADU MERCANTILE BANK LTD</v>
       </c>
       <c r="C309" t="str">
-        <f>VLOOKUP(B309,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B309,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>220</v>
       </c>
@@ -5287,11 +5285,11 @@
         <v>THANE BHARAT SAHAKARI BANK LTD.</v>
       </c>
       <c r="C310" t="str">
-        <f>VLOOKUP(B310,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <f>VLOOKUP(B310,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>212</v>
       </c>
@@ -5300,11 +5298,11 @@
         <v>THANE JANTA SAHAKARI BANK LTD</v>
       </c>
       <c r="C311" t="str">
-        <f>VLOOKUP(B311,Final_Names!$A$2:$C$163,3)</f>
-        <v>PVT</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <f>VLOOKUP(B311,Final_Names!$A$2:$C$163,3,FALSE)</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>106</v>
       </c>
@@ -5313,11 +5311,11 @@
         <v>UBS AG</v>
       </c>
       <c r="C312" t="str">
-        <f>VLOOKUP(B312,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B312,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>97</v>
       </c>
@@ -5326,11 +5324,11 @@
         <v>UCO BANK</v>
       </c>
       <c r="C313" t="str">
-        <f>VLOOKUP(B313,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B313,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>98</v>
       </c>
@@ -5339,11 +5337,11 @@
         <v>UNION BANK OF INDIA</v>
       </c>
       <c r="C314" t="str">
-        <f>VLOOKUP(B314,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B314,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -5352,11 +5350,11 @@
         <v>UNITED BANK OF INDIA</v>
       </c>
       <c r="C315" t="str">
-        <f>VLOOKUP(B315,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B315,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>100</v>
       </c>
@@ -5365,11 +5363,11 @@
         <v>VIJAYA BANK</v>
       </c>
       <c r="C316" t="str">
-        <f>VLOOKUP(B316,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B316,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PSB</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>229</v>
       </c>
@@ -5378,11 +5376,11 @@
         <v>WOORI BANK</v>
       </c>
       <c r="C317" t="str">
-        <f>VLOOKUP(B317,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B317,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>FOR</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>275</v>
       </c>
@@ -5391,7 +5389,7 @@
         <v>YES BANK LTD.</v>
       </c>
       <c r="C318" t="str">
-        <f>VLOOKUP(B318,Final_Names!$A$2:$C$163,3)</f>
+        <f>VLOOKUP(B318,Final_Names!$A$2:$C$163,3,FALSE)</f>
         <v>PVT</v>
       </c>
     </row>
@@ -5416,15 +5414,15 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5435,29 +5433,31 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>319</v>
       </c>
-      <c r="C2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" t="str">
+        <f>B2</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>319</v>
       </c>
-      <c r="C3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" t="str">
+        <f>B3</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5479,18 +5479,19 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>319</v>
       </c>
-      <c r="C6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" t="str">
+        <f>B6</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5501,18 +5502,19 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
       <c r="B8" t="s">
         <v>319</v>
       </c>
-      <c r="C8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" t="str">
+        <f>B8</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5523,7 +5525,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -5534,18 +5536,19 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>276</v>
       </c>
       <c r="B11" t="s">
         <v>319</v>
       </c>
-      <c r="C11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" t="str">
+        <f>B11</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>315</v>
       </c>
@@ -5556,18 +5559,19 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>319</v>
       </c>
-      <c r="C13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" t="str">
+        <f>B13</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>214</v>
       </c>
@@ -5578,7 +5582,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -5589,7 +5593,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -5644,7 +5648,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -5666,7 +5670,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -5677,7 +5681,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>244</v>
       </c>
@@ -5699,7 +5703,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -5710,29 +5714,31 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>319</v>
       </c>
-      <c r="C27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:C28" si="0">B27</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>319</v>
       </c>
-      <c r="C28" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -5743,7 +5749,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>309</v>
       </c>
@@ -5765,7 +5771,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -5776,7 +5782,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -5787,7 +5793,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -5798,7 +5804,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -5809,18 +5815,19 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
         <v>319</v>
       </c>
-      <c r="C36" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" t="str">
+        <f>B36</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>231</v>
       </c>
@@ -5831,7 +5838,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>232</v>
       </c>
@@ -5842,7 +5849,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -5853,18 +5860,19 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
       <c r="B40" t="s">
         <v>319</v>
       </c>
-      <c r="C40" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" t="str">
+        <f>B40</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -5875,7 +5883,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -5886,7 +5894,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -5897,7 +5905,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -5908,7 +5916,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -5919,7 +5927,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -5930,7 +5938,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>233</v>
       </c>
@@ -5941,7 +5949,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -5952,7 +5960,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>200</v>
       </c>
@@ -5963,7 +5971,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -5974,7 +5982,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
@@ -5985,18 +5993,19 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>36</v>
       </c>
       <c r="B52" t="s">
         <v>319</v>
       </c>
-      <c r="C52" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52" t="str">
+        <f>B52</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -6007,7 +6016,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -6018,7 +6027,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>185</v>
       </c>
@@ -6029,7 +6038,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>191</v>
       </c>
@@ -6040,29 +6049,31 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B57" t="s">
         <v>319</v>
       </c>
-      <c r="C57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57" t="str">
+        <f t="shared" ref="C57:C58" si="1">B57</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>249</v>
       </c>
       <c r="B58" t="s">
         <v>319</v>
       </c>
-      <c r="C58" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>281</v>
       </c>
@@ -6073,7 +6084,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -6084,7 +6095,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>250</v>
       </c>
@@ -6095,7 +6106,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -6106,7 +6117,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -6117,7 +6128,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -6128,7 +6139,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -6139,7 +6150,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -6150,7 +6161,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
@@ -6161,7 +6172,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>44</v>
       </c>
@@ -6172,7 +6183,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -6183,7 +6194,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -6194,7 +6205,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -6205,7 +6216,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -6216,29 +6227,31 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>251</v>
       </c>
       <c r="B73" t="s">
         <v>319</v>
       </c>
-      <c r="C73" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="C73" t="str">
+        <f t="shared" ref="C73:C74" si="2">B73</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>224</v>
       </c>
       <c r="B74" t="s">
         <v>319</v>
       </c>
-      <c r="C74" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="C74" t="str">
+        <f t="shared" si="2"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>235</v>
       </c>
@@ -6249,40 +6262,43 @@
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>141</v>
       </c>
       <c r="B76" t="s">
         <v>319</v>
       </c>
-      <c r="C76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76" t="str">
+        <f t="shared" ref="C76:C78" si="3">B76</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>225</v>
       </c>
       <c r="B77" t="s">
         <v>319</v>
       </c>
-      <c r="C77" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>142</v>
       </c>
       <c r="B78" t="s">
         <v>319</v>
       </c>
-      <c r="C78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -6293,73 +6309,79 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>291</v>
       </c>
       <c r="B80" t="s">
         <v>319</v>
       </c>
-      <c r="C80" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="C80" t="str">
+        <f t="shared" ref="C80:C85" si="4">B80</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>145</v>
       </c>
       <c r="B81" t="s">
         <v>319</v>
       </c>
-      <c r="C81" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="C81" t="str">
+        <f t="shared" si="4"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>146</v>
       </c>
       <c r="B82" t="s">
         <v>319</v>
       </c>
-      <c r="C82" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="C82" t="str">
+        <f t="shared" si="4"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>282</v>
       </c>
       <c r="B83" t="s">
         <v>319</v>
       </c>
-      <c r="C83" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83" t="str">
+        <f t="shared" si="4"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>252</v>
       </c>
       <c r="B84" t="s">
         <v>319</v>
       </c>
-      <c r="C84" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" t="str">
+        <f t="shared" si="4"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>253</v>
       </c>
       <c r="B85" t="s">
         <v>319</v>
       </c>
-      <c r="C85" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="C85" t="str">
+        <f t="shared" si="4"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -6370,18 +6392,19 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>55</v>
       </c>
       <c r="B87" t="s">
         <v>319</v>
       </c>
-      <c r="C87" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="C87" t="str">
+        <f>B87</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>277</v>
       </c>
@@ -6392,7 +6415,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>256</v>
       </c>
@@ -6403,7 +6426,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -6414,7 +6437,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>149</v>
       </c>
@@ -6425,7 +6448,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -6436,29 +6459,31 @@
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>259</v>
       </c>
       <c r="B93" t="s">
         <v>319</v>
       </c>
-      <c r="C93" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="C93" t="str">
+        <f t="shared" ref="C93:C94" si="5">B93</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>238</v>
       </c>
       <c r="B94" t="s">
         <v>319</v>
       </c>
-      <c r="C94" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="C94" t="str">
+        <f t="shared" si="5"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -6469,29 +6494,31 @@
         <v>322</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>152</v>
       </c>
       <c r="B96" t="s">
         <v>319</v>
       </c>
-      <c r="C96" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="C96" t="str">
+        <f t="shared" ref="C96:C97" si="6">B96</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>260</v>
       </c>
       <c r="B97" t="s">
         <v>319</v>
       </c>
-      <c r="C97" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="C97" t="str">
+        <f t="shared" si="6"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -6502,40 +6529,43 @@
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>154</v>
       </c>
       <c r="B99" t="s">
         <v>319</v>
       </c>
-      <c r="C99" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="C99" t="str">
+        <f t="shared" ref="C99:C101" si="7">B99</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>278</v>
       </c>
       <c r="B100" t="s">
         <v>319</v>
       </c>
-      <c r="C100" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="C100" t="str">
+        <f t="shared" si="7"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>287</v>
       </c>
       <c r="B101" t="s">
         <v>319</v>
       </c>
-      <c r="C101" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="C101" t="str">
+        <f t="shared" si="7"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>261</v>
       </c>
@@ -6546,18 +6576,19 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>216</v>
       </c>
       <c r="B103" t="s">
         <v>319</v>
       </c>
-      <c r="C103" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="C103" t="str">
+        <f>B103</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>262</v>
       </c>
@@ -6568,7 +6599,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>155</v>
       </c>
@@ -6579,29 +6610,31 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>65</v>
       </c>
       <c r="B106" t="s">
         <v>319</v>
       </c>
-      <c r="C106" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="C106" t="str">
+        <f t="shared" ref="C106:C107" si="8">B106</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>66</v>
       </c>
       <c r="B107" t="s">
         <v>319</v>
       </c>
-      <c r="C107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="C107" t="str">
+        <f t="shared" si="8"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>156</v>
       </c>
@@ -6612,18 +6645,19 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>263</v>
       </c>
       <c r="B109" t="s">
         <v>319</v>
       </c>
-      <c r="C109" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="C109" t="str">
+        <f>B109</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>283</v>
       </c>
@@ -6634,18 +6668,19 @@
         <v>321</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>264</v>
       </c>
       <c r="B111" t="s">
         <v>319</v>
       </c>
-      <c r="C111" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="C111" t="str">
+        <f>B111</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>68</v>
       </c>
@@ -6656,7 +6691,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -6667,29 +6702,31 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>265</v>
       </c>
       <c r="B114" t="s">
         <v>319</v>
       </c>
-      <c r="C114" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="C114" t="str">
+        <f t="shared" ref="C114:C115" si="9">B114</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>266</v>
       </c>
       <c r="B115" t="s">
         <v>319</v>
       </c>
-      <c r="C115" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="C115" t="str">
+        <f t="shared" si="9"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>160</v>
       </c>
@@ -6700,7 +6737,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>284</v>
       </c>
@@ -6711,29 +6748,31 @@
         <v>321</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>267</v>
       </c>
       <c r="B118" t="s">
         <v>319</v>
       </c>
-      <c r="C118" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="C118" t="str">
+        <f t="shared" ref="C118:C119" si="10">B118</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>211</v>
       </c>
       <c r="B119" t="s">
         <v>319</v>
       </c>
-      <c r="C119" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="C119" t="str">
+        <f t="shared" si="10"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -6744,7 +6783,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>73</v>
       </c>
@@ -6755,7 +6794,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>215</v>
       </c>
@@ -6766,29 +6805,31 @@
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>268</v>
       </c>
       <c r="B123" t="s">
         <v>319</v>
       </c>
-      <c r="C123" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="C123" t="str">
+        <f t="shared" ref="C123:C124" si="11">B123</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>76</v>
       </c>
       <c r="B124" t="s">
         <v>319</v>
       </c>
-      <c r="C124" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="C124" t="str">
+        <f t="shared" si="11"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>74</v>
       </c>
@@ -6799,7 +6840,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>164</v>
       </c>
@@ -6810,7 +6851,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>197</v>
       </c>
@@ -6821,18 +6862,19 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>269</v>
       </c>
       <c r="B128" t="s">
         <v>319</v>
       </c>
-      <c r="C128" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="C128" t="str">
+        <f>B128</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>285</v>
       </c>
@@ -6843,7 +6885,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>166</v>
       </c>
@@ -6854,7 +6896,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>167</v>
       </c>
@@ -6865,18 +6907,19 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>219</v>
       </c>
       <c r="B132" t="s">
         <v>319</v>
       </c>
-      <c r="C132" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="C132" t="str">
+        <f>B132</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -6887,18 +6930,19 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>286</v>
       </c>
       <c r="B134" t="s">
         <v>319</v>
       </c>
-      <c r="C134" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="C134" t="str">
+        <f>B134</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -6909,7 +6953,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -6920,7 +6964,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>170</v>
       </c>
@@ -6931,7 +6975,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>105</v>
       </c>
@@ -6942,7 +6986,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -6953,7 +6997,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -6964,7 +7008,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>199</v>
       </c>
@@ -6975,7 +7019,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>86</v>
       </c>
@@ -6986,7 +7030,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>87</v>
       </c>
@@ -6997,7 +7041,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -7008,7 +7052,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>89</v>
       </c>
@@ -7019,40 +7063,43 @@
         <v>320</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>270</v>
       </c>
       <c r="B146" t="s">
         <v>319</v>
       </c>
-      <c r="C146" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="C146" t="str">
+        <f t="shared" ref="C146:C148" si="12">B146</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>171</v>
       </c>
       <c r="B147" t="s">
         <v>319</v>
       </c>
-      <c r="C147" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="C147" t="str">
+        <f t="shared" si="12"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>279</v>
       </c>
       <c r="B148" t="s">
         <v>319</v>
       </c>
-      <c r="C148" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="C148" t="str">
+        <f t="shared" si="12"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>91</v>
       </c>
@@ -7063,18 +7110,19 @@
         <v>320</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B150" t="s">
         <v>319</v>
       </c>
-      <c r="C150" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="C150" t="str">
+        <f>B150</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -7085,29 +7133,31 @@
         <v>321</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>220</v>
       </c>
       <c r="B152" t="s">
         <v>319</v>
       </c>
-      <c r="C152" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="C152" t="str">
+        <f t="shared" ref="C152:C153" si="13">B152</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>212</v>
       </c>
       <c r="B153" t="s">
         <v>319</v>
       </c>
-      <c r="C153" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="C153" t="str">
+        <f t="shared" si="13"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>106</v>
       </c>
@@ -7118,7 +7168,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>97</v>
       </c>
@@ -7129,7 +7179,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>98</v>
       </c>
@@ -7140,7 +7190,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -7151,18 +7201,19 @@
         <v>320</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>273</v>
       </c>
       <c r="B158" t="s">
         <v>319</v>
       </c>
-      <c r="C158" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="C158" t="str">
+        <f>B158</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>100</v>
       </c>
@@ -7173,29 +7224,31 @@
         <v>320</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>228</v>
       </c>
       <c r="B160" t="s">
         <v>319</v>
       </c>
-      <c r="C160" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="C160" t="str">
+        <f t="shared" ref="C160:C161" si="14">B160</f>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B161" t="s">
         <v>319</v>
       </c>
-      <c r="C161" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="C161" t="str">
+        <f t="shared" si="14"/>
+        <v>CO-OP</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>229</v>
       </c>
@@ -7206,7 +7259,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>275</v>
       </c>

--- a/data/Classification.xlsx
+++ b/data/Classification.xlsx
@@ -1007,7 +1007,7 @@
     <t>Revised</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Sector</t>
   </si>
 </sst>
 </file>
@@ -5413,9 +5413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/Classification.xlsx
+++ b/data/Classification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="395">
   <si>
     <t>Bank</t>
   </si>
@@ -995,15 +995,9 @@
     <t>FOR</t>
   </si>
   <si>
-    <t>SB GR</t>
-  </si>
-  <si>
     <t>RRB</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Revised</t>
   </si>
   <si>
@@ -1212,6 +1206,9 @@
   </si>
   <si>
     <t>ZILA SAHKARI BANK LTD GHAZIABAD</t>
+  </si>
+  <si>
+    <t>FI</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1626,7 @@
         <v>318</v>
       </c>
       <c r="C1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1646,7 +1643,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1809,7 +1806,7 @@
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(B16,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,7 +1818,7 @@
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(B17,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1833,7 +1830,7 @@
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(B18,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,7 +1842,7 @@
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,7 +1854,7 @@
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(B20,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1869,7 +1866,7 @@
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(B21,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,7 +1878,7 @@
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(B22,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1893,7 +1890,7 @@
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(B23,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,7 +1902,7 @@
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(B24,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1917,7 +1914,7 @@
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(B25,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,7 +1926,7 @@
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP(B26,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1941,19 +1938,19 @@
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(B27,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP(B28,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1965,7 +1962,7 @@
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(B29,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,19 +1974,19 @@
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(B30,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(B31,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2001,19 +1998,19 @@
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(B32,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s">
         <v>127</v>
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(B33,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,7 +2022,7 @@
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(B34,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,7 +2034,7 @@
       </c>
       <c r="C35" t="str">
         <f>VLOOKUP(B35,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2049,7 +2046,7 @@
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(B36,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,7 +2058,7 @@
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(B37,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2073,7 +2070,7 @@
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(B38,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,7 +2082,7 @@
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(B39,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2097,7 +2094,7 @@
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(B40,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2109,7 +2106,7 @@
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2121,7 +2118,7 @@
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,7 +2130,7 @@
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2145,7 +2142,7 @@
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2157,7 +2154,7 @@
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,7 +2166,7 @@
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(B46,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2181,7 +2178,7 @@
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(B47,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2193,43 +2190,43 @@
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP(B48,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP(B49,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP(B50,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP(B51,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2241,7 +2238,7 @@
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(B52,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2253,7 +2250,7 @@
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP(B53,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,7 +2262,7 @@
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(B54,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2277,7 +2274,7 @@
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP(B55,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2289,7 +2286,7 @@
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP(B56,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2301,7 +2298,7 @@
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP(B57,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2313,7 +2310,7 @@
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(B58,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2325,7 +2322,7 @@
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP(B59,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2337,7 +2334,7 @@
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP(B60,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,19 +2346,19 @@
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP(B61,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(B62,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2373,7 +2370,7 @@
       </c>
       <c r="C63" t="str">
         <f>VLOOKUP(B63,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,7 +2382,7 @@
       </c>
       <c r="C64" t="str">
         <f>VLOOKUP(B64,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,7 +2394,7 @@
       </c>
       <c r="C65" t="str">
         <f>VLOOKUP(B65,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2409,7 +2406,7 @@
       </c>
       <c r="C66" t="str">
         <f>VLOOKUP(B66,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2421,7 +2418,7 @@
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP(B67,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2433,7 +2430,7 @@
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP(B68,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2445,7 +2442,7 @@
       </c>
       <c r="C69" t="str">
         <f>VLOOKUP(B69,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2457,7 +2454,7 @@
       </c>
       <c r="C70" t="str">
         <f>VLOOKUP(B70,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2469,7 +2466,7 @@
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP(B71,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,7 +2478,7 @@
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP(B72,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2493,7 +2490,7 @@
       </c>
       <c r="C73" t="str">
         <f>VLOOKUP(B73,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2505,7 +2502,7 @@
       </c>
       <c r="C74" t="str">
         <f>VLOOKUP(B74,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,7 +2514,7 @@
       </c>
       <c r="C75" t="str">
         <f>VLOOKUP(B75,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,7 +2526,7 @@
       </c>
       <c r="C76" t="str">
         <f>VLOOKUP(B76,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,7 +2538,7 @@
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP(B77,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2553,7 +2550,7 @@
       </c>
       <c r="C78" t="str">
         <f>VLOOKUP(B78,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2565,7 +2562,7 @@
       </c>
       <c r="C79" t="str">
         <f>VLOOKUP(B79,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2577,7 +2574,7 @@
       </c>
       <c r="C80" t="str">
         <f>VLOOKUP(B80,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2589,7 +2586,7 @@
       </c>
       <c r="C81" t="str">
         <f>VLOOKUP(B81,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2601,7 +2598,7 @@
       </c>
       <c r="C82" t="str">
         <f>VLOOKUP(B82,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,7 +2610,7 @@
       </c>
       <c r="C83" t="str">
         <f>VLOOKUP(B83,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2625,7 +2622,7 @@
       </c>
       <c r="C84" t="str">
         <f>VLOOKUP(B84,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2637,7 +2634,7 @@
       </c>
       <c r="C85" t="str">
         <f>VLOOKUP(B85,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2649,7 +2646,7 @@
       </c>
       <c r="C86" t="str">
         <f>VLOOKUP(B86,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2661,7 +2658,7 @@
       </c>
       <c r="C87" t="str">
         <f>VLOOKUP(B87,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2673,7 +2670,7 @@
       </c>
       <c r="C88" t="str">
         <f>VLOOKUP(B88,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2685,7 +2682,7 @@
       </c>
       <c r="C89" t="str">
         <f>VLOOKUP(B89,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2697,7 +2694,7 @@
       </c>
       <c r="C90" t="str">
         <f>VLOOKUP(B90,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2709,7 +2706,7 @@
       </c>
       <c r="C91" t="str">
         <f>VLOOKUP(B91,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2721,7 +2718,7 @@
       </c>
       <c r="C92" t="str">
         <f>VLOOKUP(B92,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,7 +2730,7 @@
       </c>
       <c r="C93" t="str">
         <f>VLOOKUP(B93,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,7 +2742,7 @@
       </c>
       <c r="C94" t="str">
         <f>VLOOKUP(B94,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,7 +2754,7 @@
       </c>
       <c r="C95" t="str">
         <f>VLOOKUP(B95,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,7 +2766,7 @@
       </c>
       <c r="C96" t="str">
         <f>VLOOKUP(B96,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,31 +2778,31 @@
       </c>
       <c r="C97" t="str">
         <f>VLOOKUP(B97,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s">
         <v>262</v>
       </c>
       <c r="C98" t="str">
         <f>VLOOKUP(B98,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B99" t="s">
         <v>65</v>
       </c>
       <c r="C99" t="str">
         <f>VLOOKUP(B99,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,7 +2814,7 @@
       </c>
       <c r="C100" t="str">
         <f>VLOOKUP(B100,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,7 +2826,7 @@
       </c>
       <c r="C101" t="str">
         <f>VLOOKUP(B101,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2841,7 +2838,7 @@
       </c>
       <c r="C102" t="str">
         <f>VLOOKUP(B102,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2853,7 +2850,7 @@
       </c>
       <c r="C103" t="str">
         <f>VLOOKUP(B103,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2865,7 +2862,7 @@
       </c>
       <c r="C104" t="str">
         <f>VLOOKUP(B104,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,7 +2874,7 @@
       </c>
       <c r="C105" t="str">
         <f>VLOOKUP(B105,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,7 +2886,7 @@
       </c>
       <c r="C106" t="str">
         <f>VLOOKUP(B106,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,7 +2898,7 @@
       </c>
       <c r="C107" t="str">
         <f>VLOOKUP(B107,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,19 +2910,19 @@
       </c>
       <c r="C108" t="str">
         <f>VLOOKUP(B108,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B109" t="s">
         <v>211</v>
       </c>
       <c r="C109" t="str">
         <f>VLOOKUP(B109,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2937,7 +2934,7 @@
       </c>
       <c r="C110" t="str">
         <f>VLOOKUP(B110,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,7 +2946,7 @@
       </c>
       <c r="C111" t="str">
         <f>VLOOKUP(B111,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,7 +2958,7 @@
       </c>
       <c r="C112" t="str">
         <f>VLOOKUP(B112,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2973,7 +2970,7 @@
       </c>
       <c r="C113" t="str">
         <f>VLOOKUP(B113,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2985,7 +2982,7 @@
       </c>
       <c r="C114" t="str">
         <f>VLOOKUP(B114,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,19 +2994,19 @@
       </c>
       <c r="C115" t="str">
         <f>VLOOKUP(B115,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C116" t="str">
         <f>VLOOKUP(B116,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3021,7 +3018,7 @@
       </c>
       <c r="C117" t="str">
         <f>VLOOKUP(B117,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3033,7 +3030,7 @@
       </c>
       <c r="C118" t="str">
         <f>VLOOKUP(B118,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,7 +3042,7 @@
       </c>
       <c r="C119" t="str">
         <f>VLOOKUP(B119,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3057,7 +3054,7 @@
       </c>
       <c r="C120" t="str">
         <f>VLOOKUP(B120,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3069,7 +3066,7 @@
       </c>
       <c r="C121" t="str">
         <f>VLOOKUP(B121,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3081,7 +3078,7 @@
       </c>
       <c r="C122" t="str">
         <f>VLOOKUP(B122,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,7 +3090,7 @@
       </c>
       <c r="C123" t="str">
         <f>VLOOKUP(B123,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3105,7 +3102,7 @@
       </c>
       <c r="C124" t="str">
         <f>VLOOKUP(B124,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3117,7 +3114,7 @@
       </c>
       <c r="C125" t="str">
         <f>VLOOKUP(B125,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3126,7 @@
       </c>
       <c r="C126" t="str">
         <f>VLOOKUP(B126,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3141,7 +3138,7 @@
       </c>
       <c r="C127" t="str">
         <f>VLOOKUP(B127,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,7 +3150,7 @@
       </c>
       <c r="C128" t="str">
         <f>VLOOKUP(B128,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3165,7 +3162,7 @@
       </c>
       <c r="C129" t="str">
         <f>VLOOKUP(B129,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3177,7 +3174,7 @@
       </c>
       <c r="C130" t="str">
         <f>VLOOKUP(B130,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3189,7 +3186,7 @@
       </c>
       <c r="C131" t="str">
         <f>VLOOKUP(B131,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3201,7 +3198,7 @@
       </c>
       <c r="C132" t="str">
         <f>VLOOKUP(B132,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,7 +3210,7 @@
       </c>
       <c r="C133" t="str">
         <f>VLOOKUP(B133,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3225,7 +3222,7 @@
       </c>
       <c r="C134" t="str">
         <f>VLOOKUP(B134,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3237,7 +3234,7 @@
       </c>
       <c r="C135" t="str">
         <f>VLOOKUP(B135,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3302,7 +3299,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B141" t="s">
         <v>19</v>
@@ -3321,7 +3318,7 @@
       </c>
       <c r="C142" t="str">
         <f>VLOOKUP(B142,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3333,19 +3330,19 @@
       </c>
       <c r="C143" t="str">
         <f>VLOOKUP(B143,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B144" t="s">
         <v>248</v>
       </c>
       <c r="C144" t="str">
         <f>VLOOKUP(B144,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3357,7 +3354,7 @@
       </c>
       <c r="C145" t="str">
         <f>VLOOKUP(B145,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3369,7 +3366,7 @@
       </c>
       <c r="C146" t="str">
         <f>VLOOKUP(B146,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3381,7 +3378,7 @@
       </c>
       <c r="C147" t="str">
         <f>VLOOKUP(B147,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3393,7 +3390,7 @@
       </c>
       <c r="C148" t="str">
         <f>VLOOKUP(B148,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3405,7 +3402,7 @@
       </c>
       <c r="C149" t="str">
         <f>VLOOKUP(B149,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3417,19 +3414,19 @@
       </c>
       <c r="C150" t="str">
         <f>VLOOKUP(B150,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B151" t="s">
         <v>58</v>
       </c>
       <c r="C151" t="str">
         <f>VLOOKUP(B151,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3441,19 +3438,19 @@
       </c>
       <c r="C152" t="str">
         <f>VLOOKUP(B152,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B153" t="s">
         <v>238</v>
       </c>
       <c r="C153" t="str">
         <f>VLOOKUP(B153,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3465,7 +3462,7 @@
       </c>
       <c r="C154" t="str">
         <f>VLOOKUP(B154,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3477,7 +3474,7 @@
       </c>
       <c r="C155" t="str">
         <f>VLOOKUP(B155,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3489,7 +3486,7 @@
       </c>
       <c r="C156" t="str">
         <f>VLOOKUP(B156,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3501,7 +3498,7 @@
       </c>
       <c r="C157" t="str">
         <f>VLOOKUP(B157,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3513,19 +3510,19 @@
       </c>
       <c r="C158" t="str">
         <f>VLOOKUP(B158,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C159" t="str">
         <f>VLOOKUP(B159,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3537,19 +3534,19 @@
       </c>
       <c r="C160" t="str">
         <f>VLOOKUP(B160,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B161" t="s">
         <v>219</v>
       </c>
       <c r="C161" t="str">
         <f>VLOOKUP(B161,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3561,7 +3558,7 @@
       </c>
       <c r="C162" t="str">
         <f>VLOOKUP(B162,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3573,19 +3570,19 @@
       </c>
       <c r="C163" t="str">
         <f>VLOOKUP(B163,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B164" t="s">
         <v>212</v>
       </c>
       <c r="C164" t="str">
         <f>VLOOKUP(B164,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,7 +3666,7 @@
       </c>
       <c r="C171" t="str">
         <f>VLOOKUP(B171,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3681,7 +3678,7 @@
       </c>
       <c r="C172" t="str">
         <f>VLOOKUP(B172,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3722,7 +3719,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B176" t="s">
         <v>110</v>
@@ -3734,14 +3731,14 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C177" t="str">
         <f>VLOOKUP(B177,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3806,10 +3803,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B183" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C183" t="str">
         <f>VLOOKUP(B183,Final_Names!A:C,3,FALSE)</f>
@@ -3818,10 +3815,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B184" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C184" t="str">
         <f>VLOOKUP(B184,Final_Names!A:C,3,FALSE)</f>
@@ -3950,10 +3947,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B195" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C195" t="str">
         <f>VLOOKUP(B195,Final_Names!A:C,3,FALSE)</f>
@@ -3962,10 +3959,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B196" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C196" t="str">
         <f>VLOOKUP(B196,Final_Names!A:C,3,FALSE)</f>
@@ -4118,10 +4115,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B209" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C209" t="str">
         <f>VLOOKUP(B209,Final_Names!A:C,3,FALSE)</f>
@@ -4142,10 +4139,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B211" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C211" t="str">
         <f>VLOOKUP(B211,Final_Names!A:C,3,FALSE)</f>
@@ -4173,7 +4170,7 @@
       </c>
       <c r="C213" t="str">
         <f>VLOOKUP(B213,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4185,7 +4182,7 @@
       </c>
       <c r="C214" t="str">
         <f>VLOOKUP(B214,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,7 +4194,7 @@
       </c>
       <c r="C215" t="str">
         <f>VLOOKUP(B215,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4209,7 +4206,7 @@
       </c>
       <c r="C216" t="str">
         <f>VLOOKUP(B216,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4221,7 +4218,7 @@
       </c>
       <c r="C217" t="str">
         <f>VLOOKUP(B217,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4233,7 +4230,7 @@
       </c>
       <c r="C218" t="str">
         <f>VLOOKUP(B218,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4245,7 +4242,7 @@
       </c>
       <c r="C219" t="str">
         <f>VLOOKUP(B219,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4257,7 +4254,7 @@
       </c>
       <c r="C220" t="str">
         <f>VLOOKUP(B220,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -4269,7 +4266,7 @@
       </c>
       <c r="C221" t="str">
         <f>VLOOKUP(B221,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,7 +4278,7 @@
       </c>
       <c r="C222" t="str">
         <f>VLOOKUP(B222,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,7 +4290,7 @@
       </c>
       <c r="C223" t="str">
         <f>VLOOKUP(B223,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4305,19 +4302,19 @@
       </c>
       <c r="C224" t="str">
         <f>VLOOKUP(B224,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B225" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C225" t="str">
         <f>VLOOKUP(B225,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4329,19 +4326,19 @@
       </c>
       <c r="C226" t="str">
         <f>VLOOKUP(B226,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B227" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C227" t="str">
         <f>VLOOKUP(B227,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,19 +4350,19 @@
       </c>
       <c r="C228" t="str">
         <f>VLOOKUP(B228,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B229" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C229" t="str">
         <f>VLOOKUP(B229,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4377,7 +4374,7 @@
       </c>
       <c r="C230" t="str">
         <f>VLOOKUP(B230,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4389,7 +4386,7 @@
       </c>
       <c r="C231" t="str">
         <f>VLOOKUP(B231,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4401,7 +4398,7 @@
       </c>
       <c r="C232" t="str">
         <f>VLOOKUP(B232,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -4413,7 +4410,7 @@
       </c>
       <c r="C233" t="str">
         <f>VLOOKUP(B233,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -4425,7 +4422,7 @@
       </c>
       <c r="C234" t="str">
         <f>VLOOKUP(B234,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4437,7 +4434,7 @@
       </c>
       <c r="C235" t="str">
         <f>VLOOKUP(B235,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -4449,19 +4446,19 @@
       </c>
       <c r="C236" t="str">
         <f>VLOOKUP(B236,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B237" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C237" t="str">
         <f>VLOOKUP(B237,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -4473,31 +4470,31 @@
       </c>
       <c r="C238" t="str">
         <f>VLOOKUP(B238,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B239" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C239" t="str">
         <f>VLOOKUP(B239,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B240" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C240" t="str">
         <f>VLOOKUP(B240,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -4509,7 +4506,7 @@
       </c>
       <c r="C241" t="str">
         <f>VLOOKUP(B241,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -4521,7 +4518,7 @@
       </c>
       <c r="C242" t="str">
         <f>VLOOKUP(B242,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4533,7 +4530,7 @@
       </c>
       <c r="C243" t="str">
         <f>VLOOKUP(B243,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -4545,19 +4542,19 @@
       </c>
       <c r="C244" t="str">
         <f>VLOOKUP(B244,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B245" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C245" t="str">
         <f>VLOOKUP(B245,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4569,19 +4566,19 @@
       </c>
       <c r="C246" t="str">
         <f>VLOOKUP(B246,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C247" t="str">
         <f>VLOOKUP(B247,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4593,7 +4590,7 @@
       </c>
       <c r="C248" t="str">
         <f>VLOOKUP(B248,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4605,7 +4602,7 @@
       </c>
       <c r="C249" t="str">
         <f>VLOOKUP(B249,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,19 +4614,19 @@
       </c>
       <c r="C250" t="str">
         <f>VLOOKUP(B250,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B251" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C251" t="str">
         <f>VLOOKUP(B251,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4641,7 +4638,7 @@
       </c>
       <c r="C252" t="str">
         <f>VLOOKUP(B252,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4653,19 +4650,19 @@
       </c>
       <c r="C253" t="str">
         <f>VLOOKUP(B253,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B254" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C254" t="str">
         <f>VLOOKUP(B254,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4677,7 +4674,7 @@
       </c>
       <c r="C255" t="str">
         <f>VLOOKUP(B255,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4689,7 +4686,7 @@
       </c>
       <c r="C256" t="str">
         <f>VLOOKUP(B256,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4701,7 +4698,7 @@
       </c>
       <c r="C257" t="str">
         <f>VLOOKUP(B257,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4713,7 +4710,7 @@
       </c>
       <c r="C258" t="str">
         <f>VLOOKUP(B258,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4725,19 +4722,19 @@
       </c>
       <c r="C259" t="str">
         <f>VLOOKUP(B259,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B260" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C260" t="str">
         <f>VLOOKUP(B260,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,7 +4746,7 @@
       </c>
       <c r="C261" t="str">
         <f>VLOOKUP(B261,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,7 +4758,7 @@
       </c>
       <c r="C262" t="str">
         <f>VLOOKUP(B262,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4773,7 +4770,7 @@
       </c>
       <c r="C263" t="str">
         <f>VLOOKUP(B263,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4785,31 +4782,31 @@
       </c>
       <c r="C264" t="str">
         <f>VLOOKUP(B264,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B265" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C265" t="str">
         <f>VLOOKUP(B265,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B266" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C266" t="str">
         <f>VLOOKUP(B266,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4821,7 +4818,7 @@
       </c>
       <c r="C267" t="str">
         <f>VLOOKUP(B267,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4833,7 +4830,7 @@
       </c>
       <c r="C268" t="str">
         <f>VLOOKUP(B268,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4845,7 +4842,7 @@
       </c>
       <c r="C269" t="str">
         <f>VLOOKUP(B269,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4857,7 +4854,7 @@
       </c>
       <c r="C270" t="str">
         <f>VLOOKUP(B270,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4869,7 +4866,7 @@
       </c>
       <c r="C271" t="str">
         <f>VLOOKUP(B271,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,7 +4878,7 @@
       </c>
       <c r="C272" t="str">
         <f>VLOOKUP(B272,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4893,7 +4890,7 @@
       </c>
       <c r="C273" t="str">
         <f>VLOOKUP(B273,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4905,7 +4902,7 @@
       </c>
       <c r="C274" t="str">
         <f>VLOOKUP(B274,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4917,7 +4914,7 @@
       </c>
       <c r="C275" t="str">
         <f>VLOOKUP(B275,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4929,7 +4926,7 @@
       </c>
       <c r="C276" t="str">
         <f>VLOOKUP(B276,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -4941,7 +4938,7 @@
       </c>
       <c r="C277" t="str">
         <f>VLOOKUP(B277,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -4953,7 +4950,7 @@
       </c>
       <c r="C278" t="str">
         <f>VLOOKUP(B278,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -4965,7 +4962,7 @@
       </c>
       <c r="C279" t="str">
         <f>VLOOKUP(B279,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -4977,7 +4974,7 @@
       </c>
       <c r="C280" t="str">
         <f>VLOOKUP(B280,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -4989,7 +4986,7 @@
       </c>
       <c r="C281" t="str">
         <f>VLOOKUP(B281,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -5001,7 +4998,7 @@
       </c>
       <c r="C282" t="str">
         <f>VLOOKUP(B282,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -5013,7 +5010,7 @@
       </c>
       <c r="C283" t="str">
         <f>VLOOKUP(B283,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -5025,31 +5022,31 @@
       </c>
       <c r="C284" t="str">
         <f>VLOOKUP(B284,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B285" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C285" t="str">
         <f>VLOOKUP(B285,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B286" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C286" t="str">
         <f>VLOOKUP(B286,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -5061,7 +5058,7 @@
       </c>
       <c r="C287" t="str">
         <f>VLOOKUP(B287,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -5073,19 +5070,19 @@
       </c>
       <c r="C288" t="str">
         <f>VLOOKUP(B288,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B289" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C289" t="str">
         <f>VLOOKUP(B289,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -5097,7 +5094,7 @@
       </c>
       <c r="C290" t="str">
         <f>VLOOKUP(B290,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -5109,19 +5106,19 @@
       </c>
       <c r="C291" t="str">
         <f>VLOOKUP(B291,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B292" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C292" t="str">
         <f>VLOOKUP(B292,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -5133,7 +5130,7 @@
       </c>
       <c r="C293" t="str">
         <f>VLOOKUP(B293,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -5145,7 +5142,7 @@
       </c>
       <c r="C294" t="str">
         <f>VLOOKUP(B294,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -5157,7 +5154,7 @@
       </c>
       <c r="C295" t="str">
         <f>VLOOKUP(B295,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -5169,7 +5166,7 @@
       </c>
       <c r="C296" t="str">
         <f>VLOOKUP(B296,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -5181,7 +5178,7 @@
       </c>
       <c r="C297" t="str">
         <f>VLOOKUP(B297,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -5193,7 +5190,7 @@
       </c>
       <c r="C298" t="str">
         <f>VLOOKUP(B298,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -5205,19 +5202,19 @@
       </c>
       <c r="C299" t="str">
         <f>VLOOKUP(B299,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B300" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C300" t="str">
         <f>VLOOKUP(B300,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -5229,7 +5226,7 @@
       </c>
       <c r="C301" t="str">
         <f>VLOOKUP(B301,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -5241,7 +5238,7 @@
       </c>
       <c r="C302" t="str">
         <f>VLOOKUP(B302,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -5253,7 +5250,7 @@
       </c>
       <c r="C303" t="str">
         <f>VLOOKUP(B303,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -5265,19 +5262,19 @@
       </c>
       <c r="C304" t="str">
         <f>VLOOKUP(B304,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B305" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C305" t="str">
         <f>VLOOKUP(B305,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -5289,7 +5286,7 @@
       </c>
       <c r="C306" t="str">
         <f>VLOOKUP(B306,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -5301,7 +5298,7 @@
       </c>
       <c r="C307" t="str">
         <f>VLOOKUP(B307,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,7 +5310,7 @@
       </c>
       <c r="C308" t="str">
         <f>VLOOKUP(B308,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -5325,7 +5322,7 @@
       </c>
       <c r="C309" t="str">
         <f>VLOOKUP(B309,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -5337,7 +5334,7 @@
       </c>
       <c r="C310" t="str">
         <f>VLOOKUP(B310,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -5349,7 +5346,7 @@
       </c>
       <c r="C311" t="str">
         <f>VLOOKUP(B311,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -5361,7 +5358,7 @@
       </c>
       <c r="C312" t="str">
         <f>VLOOKUP(B312,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -5373,7 +5370,7 @@
       </c>
       <c r="C313" t="str">
         <f>VLOOKUP(B313,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -5385,7 +5382,7 @@
       </c>
       <c r="C314" t="str">
         <f>VLOOKUP(B314,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -5397,7 +5394,7 @@
       </c>
       <c r="C315" t="str">
         <f>VLOOKUP(B315,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -5409,7 +5406,7 @@
       </c>
       <c r="C316" t="str">
         <f>VLOOKUP(B316,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -5421,19 +5418,19 @@
       </c>
       <c r="C317" t="str">
         <f>VLOOKUP(B317,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B318" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C318" t="str">
         <f>VLOOKUP(B318,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -5445,7 +5442,7 @@
       </c>
       <c r="C319" t="str">
         <f>VLOOKUP(B319,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -5457,7 +5454,7 @@
       </c>
       <c r="C320" t="str">
         <f>VLOOKUP(B320,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -5469,7 +5466,7 @@
       </c>
       <c r="C321" t="str">
         <f>VLOOKUP(B321,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -5481,7 +5478,7 @@
       </c>
       <c r="C322" t="str">
         <f>VLOOKUP(B322,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -5493,7 +5490,7 @@
       </c>
       <c r="C323" t="str">
         <f>VLOOKUP(B323,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -5505,7 +5502,7 @@
       </c>
       <c r="C324" t="str">
         <f>VLOOKUP(B324,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -5517,19 +5514,19 @@
       </c>
       <c r="C325" t="str">
         <f>VLOOKUP(B325,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B326" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C326" t="str">
         <f>VLOOKUP(B326,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -5541,7 +5538,7 @@
       </c>
       <c r="C327" t="str">
         <f>VLOOKUP(B327,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -5553,7 +5550,7 @@
       </c>
       <c r="C328" t="str">
         <f>VLOOKUP(B328,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -5565,7 +5562,7 @@
       </c>
       <c r="C329" t="str">
         <f>VLOOKUP(B329,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -5577,19 +5574,19 @@
       </c>
       <c r="C330" t="str">
         <f>VLOOKUP(B330,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B331" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C331" t="str">
         <f>VLOOKUP(B331,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -5601,19 +5598,19 @@
       </c>
       <c r="C332" t="str">
         <f>VLOOKUP(B332,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B333" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C333" t="str">
         <f>VLOOKUP(B333,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -5625,7 +5622,7 @@
       </c>
       <c r="C334" t="str">
         <f>VLOOKUP(B334,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -5637,7 +5634,7 @@
       </c>
       <c r="C335" t="str">
         <f>VLOOKUP(B335,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -5649,19 +5646,19 @@
       </c>
       <c r="C336" t="str">
         <f>VLOOKUP(B336,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B337" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C337" t="str">
         <f>VLOOKUP(B337,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -5673,19 +5670,19 @@
       </c>
       <c r="C338" t="str">
         <f>VLOOKUP(B338,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B339" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C339" t="str">
         <f>VLOOKUP(B339,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -5697,19 +5694,19 @@
       </c>
       <c r="C340" t="str">
         <f>VLOOKUP(B340,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B341" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C341" t="str">
         <f>VLOOKUP(B341,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -5721,7 +5718,7 @@
       </c>
       <c r="C342" t="str">
         <f>VLOOKUP(B342,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -5733,19 +5730,19 @@
       </c>
       <c r="C343" t="str">
         <f>VLOOKUP(B343,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B344" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C344" t="str">
         <f>VLOOKUP(B344,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -5757,7 +5754,7 @@
       </c>
       <c r="C345" t="str">
         <f>VLOOKUP(B345,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -5769,7 +5766,7 @@
       </c>
       <c r="C346" t="str">
         <f>VLOOKUP(B346,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -5781,7 +5778,7 @@
       </c>
       <c r="C347" t="str">
         <f>VLOOKUP(B347,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -5793,7 +5790,7 @@
       </c>
       <c r="C348" t="str">
         <f>VLOOKUP(B348,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -5805,7 +5802,7 @@
       </c>
       <c r="C349" t="str">
         <f>VLOOKUP(B349,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -5817,7 +5814,7 @@
       </c>
       <c r="C350" t="str">
         <f>VLOOKUP(B350,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -5829,7 +5826,7 @@
       </c>
       <c r="C351" t="str">
         <f>VLOOKUP(B351,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -5841,7 +5838,7 @@
       </c>
       <c r="C352" t="str">
         <f>VLOOKUP(B352,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -5853,7 +5850,7 @@
       </c>
       <c r="C353" t="str">
         <f>VLOOKUP(B353,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -5865,19 +5862,19 @@
       </c>
       <c r="C354" t="str">
         <f>VLOOKUP(B354,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B355" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C355" t="str">
         <f>VLOOKUP(B355,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -5889,19 +5886,19 @@
       </c>
       <c r="C356" t="str">
         <f>VLOOKUP(B356,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B357" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C357" t="str">
         <f>VLOOKUP(B357,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -5913,7 +5910,7 @@
       </c>
       <c r="C358" t="str">
         <f>VLOOKUP(B358,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -5925,7 +5922,7 @@
       </c>
       <c r="C359" t="str">
         <f>VLOOKUP(B359,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -5937,7 +5934,7 @@
       </c>
       <c r="C360" t="str">
         <f>VLOOKUP(B360,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -5949,7 +5946,7 @@
       </c>
       <c r="C361" t="str">
         <f>VLOOKUP(B361,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -5961,7 +5958,7 @@
       </c>
       <c r="C362" t="str">
         <f>VLOOKUP(B362,Final_Names!A:C,3,FALSE)</f>
-        <v>PVT</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -5973,19 +5970,19 @@
       </c>
       <c r="C363" t="str">
         <f>VLOOKUP(B363,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B364" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C364" t="str">
         <f>VLOOKUP(B364,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -5997,79 +5994,79 @@
       </c>
       <c r="C365" t="str">
         <f>VLOOKUP(B365,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B366" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C366" t="str">
         <f>VLOOKUP(B366,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B367" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C367" t="str">
         <f>VLOOKUP(B367,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B368" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C368" t="str">
         <f>VLOOKUP(B368,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B369" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C369" t="str">
         <f>VLOOKUP(B369,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B370" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C370" t="str">
         <f>VLOOKUP(B370,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B371" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C371" t="str">
         <f>VLOOKUP(B371,Final_Names!A:C,3,FALSE)</f>
-        <v>CO-OP</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -6081,7 +6078,7 @@
       </c>
       <c r="C372" t="str">
         <f>VLOOKUP(B372,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -6093,7 +6090,7 @@
       </c>
       <c r="C373" t="str">
         <f>VLOOKUP(B373,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -6105,7 +6102,7 @@
       </c>
       <c r="C374" t="str">
         <f>VLOOKUP(B374,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -6117,31 +6114,31 @@
       </c>
       <c r="C375" t="str">
         <f>VLOOKUP(B375,Final_Names!A:C,3,FALSE)</f>
-        <v>PSB</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B376" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C376" t="str">
         <f>VLOOKUP(B376,Final_Names!A:C,3,FALSE)</f>
-        <v>FOR</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B377" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C377" t="str">
         <f>VLOOKUP(B377,Final_Names!A:C,3,FALSE)</f>
-        <v>NA</v>
+        <v>FI</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -6158,10 +6155,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B379" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C379" t="str">
         <f>VLOOKUP(B379,Final_Names!A:C,3,FALSE)</f>
@@ -6206,10 +6203,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B383" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C383" t="str">
         <f>VLOOKUP(B383,Final_Names!A:C,3,FALSE)</f>
@@ -6242,10 +6239,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B386" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C386" t="str">
         <f>VLOOKUP(B386,Final_Names!A:C,3,FALSE)</f>
@@ -6253,6 +6250,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C386"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6282,7 +6280,7 @@
         <v>318</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,7 +6340,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>319</v>
@@ -6353,7 +6351,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>319</v>
@@ -6400,7 +6398,7 @@
         <v>280</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>321</v>
@@ -6422,7 +6420,7 @@
         <v>315</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>321</v>
@@ -6474,7 +6472,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>321</v>
@@ -6485,7 +6483,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>322</v>
@@ -6576,7 +6574,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>321</v>
@@ -6628,7 +6626,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>320</v>
@@ -6650,7 +6648,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>322</v>
@@ -6675,10 +6673,10 @@
         <v>309</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6686,10 +6684,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6697,10 +6695,10 @@
         <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6708,10 +6706,10 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6719,10 +6717,10 @@
         <v>24</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6730,10 +6728,10 @@
         <v>25</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6741,10 +6739,10 @@
         <v>231</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6752,10 +6750,10 @@
         <v>232</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6763,10 +6761,10 @@
         <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6774,10 +6772,10 @@
         <v>123</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6785,10 +6783,10 @@
         <v>124</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6796,21 +6794,21 @@
         <v>192</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6818,21 +6816,21 @@
         <v>125</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6840,21 +6838,21 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6862,10 +6860,10 @@
         <v>126</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6873,10 +6871,10 @@
         <v>127</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6884,10 +6882,10 @@
         <v>233</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6895,10 +6893,10 @@
         <v>32</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6906,10 +6904,10 @@
         <v>200</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6917,10 +6915,10 @@
         <v>248</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6928,21 +6926,21 @@
         <v>35</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6950,32 +6948,32 @@
         <v>36</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6983,10 +6981,10 @@
         <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6994,10 +6992,10 @@
         <v>38</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7005,10 +7003,10 @@
         <v>185</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7016,21 +7014,21 @@
         <v>191</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7038,10 +7036,10 @@
         <v>203</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7049,10 +7047,10 @@
         <v>249</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7060,10 +7058,10 @@
         <v>281</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7071,21 +7069,21 @@
         <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -7093,10 +7091,10 @@
         <v>250</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -7104,21 +7102,21 @@
         <v>41</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7126,10 +7124,10 @@
         <v>42</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7137,10 +7135,10 @@
         <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7148,10 +7146,10 @@
         <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7159,21 +7157,21 @@
         <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -7181,10 +7179,10 @@
         <v>44</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -7192,10 +7190,10 @@
         <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7203,10 +7201,10 @@
         <v>45</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -7214,32 +7212,32 @@
         <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7247,10 +7245,10 @@
         <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -7258,10 +7256,10 @@
         <v>251</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -7269,10 +7267,10 @@
         <v>224</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -7280,10 +7278,10 @@
         <v>235</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -7291,10 +7289,10 @@
         <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -7302,10 +7300,10 @@
         <v>225</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -7313,10 +7311,10 @@
         <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -7324,10 +7322,10 @@
         <v>50</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -7335,10 +7333,10 @@
         <v>291</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -7346,10 +7344,10 @@
         <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -7357,10 +7355,10 @@
         <v>146</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7368,10 +7366,10 @@
         <v>282</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -7379,10 +7377,10 @@
         <v>252</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -7390,10 +7388,10 @@
         <v>253</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -7401,10 +7399,10 @@
         <v>254</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -7412,10 +7410,10 @@
         <v>55</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -7423,10 +7421,10 @@
         <v>277</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -7434,32 +7432,32 @@
         <v>256</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -7467,10 +7465,10 @@
         <v>257</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -7478,21 +7476,21 @@
         <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -7500,10 +7498,10 @@
         <v>58</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -7511,21 +7509,21 @@
         <v>259</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -7533,10 +7531,10 @@
         <v>238</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -7544,10 +7542,10 @@
         <v>61</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -7555,10 +7553,10 @@
         <v>152</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -7566,10 +7564,10 @@
         <v>260</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -7577,10 +7575,10 @@
         <v>187</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -7588,10 +7586,10 @@
         <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -7599,21 +7597,21 @@
         <v>278</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -7621,10 +7619,10 @@
         <v>287</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -7632,10 +7630,10 @@
         <v>261</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -7643,10 +7641,10 @@
         <v>216</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -7654,21 +7652,21 @@
         <v>262</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -7676,10 +7674,10 @@
         <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -7687,10 +7685,10 @@
         <v>65</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -7698,10 +7696,10 @@
         <v>66</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -7709,10 +7707,10 @@
         <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -7720,10 +7718,10 @@
         <v>263</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -7731,10 +7729,10 @@
         <v>283</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -7742,10 +7740,10 @@
         <v>264</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -7753,10 +7751,10 @@
         <v>68</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -7764,10 +7762,10 @@
         <v>69</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -7775,10 +7773,10 @@
         <v>265</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -7786,10 +7784,10 @@
         <v>266</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -7797,21 +7795,21 @@
         <v>160</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -7819,10 +7817,10 @@
         <v>284</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -7830,10 +7828,10 @@
         <v>267</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -7841,10 +7839,10 @@
         <v>211</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -7852,10 +7850,10 @@
         <v>72</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -7863,10 +7861,10 @@
         <v>73</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -7874,10 +7872,10 @@
         <v>215</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -7885,21 +7883,21 @@
         <v>268</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -7907,10 +7905,10 @@
         <v>76</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -7918,10 +7916,10 @@
         <v>74</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -7929,10 +7927,10 @@
         <v>164</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -7940,21 +7938,21 @@
         <v>197</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -7962,21 +7960,21 @@
         <v>269</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -7984,10 +7982,10 @@
         <v>285</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -7995,10 +7993,10 @@
         <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -8006,21 +8004,21 @@
         <v>167</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -8028,21 +8026,21 @@
         <v>219</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -8050,21 +8048,21 @@
         <v>80</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -8072,10 +8070,10 @@
         <v>286</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -8083,21 +8081,21 @@
         <v>81</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -8105,10 +8103,10 @@
         <v>82</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -8116,10 +8114,10 @@
         <v>170</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -8127,10 +8125,10 @@
         <v>105</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -8138,10 +8136,10 @@
         <v>84</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -8149,10 +8147,10 @@
         <v>85</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -8160,10 +8158,10 @@
         <v>199</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -8171,10 +8169,10 @@
         <v>86</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -8182,10 +8180,10 @@
         <v>87</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -8193,10 +8191,10 @@
         <v>88</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -8204,21 +8202,21 @@
         <v>89</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -8226,21 +8224,21 @@
         <v>270</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -8248,10 +8246,10 @@
         <v>171</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -8259,10 +8257,10 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -8270,10 +8268,10 @@
         <v>91</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -8281,10 +8279,10 @@
         <v>271</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -8292,10 +8290,10 @@
         <v>209</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -8303,21 +8301,21 @@
         <v>220</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -8325,76 +8323,76 @@
         <v>212</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -8402,10 +8400,10 @@
         <v>106</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -8413,10 +8411,10 @@
         <v>97</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -8424,10 +8422,10 @@
         <v>98</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -8435,32 +8433,32 @@
         <v>99</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -8476,7 +8474,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>319</v>
@@ -8520,7 +8518,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>322</v>
@@ -8553,7 +8551,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>319</v>
@@ -8563,7 +8561,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C208"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <extLst>

--- a/data/Classification.xlsx
+++ b/data/Classification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18015" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18015" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="To_compare" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="396">
   <si>
     <t>Bank</t>
   </si>
@@ -993,6 +993,9 @@
   </si>
   <si>
     <t>FOR</t>
+  </si>
+  <si>
+    <t>SB GR</t>
   </si>
   <si>
     <t>RRB</t>
@@ -1609,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1626,7 +1629,7 @@
         <v>318</v>
       </c>
       <c r="C1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,7 +1646,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1818,7 +1821,7 @@
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(B17,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,7 +1833,7 @@
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(B18,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,7 +1845,7 @@
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,7 +1857,7 @@
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(B20,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1866,7 +1869,7 @@
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(B21,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +1881,7 @@
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(B22,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1890,7 +1893,7 @@
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(B23,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,7 +1905,7 @@
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(B24,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,7 +1929,7 @@
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP(B26,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,19 +1941,19 @@
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(B27,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP(B28,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,7 +1965,7 @@
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(B29,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1974,19 +1977,19 @@
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(B30,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(B31,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1998,19 +2001,19 @@
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(B32,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B33" t="s">
         <v>127</v>
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(B33,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2022,7 +2025,7 @@
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(B34,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,7 +2037,7 @@
       </c>
       <c r="C35" t="str">
         <f>VLOOKUP(B35,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,7 +2049,7 @@
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(B36,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,7 +2061,7 @@
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(B37,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,7 +2073,7 @@
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(B38,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,7 +2085,7 @@
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(B39,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,7 +2097,7 @@
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(B40,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2106,7 +2109,7 @@
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,7 +2121,7 @@
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2130,7 +2133,7 @@
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,7 +2145,7 @@
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2154,7 +2157,7 @@
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,7 +2169,7 @@
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(B46,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2178,7 +2181,7 @@
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(B47,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2190,43 +2193,43 @@
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP(B48,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP(B49,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP(B50,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP(B51,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2238,7 +2241,7 @@
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(B52,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,7 +2253,7 @@
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP(B53,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2262,7 +2265,7 @@
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(B54,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2274,7 +2277,7 @@
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP(B55,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2286,7 +2289,7 @@
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP(B56,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2298,7 +2301,7 @@
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP(B57,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2310,7 +2313,7 @@
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(B58,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2322,7 +2325,7 @@
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP(B59,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2334,7 +2337,7 @@
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP(B60,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,19 +2349,19 @@
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP(B61,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(B62,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2370,7 +2373,7 @@
       </c>
       <c r="C63" t="str">
         <f>VLOOKUP(B63,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,7 +2385,7 @@
       </c>
       <c r="C64" t="str">
         <f>VLOOKUP(B64,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,7 +2397,7 @@
       </c>
       <c r="C65" t="str">
         <f>VLOOKUP(B65,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2406,7 +2409,7 @@
       </c>
       <c r="C66" t="str">
         <f>VLOOKUP(B66,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,7 +2421,7 @@
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP(B67,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,7 +2433,7 @@
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP(B68,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,7 +2445,7 @@
       </c>
       <c r="C69" t="str">
         <f>VLOOKUP(B69,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2454,7 +2457,7 @@
       </c>
       <c r="C70" t="str">
         <f>VLOOKUP(B70,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2466,7 +2469,7 @@
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP(B71,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2478,7 +2481,7 @@
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP(B72,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,7 +2493,7 @@
       </c>
       <c r="C73" t="str">
         <f>VLOOKUP(B73,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2502,7 +2505,7 @@
       </c>
       <c r="C74" t="str">
         <f>VLOOKUP(B74,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,7 +2517,7 @@
       </c>
       <c r="C75" t="str">
         <f>VLOOKUP(B75,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2526,7 +2529,7 @@
       </c>
       <c r="C76" t="str">
         <f>VLOOKUP(B76,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2538,7 +2541,7 @@
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP(B77,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2550,7 +2553,7 @@
       </c>
       <c r="C78" t="str">
         <f>VLOOKUP(B78,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2562,7 +2565,7 @@
       </c>
       <c r="C79" t="str">
         <f>VLOOKUP(B79,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2574,7 +2577,7 @@
       </c>
       <c r="C80" t="str">
         <f>VLOOKUP(B80,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2586,7 +2589,7 @@
       </c>
       <c r="C81" t="str">
         <f>VLOOKUP(B81,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2598,7 +2601,7 @@
       </c>
       <c r="C82" t="str">
         <f>VLOOKUP(B82,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2610,7 +2613,7 @@
       </c>
       <c r="C83" t="str">
         <f>VLOOKUP(B83,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2622,7 +2625,7 @@
       </c>
       <c r="C84" t="str">
         <f>VLOOKUP(B84,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2634,7 +2637,7 @@
       </c>
       <c r="C85" t="str">
         <f>VLOOKUP(B85,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,7 +2649,7 @@
       </c>
       <c r="C86" t="str">
         <f>VLOOKUP(B86,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2658,7 +2661,7 @@
       </c>
       <c r="C87" t="str">
         <f>VLOOKUP(B87,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2670,7 +2673,7 @@
       </c>
       <c r="C88" t="str">
         <f>VLOOKUP(B88,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,7 +2685,7 @@
       </c>
       <c r="C89" t="str">
         <f>VLOOKUP(B89,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,7 +2697,7 @@
       </c>
       <c r="C90" t="str">
         <f>VLOOKUP(B90,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2706,7 +2709,7 @@
       </c>
       <c r="C91" t="str">
         <f>VLOOKUP(B91,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2718,7 +2721,7 @@
       </c>
       <c r="C92" t="str">
         <f>VLOOKUP(B92,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2730,7 +2733,7 @@
       </c>
       <c r="C93" t="str">
         <f>VLOOKUP(B93,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2742,7 +2745,7 @@
       </c>
       <c r="C94" t="str">
         <f>VLOOKUP(B94,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2754,7 +2757,7 @@
       </c>
       <c r="C95" t="str">
         <f>VLOOKUP(B95,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2766,7 +2769,7 @@
       </c>
       <c r="C96" t="str">
         <f>VLOOKUP(B96,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,31 +2781,31 @@
       </c>
       <c r="C97" t="str">
         <f>VLOOKUP(B97,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B98" t="s">
         <v>262</v>
       </c>
       <c r="C98" t="str">
         <f>VLOOKUP(B98,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B99" t="s">
         <v>65</v>
       </c>
       <c r="C99" t="str">
         <f>VLOOKUP(B99,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,7 +2817,7 @@
       </c>
       <c r="C100" t="str">
         <f>VLOOKUP(B100,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2826,7 +2829,7 @@
       </c>
       <c r="C101" t="str">
         <f>VLOOKUP(B101,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2838,7 +2841,7 @@
       </c>
       <c r="C102" t="str">
         <f>VLOOKUP(B102,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,7 +2853,7 @@
       </c>
       <c r="C103" t="str">
         <f>VLOOKUP(B103,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2862,7 +2865,7 @@
       </c>
       <c r="C104" t="str">
         <f>VLOOKUP(B104,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2874,7 +2877,7 @@
       </c>
       <c r="C105" t="str">
         <f>VLOOKUP(B105,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,7 +2889,7 @@
       </c>
       <c r="C106" t="str">
         <f>VLOOKUP(B106,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2898,7 +2901,7 @@
       </c>
       <c r="C107" t="str">
         <f>VLOOKUP(B107,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,19 +2913,19 @@
       </c>
       <c r="C108" t="str">
         <f>VLOOKUP(B108,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B109" t="s">
         <v>211</v>
       </c>
       <c r="C109" t="str">
         <f>VLOOKUP(B109,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,7 +2937,7 @@
       </c>
       <c r="C110" t="str">
         <f>VLOOKUP(B110,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,7 +2949,7 @@
       </c>
       <c r="C111" t="str">
         <f>VLOOKUP(B111,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2958,7 +2961,7 @@
       </c>
       <c r="C112" t="str">
         <f>VLOOKUP(B112,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2970,7 +2973,7 @@
       </c>
       <c r="C113" t="str">
         <f>VLOOKUP(B113,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,7 +2985,7 @@
       </c>
       <c r="C114" t="str">
         <f>VLOOKUP(B114,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2999,14 +3002,14 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C116" t="str">
         <f>VLOOKUP(B116,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3018,7 +3021,7 @@
       </c>
       <c r="C117" t="str">
         <f>VLOOKUP(B117,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3033,7 @@
       </c>
       <c r="C118" t="str">
         <f>VLOOKUP(B118,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3042,7 +3045,7 @@
       </c>
       <c r="C119" t="str">
         <f>VLOOKUP(B119,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3054,7 +3057,7 @@
       </c>
       <c r="C120" t="str">
         <f>VLOOKUP(B120,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,7 +3069,7 @@
       </c>
       <c r="C121" t="str">
         <f>VLOOKUP(B121,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3078,7 +3081,7 @@
       </c>
       <c r="C122" t="str">
         <f>VLOOKUP(B122,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3090,7 +3093,7 @@
       </c>
       <c r="C123" t="str">
         <f>VLOOKUP(B123,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3102,7 +3105,7 @@
       </c>
       <c r="C124" t="str">
         <f>VLOOKUP(B124,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,7 +3117,7 @@
       </c>
       <c r="C125" t="str">
         <f>VLOOKUP(B125,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3126,7 +3129,7 @@
       </c>
       <c r="C126" t="str">
         <f>VLOOKUP(B126,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3138,7 +3141,7 @@
       </c>
       <c r="C127" t="str">
         <f>VLOOKUP(B127,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3150,7 +3153,7 @@
       </c>
       <c r="C128" t="str">
         <f>VLOOKUP(B128,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3162,7 +3165,7 @@
       </c>
       <c r="C129" t="str">
         <f>VLOOKUP(B129,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3174,7 +3177,7 @@
       </c>
       <c r="C130" t="str">
         <f>VLOOKUP(B130,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3186,7 +3189,7 @@
       </c>
       <c r="C131" t="str">
         <f>VLOOKUP(B131,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3198,7 +3201,7 @@
       </c>
       <c r="C132" t="str">
         <f>VLOOKUP(B132,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,7 +3213,7 @@
       </c>
       <c r="C133" t="str">
         <f>VLOOKUP(B133,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3222,7 +3225,7 @@
       </c>
       <c r="C134" t="str">
         <f>VLOOKUP(B134,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3234,7 +3237,7 @@
       </c>
       <c r="C135" t="str">
         <f>VLOOKUP(B135,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3299,7 +3302,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B141" t="s">
         <v>19</v>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="C142" t="str">
         <f>VLOOKUP(B142,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3330,19 +3333,19 @@
       </c>
       <c r="C143" t="str">
         <f>VLOOKUP(B143,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B144" t="s">
         <v>248</v>
       </c>
       <c r="C144" t="str">
         <f>VLOOKUP(B144,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3354,7 +3357,7 @@
       </c>
       <c r="C145" t="str">
         <f>VLOOKUP(B145,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3366,7 +3369,7 @@
       </c>
       <c r="C146" t="str">
         <f>VLOOKUP(B146,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3378,7 +3381,7 @@
       </c>
       <c r="C147" t="str">
         <f>VLOOKUP(B147,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3390,7 +3393,7 @@
       </c>
       <c r="C148" t="str">
         <f>VLOOKUP(B148,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3402,7 +3405,7 @@
       </c>
       <c r="C149" t="str">
         <f>VLOOKUP(B149,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3414,19 +3417,19 @@
       </c>
       <c r="C150" t="str">
         <f>VLOOKUP(B150,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B151" t="s">
         <v>58</v>
       </c>
       <c r="C151" t="str">
         <f>VLOOKUP(B151,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3438,19 +3441,19 @@
       </c>
       <c r="C152" t="str">
         <f>VLOOKUP(B152,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B153" t="s">
         <v>238</v>
       </c>
       <c r="C153" t="str">
         <f>VLOOKUP(B153,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3462,7 +3465,7 @@
       </c>
       <c r="C154" t="str">
         <f>VLOOKUP(B154,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3474,7 +3477,7 @@
       </c>
       <c r="C155" t="str">
         <f>VLOOKUP(B155,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3486,7 +3489,7 @@
       </c>
       <c r="C156" t="str">
         <f>VLOOKUP(B156,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3498,7 +3501,7 @@
       </c>
       <c r="C157" t="str">
         <f>VLOOKUP(B157,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3510,19 +3513,19 @@
       </c>
       <c r="C158" t="str">
         <f>VLOOKUP(B158,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C159" t="str">
         <f>VLOOKUP(B159,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3534,19 +3537,19 @@
       </c>
       <c r="C160" t="str">
         <f>VLOOKUP(B160,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B161" t="s">
         <v>219</v>
       </c>
       <c r="C161" t="str">
         <f>VLOOKUP(B161,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,7 +3561,7 @@
       </c>
       <c r="C162" t="str">
         <f>VLOOKUP(B162,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3570,19 +3573,19 @@
       </c>
       <c r="C163" t="str">
         <f>VLOOKUP(B163,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B164" t="s">
         <v>212</v>
       </c>
       <c r="C164" t="str">
         <f>VLOOKUP(B164,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3666,7 +3669,7 @@
       </c>
       <c r="C171" t="str">
         <f>VLOOKUP(B171,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3678,7 +3681,7 @@
       </c>
       <c r="C172" t="str">
         <f>VLOOKUP(B172,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3719,7 +3722,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B176" t="s">
         <v>110</v>
@@ -3731,14 +3734,14 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C177" t="str">
         <f>VLOOKUP(B177,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3803,10 +3806,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B183" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C183" t="str">
         <f>VLOOKUP(B183,Final_Names!A:C,3,FALSE)</f>
@@ -3815,10 +3818,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B184" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C184" t="str">
         <f>VLOOKUP(B184,Final_Names!A:C,3,FALSE)</f>
@@ -3947,10 +3950,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B195" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C195" t="str">
         <f>VLOOKUP(B195,Final_Names!A:C,3,FALSE)</f>
@@ -3959,10 +3962,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B196" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C196" t="str">
         <f>VLOOKUP(B196,Final_Names!A:C,3,FALSE)</f>
@@ -4115,10 +4118,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B209" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C209" t="str">
         <f>VLOOKUP(B209,Final_Names!A:C,3,FALSE)</f>
@@ -4139,10 +4142,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B211" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C211" t="str">
         <f>VLOOKUP(B211,Final_Names!A:C,3,FALSE)</f>
@@ -4182,7 +4185,7 @@
       </c>
       <c r="C214" t="str">
         <f>VLOOKUP(B214,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4194,7 +4197,7 @@
       </c>
       <c r="C215" t="str">
         <f>VLOOKUP(B215,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4206,7 +4209,7 @@
       </c>
       <c r="C216" t="str">
         <f>VLOOKUP(B216,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4218,7 +4221,7 @@
       </c>
       <c r="C217" t="str">
         <f>VLOOKUP(B217,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4230,7 +4233,7 @@
       </c>
       <c r="C218" t="str">
         <f>VLOOKUP(B218,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4242,7 +4245,7 @@
       </c>
       <c r="C219" t="str">
         <f>VLOOKUP(B219,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,7 +4257,7 @@
       </c>
       <c r="C220" t="str">
         <f>VLOOKUP(B220,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -4266,7 +4269,7 @@
       </c>
       <c r="C221" t="str">
         <f>VLOOKUP(B221,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4278,7 +4281,7 @@
       </c>
       <c r="C222" t="str">
         <f>VLOOKUP(B222,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4290,7 +4293,7 @@
       </c>
       <c r="C223" t="str">
         <f>VLOOKUP(B223,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4302,19 +4305,19 @@
       </c>
       <c r="C224" t="str">
         <f>VLOOKUP(B224,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B225" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C225" t="str">
         <f>VLOOKUP(B225,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4326,19 +4329,19 @@
       </c>
       <c r="C226" t="str">
         <f>VLOOKUP(B226,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B227" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C227" t="str">
         <f>VLOOKUP(B227,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4350,19 +4353,19 @@
       </c>
       <c r="C228" t="str">
         <f>VLOOKUP(B228,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B229" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C229" t="str">
         <f>VLOOKUP(B229,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4374,7 +4377,7 @@
       </c>
       <c r="C230" t="str">
         <f>VLOOKUP(B230,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,7 +4389,7 @@
       </c>
       <c r="C231" t="str">
         <f>VLOOKUP(B231,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4398,7 +4401,7 @@
       </c>
       <c r="C232" t="str">
         <f>VLOOKUP(B232,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -4410,7 +4413,7 @@
       </c>
       <c r="C233" t="str">
         <f>VLOOKUP(B233,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -4422,7 +4425,7 @@
       </c>
       <c r="C234" t="str">
         <f>VLOOKUP(B234,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4434,7 +4437,7 @@
       </c>
       <c r="C235" t="str">
         <f>VLOOKUP(B235,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -4451,14 +4454,14 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B237" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C237" t="str">
         <f>VLOOKUP(B237,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -4470,15 +4473,15 @@
       </c>
       <c r="C238" t="str">
         <f>VLOOKUP(B238,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B239" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C239" t="str">
         <f>VLOOKUP(B239,Final_Names!A:C,3,FALSE)</f>
@@ -4487,10 +4490,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B240" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C240" t="str">
         <f>VLOOKUP(B240,Final_Names!A:C,3,FALSE)</f>
@@ -4506,7 +4509,7 @@
       </c>
       <c r="C241" t="str">
         <f>VLOOKUP(B241,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,7 +4521,7 @@
       </c>
       <c r="C242" t="str">
         <f>VLOOKUP(B242,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4530,7 +4533,7 @@
       </c>
       <c r="C243" t="str">
         <f>VLOOKUP(B243,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -4542,19 +4545,19 @@
       </c>
       <c r="C244" t="str">
         <f>VLOOKUP(B244,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B245" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C245" t="str">
         <f>VLOOKUP(B245,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4566,19 +4569,19 @@
       </c>
       <c r="C246" t="str">
         <f>VLOOKUP(B246,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C247" t="str">
         <f>VLOOKUP(B247,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4590,7 +4593,7 @@
       </c>
       <c r="C248" t="str">
         <f>VLOOKUP(B248,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4602,7 +4605,7 @@
       </c>
       <c r="C249" t="str">
         <f>VLOOKUP(B249,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4614,19 +4617,19 @@
       </c>
       <c r="C250" t="str">
         <f>VLOOKUP(B250,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B251" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C251" t="str">
         <f>VLOOKUP(B251,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4638,7 +4641,7 @@
       </c>
       <c r="C252" t="str">
         <f>VLOOKUP(B252,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,19 +4653,19 @@
       </c>
       <c r="C253" t="str">
         <f>VLOOKUP(B253,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B254" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C254" t="str">
         <f>VLOOKUP(B254,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4674,7 +4677,7 @@
       </c>
       <c r="C255" t="str">
         <f>VLOOKUP(B255,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4686,7 +4689,7 @@
       </c>
       <c r="C256" t="str">
         <f>VLOOKUP(B256,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4698,7 +4701,7 @@
       </c>
       <c r="C257" t="str">
         <f>VLOOKUP(B257,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4722,19 +4725,19 @@
       </c>
       <c r="C259" t="str">
         <f>VLOOKUP(B259,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B260" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C260" t="str">
         <f>VLOOKUP(B260,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4746,7 +4749,7 @@
       </c>
       <c r="C261" t="str">
         <f>VLOOKUP(B261,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4770,7 +4773,7 @@
       </c>
       <c r="C263" t="str">
         <f>VLOOKUP(B263,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,31 +4785,31 @@
       </c>
       <c r="C264" t="str">
         <f>VLOOKUP(B264,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B265" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C265" t="str">
         <f>VLOOKUP(B265,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B266" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C266" t="str">
         <f>VLOOKUP(B266,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4818,7 +4821,7 @@
       </c>
       <c r="C267" t="str">
         <f>VLOOKUP(B267,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4830,7 +4833,7 @@
       </c>
       <c r="C268" t="str">
         <f>VLOOKUP(B268,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4842,7 +4845,7 @@
       </c>
       <c r="C269" t="str">
         <f>VLOOKUP(B269,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4854,7 +4857,7 @@
       </c>
       <c r="C270" t="str">
         <f>VLOOKUP(B270,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4866,7 +4869,7 @@
       </c>
       <c r="C271" t="str">
         <f>VLOOKUP(B271,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4878,7 +4881,7 @@
       </c>
       <c r="C272" t="str">
         <f>VLOOKUP(B272,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4890,7 +4893,7 @@
       </c>
       <c r="C273" t="str">
         <f>VLOOKUP(B273,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4902,7 +4905,7 @@
       </c>
       <c r="C274" t="str">
         <f>VLOOKUP(B274,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4914,7 +4917,7 @@
       </c>
       <c r="C275" t="str">
         <f>VLOOKUP(B275,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4926,7 +4929,7 @@
       </c>
       <c r="C276" t="str">
         <f>VLOOKUP(B276,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -4938,7 +4941,7 @@
       </c>
       <c r="C277" t="str">
         <f>VLOOKUP(B277,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -4950,7 +4953,7 @@
       </c>
       <c r="C278" t="str">
         <f>VLOOKUP(B278,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -4962,7 +4965,7 @@
       </c>
       <c r="C279" t="str">
         <f>VLOOKUP(B279,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -4974,7 +4977,7 @@
       </c>
       <c r="C280" t="str">
         <f>VLOOKUP(B280,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -4986,7 +4989,7 @@
       </c>
       <c r="C281" t="str">
         <f>VLOOKUP(B281,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -4998,7 +5001,7 @@
       </c>
       <c r="C282" t="str">
         <f>VLOOKUP(B282,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -5010,7 +5013,7 @@
       </c>
       <c r="C283" t="str">
         <f>VLOOKUP(B283,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -5022,31 +5025,31 @@
       </c>
       <c r="C284" t="str">
         <f>VLOOKUP(B284,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B285" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C285" t="str">
         <f>VLOOKUP(B285,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B286" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C286" t="str">
         <f>VLOOKUP(B286,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -5058,7 +5061,7 @@
       </c>
       <c r="C287" t="str">
         <f>VLOOKUP(B287,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -5070,19 +5073,19 @@
       </c>
       <c r="C288" t="str">
         <f>VLOOKUP(B288,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B289" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C289" t="str">
         <f>VLOOKUP(B289,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -5094,7 +5097,7 @@
       </c>
       <c r="C290" t="str">
         <f>VLOOKUP(B290,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -5106,19 +5109,19 @@
       </c>
       <c r="C291" t="str">
         <f>VLOOKUP(B291,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B292" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C292" t="str">
         <f>VLOOKUP(B292,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -5130,7 +5133,7 @@
       </c>
       <c r="C293" t="str">
         <f>VLOOKUP(B293,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -5142,7 +5145,7 @@
       </c>
       <c r="C294" t="str">
         <f>VLOOKUP(B294,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -5154,7 +5157,7 @@
       </c>
       <c r="C295" t="str">
         <f>VLOOKUP(B295,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -5166,7 +5169,7 @@
       </c>
       <c r="C296" t="str">
         <f>VLOOKUP(B296,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -5178,7 +5181,7 @@
       </c>
       <c r="C297" t="str">
         <f>VLOOKUP(B297,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -5190,7 +5193,7 @@
       </c>
       <c r="C298" t="str">
         <f>VLOOKUP(B298,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -5202,19 +5205,19 @@
       </c>
       <c r="C299" t="str">
         <f>VLOOKUP(B299,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B300" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C300" t="str">
         <f>VLOOKUP(B300,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -5226,7 +5229,7 @@
       </c>
       <c r="C301" t="str">
         <f>VLOOKUP(B301,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -5238,7 +5241,7 @@
       </c>
       <c r="C302" t="str">
         <f>VLOOKUP(B302,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -5250,7 +5253,7 @@
       </c>
       <c r="C303" t="str">
         <f>VLOOKUP(B303,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -5262,19 +5265,19 @@
       </c>
       <c r="C304" t="str">
         <f>VLOOKUP(B304,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B305" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C305" t="str">
         <f>VLOOKUP(B305,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -5298,7 +5301,7 @@
       </c>
       <c r="C307" t="str">
         <f>VLOOKUP(B307,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -5310,7 +5313,7 @@
       </c>
       <c r="C308" t="str">
         <f>VLOOKUP(B308,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -5322,7 +5325,7 @@
       </c>
       <c r="C309" t="str">
         <f>VLOOKUP(B309,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -5334,7 +5337,7 @@
       </c>
       <c r="C310" t="str">
         <f>VLOOKUP(B310,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -5346,7 +5349,7 @@
       </c>
       <c r="C311" t="str">
         <f>VLOOKUP(B311,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -5358,7 +5361,7 @@
       </c>
       <c r="C312" t="str">
         <f>VLOOKUP(B312,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -5370,7 +5373,7 @@
       </c>
       <c r="C313" t="str">
         <f>VLOOKUP(B313,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -5382,7 +5385,7 @@
       </c>
       <c r="C314" t="str">
         <f>VLOOKUP(B314,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -5394,7 +5397,7 @@
       </c>
       <c r="C315" t="str">
         <f>VLOOKUP(B315,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -5406,7 +5409,7 @@
       </c>
       <c r="C316" t="str">
         <f>VLOOKUP(B316,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -5423,14 +5426,14 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B318" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C318" t="str">
         <f>VLOOKUP(B318,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -5442,7 +5445,7 @@
       </c>
       <c r="C319" t="str">
         <f>VLOOKUP(B319,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -5454,7 +5457,7 @@
       </c>
       <c r="C320" t="str">
         <f>VLOOKUP(B320,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -5466,7 +5469,7 @@
       </c>
       <c r="C321" t="str">
         <f>VLOOKUP(B321,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -5478,7 +5481,7 @@
       </c>
       <c r="C322" t="str">
         <f>VLOOKUP(B322,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -5490,7 +5493,7 @@
       </c>
       <c r="C323" t="str">
         <f>VLOOKUP(B323,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -5502,7 +5505,7 @@
       </c>
       <c r="C324" t="str">
         <f>VLOOKUP(B324,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -5514,19 +5517,19 @@
       </c>
       <c r="C325" t="str">
         <f>VLOOKUP(B325,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B326" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C326" t="str">
         <f>VLOOKUP(B326,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -5538,7 +5541,7 @@
       </c>
       <c r="C327" t="str">
         <f>VLOOKUP(B327,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -5550,7 +5553,7 @@
       </c>
       <c r="C328" t="str">
         <f>VLOOKUP(B328,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -5574,19 +5577,19 @@
       </c>
       <c r="C330" t="str">
         <f>VLOOKUP(B330,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B331" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C331" t="str">
         <f>VLOOKUP(B331,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -5598,19 +5601,19 @@
       </c>
       <c r="C332" t="str">
         <f>VLOOKUP(B332,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B333" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C333" t="str">
         <f>VLOOKUP(B333,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -5622,7 +5625,7 @@
       </c>
       <c r="C334" t="str">
         <f>VLOOKUP(B334,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -5634,7 +5637,7 @@
       </c>
       <c r="C335" t="str">
         <f>VLOOKUP(B335,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -5651,14 +5654,14 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B337" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C337" t="str">
         <f>VLOOKUP(B337,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -5670,19 +5673,19 @@
       </c>
       <c r="C338" t="str">
         <f>VLOOKUP(B338,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B339" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C339" t="str">
         <f>VLOOKUP(B339,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -5694,19 +5697,19 @@
       </c>
       <c r="C340" t="str">
         <f>VLOOKUP(B340,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B341" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C341" t="str">
         <f>VLOOKUP(B341,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -5718,7 +5721,7 @@
       </c>
       <c r="C342" t="str">
         <f>VLOOKUP(B342,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -5730,19 +5733,19 @@
       </c>
       <c r="C343" t="str">
         <f>VLOOKUP(B343,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B344" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C344" t="str">
         <f>VLOOKUP(B344,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -5754,7 +5757,7 @@
       </c>
       <c r="C345" t="str">
         <f>VLOOKUP(B345,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -5766,7 +5769,7 @@
       </c>
       <c r="C346" t="str">
         <f>VLOOKUP(B346,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -5778,7 +5781,7 @@
       </c>
       <c r="C347" t="str">
         <f>VLOOKUP(B347,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -5790,7 +5793,7 @@
       </c>
       <c r="C348" t="str">
         <f>VLOOKUP(B348,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -5802,7 +5805,7 @@
       </c>
       <c r="C349" t="str">
         <f>VLOOKUP(B349,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -5814,7 +5817,7 @@
       </c>
       <c r="C350" t="str">
         <f>VLOOKUP(B350,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -5826,7 +5829,7 @@
       </c>
       <c r="C351" t="str">
         <f>VLOOKUP(B351,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -5838,7 +5841,7 @@
       </c>
       <c r="C352" t="str">
         <f>VLOOKUP(B352,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -5850,7 +5853,7 @@
       </c>
       <c r="C353" t="str">
         <f>VLOOKUP(B353,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -5862,19 +5865,19 @@
       </c>
       <c r="C354" t="str">
         <f>VLOOKUP(B354,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B355" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C355" t="str">
         <f>VLOOKUP(B355,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -5886,19 +5889,19 @@
       </c>
       <c r="C356" t="str">
         <f>VLOOKUP(B356,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B357" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C357" t="str">
         <f>VLOOKUP(B357,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -5910,7 +5913,7 @@
       </c>
       <c r="C358" t="str">
         <f>VLOOKUP(B358,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -5922,7 +5925,7 @@
       </c>
       <c r="C359" t="str">
         <f>VLOOKUP(B359,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -5934,7 +5937,7 @@
       </c>
       <c r="C360" t="str">
         <f>VLOOKUP(B360,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -5946,7 +5949,7 @@
       </c>
       <c r="C361" t="str">
         <f>VLOOKUP(B361,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -5958,7 +5961,7 @@
       </c>
       <c r="C362" t="str">
         <f>VLOOKUP(B362,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PVT</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -5970,19 +5973,19 @@
       </c>
       <c r="C363" t="str">
         <f>VLOOKUP(B363,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B364" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C364" t="str">
         <f>VLOOKUP(B364,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -5994,79 +5997,79 @@
       </c>
       <c r="C365" t="str">
         <f>VLOOKUP(B365,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B366" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C366" t="str">
         <f>VLOOKUP(B366,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B367" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C367" t="str">
         <f>VLOOKUP(B367,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B368" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C368" t="str">
         <f>VLOOKUP(B368,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B369" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C369" t="str">
         <f>VLOOKUP(B369,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B370" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C370" t="str">
         <f>VLOOKUP(B370,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B371" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C371" t="str">
         <f>VLOOKUP(B371,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>CO-OP</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -6078,7 +6081,7 @@
       </c>
       <c r="C372" t="str">
         <f>VLOOKUP(B372,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -6090,7 +6093,7 @@
       </c>
       <c r="C373" t="str">
         <f>VLOOKUP(B373,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -6102,7 +6105,7 @@
       </c>
       <c r="C374" t="str">
         <f>VLOOKUP(B374,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -6114,27 +6117,27 @@
       </c>
       <c r="C375" t="str">
         <f>VLOOKUP(B375,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>PSB</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B376" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C376" t="str">
         <f>VLOOKUP(B376,Final_Names!A:C,3,FALSE)</f>
-        <v>FI</v>
+        <v>FOR</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B377" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C377" t="str">
         <f>VLOOKUP(B377,Final_Names!A:C,3,FALSE)</f>
@@ -6155,10 +6158,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B379" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C379" t="str">
         <f>VLOOKUP(B379,Final_Names!A:C,3,FALSE)</f>
@@ -6203,10 +6206,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B383" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C383" t="str">
         <f>VLOOKUP(B383,Final_Names!A:C,3,FALSE)</f>
@@ -6239,10 +6242,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B386" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C386" t="str">
         <f>VLOOKUP(B386,Final_Names!A:C,3,FALSE)</f>
@@ -6250,7 +6253,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C386"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6265,7 +6267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6280,7 +6282,7 @@
         <v>318</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6340,7 +6342,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>319</v>
@@ -6351,7 +6353,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>319</v>
@@ -6398,7 +6400,7 @@
         <v>280</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>321</v>
@@ -6420,7 +6422,7 @@
         <v>315</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>321</v>
@@ -6472,7 +6474,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>321</v>
@@ -6483,7 +6485,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>322</v>
@@ -6574,7 +6576,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>321</v>
@@ -6626,7 +6628,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>320</v>
@@ -6648,7 +6650,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>322</v>
@@ -6673,10 +6675,10 @@
         <v>309</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6684,10 +6686,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6695,10 +6697,10 @@
         <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6706,10 +6708,10 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6717,10 +6719,10 @@
         <v>24</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6728,10 +6730,10 @@
         <v>25</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6739,10 +6741,10 @@
         <v>231</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6750,10 +6752,10 @@
         <v>232</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6761,10 +6763,10 @@
         <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6772,10 +6774,10 @@
         <v>123</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6783,10 +6785,10 @@
         <v>124</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6794,21 +6796,21 @@
         <v>192</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6816,21 +6818,21 @@
         <v>125</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6838,21 +6840,21 @@
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6860,10 +6862,10 @@
         <v>126</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6871,10 +6873,10 @@
         <v>127</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6882,10 +6884,10 @@
         <v>233</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6893,10 +6895,10 @@
         <v>32</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6904,10 +6906,10 @@
         <v>200</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6915,10 +6917,10 @@
         <v>248</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6926,21 +6928,21 @@
         <v>35</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6948,32 +6950,32 @@
         <v>36</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6981,10 +6983,10 @@
         <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6992,10 +6994,10 @@
         <v>38</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7003,10 +7005,10 @@
         <v>185</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7014,21 +7016,21 @@
         <v>191</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7036,10 +7038,10 @@
         <v>203</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7047,10 +7049,10 @@
         <v>249</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7058,10 +7060,10 @@
         <v>281</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7069,21 +7071,21 @@
         <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -7091,10 +7093,10 @@
         <v>250</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -7102,21 +7104,21 @@
         <v>41</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7124,10 +7126,10 @@
         <v>42</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7135,10 +7137,10 @@
         <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7146,10 +7148,10 @@
         <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7157,21 +7159,21 @@
         <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -7179,10 +7181,10 @@
         <v>44</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -7190,10 +7192,10 @@
         <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7201,10 +7203,10 @@
         <v>45</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -7212,32 +7214,32 @@
         <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7245,10 +7247,10 @@
         <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -7256,10 +7258,10 @@
         <v>251</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -7267,10 +7269,10 @@
         <v>224</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -7278,10 +7280,10 @@
         <v>235</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -7289,10 +7291,10 @@
         <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -7300,10 +7302,10 @@
         <v>225</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -7311,10 +7313,10 @@
         <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -7322,10 +7324,10 @@
         <v>50</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -7333,10 +7335,10 @@
         <v>291</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -7344,10 +7346,10 @@
         <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -7355,10 +7357,10 @@
         <v>146</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7366,10 +7368,10 @@
         <v>282</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -7377,10 +7379,10 @@
         <v>252</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -7388,10 +7390,10 @@
         <v>253</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -7399,10 +7401,10 @@
         <v>254</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -7410,10 +7412,10 @@
         <v>55</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -7421,10 +7423,10 @@
         <v>277</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -7432,32 +7434,32 @@
         <v>256</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -7465,10 +7467,10 @@
         <v>257</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -7476,21 +7478,21 @@
         <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -7498,10 +7500,10 @@
         <v>58</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -7509,21 +7511,21 @@
         <v>259</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -7531,10 +7533,10 @@
         <v>238</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -7542,10 +7544,10 @@
         <v>61</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -7553,10 +7555,10 @@
         <v>152</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -7564,10 +7566,10 @@
         <v>260</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -7575,10 +7577,10 @@
         <v>187</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -7586,10 +7588,10 @@
         <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -7597,21 +7599,21 @@
         <v>278</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -7619,10 +7621,10 @@
         <v>287</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -7630,10 +7632,10 @@
         <v>261</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -7641,10 +7643,10 @@
         <v>216</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -7652,21 +7654,21 @@
         <v>262</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -7674,10 +7676,10 @@
         <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -7685,10 +7687,10 @@
         <v>65</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -7696,10 +7698,10 @@
         <v>66</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -7707,10 +7709,10 @@
         <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -7718,10 +7720,10 @@
         <v>263</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -7729,10 +7731,10 @@
         <v>283</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -7740,10 +7742,10 @@
         <v>264</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -7751,10 +7753,10 @@
         <v>68</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -7762,10 +7764,10 @@
         <v>69</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -7773,10 +7775,10 @@
         <v>265</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -7784,10 +7786,10 @@
         <v>266</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -7795,21 +7797,21 @@
         <v>160</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -7817,10 +7819,10 @@
         <v>284</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -7828,10 +7830,10 @@
         <v>267</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -7839,10 +7841,10 @@
         <v>211</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -7850,10 +7852,10 @@
         <v>72</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -7861,10 +7863,10 @@
         <v>73</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -7872,10 +7874,10 @@
         <v>215</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -7883,21 +7885,21 @@
         <v>268</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -7905,10 +7907,10 @@
         <v>76</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -7916,10 +7918,10 @@
         <v>74</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -7927,10 +7929,10 @@
         <v>164</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -7938,21 +7940,21 @@
         <v>197</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -7960,21 +7962,21 @@
         <v>269</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -7982,10 +7984,10 @@
         <v>285</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -7993,10 +7995,10 @@
         <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -8004,21 +8006,21 @@
         <v>167</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -8026,21 +8028,21 @@
         <v>219</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -8048,21 +8050,21 @@
         <v>80</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -8070,10 +8072,10 @@
         <v>286</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -8081,21 +8083,21 @@
         <v>81</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -8103,10 +8105,10 @@
         <v>82</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -8114,10 +8116,10 @@
         <v>170</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -8125,10 +8127,10 @@
         <v>105</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -8136,10 +8138,10 @@
         <v>84</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -8147,10 +8149,10 @@
         <v>85</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -8158,10 +8160,10 @@
         <v>199</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -8169,10 +8171,10 @@
         <v>86</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -8180,10 +8182,10 @@
         <v>87</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -8191,10 +8193,10 @@
         <v>88</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -8202,21 +8204,21 @@
         <v>89</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -8224,21 +8226,21 @@
         <v>270</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -8246,10 +8248,10 @@
         <v>171</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -8257,10 +8259,10 @@
         <v>279</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -8268,10 +8270,10 @@
         <v>91</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -8279,10 +8281,10 @@
         <v>271</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -8290,10 +8292,10 @@
         <v>209</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -8301,21 +8303,21 @@
         <v>220</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -8323,76 +8325,76 @@
         <v>212</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -8400,10 +8402,10 @@
         <v>106</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -8411,10 +8413,10 @@
         <v>97</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -8422,10 +8424,10 @@
         <v>98</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -8433,32 +8435,32 @@
         <v>99</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -8474,7 +8476,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>319</v>
@@ -8518,7 +8520,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>322</v>
@@ -8551,7 +8553,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>319</v>
@@ -8561,6 +8563,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C208"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <extLst>
